--- a/Batter_ID(2025).xlsx
+++ b/Batter_ID(2025).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kyengwook/Documents/Baseball/PB/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A442A551-C5E2-8E4D-AC57-8F07C8209C72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32E37A51-6DF9-C04A-BB47-7745F02925FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19360" activeTab="1" xr2:uid="{AE3D3477-F45C-5047-804C-5B3139EFD268}"/>
+    <workbookView xWindow="5820" yWindow="3020" windowWidth="33600" windowHeight="19360" activeTab="1" xr2:uid="{AE3D3477-F45C-5047-804C-5B3139EFD268}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4210" uniqueCount="909">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4211" uniqueCount="910">
   <si>
     <t>Vogelbach, Daniel</t>
   </si>
@@ -2769,6 +2769,10 @@
   </si>
   <si>
     <t>Ornelas, Tirso</t>
+  </si>
+  <si>
+    <t>Kim, Hyeseong</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -25524,10 +25528,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC47BA75-19DB-BD4C-B69F-E48C4409EDF7}">
-  <dimension ref="A1:B1885"/>
+  <dimension ref="A1:B1886"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1857" workbookViewId="0">
-      <selection sqref="A1:A1885"/>
+    <sheetView tabSelected="1" topLeftCell="A946" workbookViewId="0">
+      <selection activeCell="A971" sqref="A971"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -33286,18 +33290,18 @@
     </row>
     <row r="970" spans="1:2">
       <c r="A970" s="2">
-        <v>686797</v>
+        <v>808975</v>
       </c>
       <c r="B970" s="1" t="s">
-        <v>477</v>
+        <v>909</v>
       </c>
     </row>
     <row r="971" spans="1:2">
       <c r="A971" s="2">
-        <v>641779</v>
+        <v>686797</v>
       </c>
       <c r="B971" s="1" t="s">
-        <v>699</v>
+        <v>477</v>
       </c>
     </row>
     <row r="972" spans="1:2">
@@ -33310,26 +33314,26 @@
     </row>
     <row r="973" spans="1:2">
       <c r="A973" s="2">
-        <v>691783</v>
+        <v>641779</v>
       </c>
       <c r="B973" s="1" t="s">
-        <v>835</v>
+        <v>699</v>
       </c>
     </row>
     <row r="974" spans="1:2">
       <c r="A974" s="2">
-        <v>681526</v>
+        <v>691783</v>
       </c>
       <c r="B974" s="1" t="s">
-        <v>798</v>
+        <v>835</v>
       </c>
     </row>
     <row r="975" spans="1:2">
       <c r="A975" s="2">
-        <v>657656</v>
+        <v>681526</v>
       </c>
       <c r="B975" s="1" t="s">
-        <v>467</v>
+        <v>798</v>
       </c>
     </row>
     <row r="976" spans="1:2">
@@ -33350,10 +33354,10 @@
     </row>
     <row r="978" spans="1:2">
       <c r="A978" s="2">
-        <v>663616</v>
+        <v>657656</v>
       </c>
       <c r="B978" s="1" t="s">
-        <v>185</v>
+        <v>467</v>
       </c>
     </row>
     <row r="979" spans="1:2">
@@ -33374,18 +33378,18 @@
     </row>
     <row r="981" spans="1:2">
       <c r="A981" s="2">
-        <v>694671</v>
+        <v>663616</v>
       </c>
       <c r="B981" s="1" t="s">
-        <v>454</v>
+        <v>185</v>
       </c>
     </row>
     <row r="982" spans="1:2">
       <c r="A982" s="2">
-        <v>669127</v>
+        <v>694671</v>
       </c>
       <c r="B982" s="1" t="s">
-        <v>26</v>
+        <v>454</v>
       </c>
     </row>
     <row r="983" spans="1:2">
@@ -33406,10 +33410,10 @@
     </row>
     <row r="985" spans="1:2">
       <c r="A985" s="2">
-        <v>571875</v>
+        <v>669127</v>
       </c>
       <c r="B985" s="1" t="s">
-        <v>613</v>
+        <v>26</v>
       </c>
     </row>
     <row r="986" spans="1:2">
@@ -33422,18 +33426,18 @@
     </row>
     <row r="987" spans="1:2">
       <c r="A987" s="2">
-        <v>501571</v>
+        <v>571875</v>
       </c>
       <c r="B987" s="1" t="s">
-        <v>574</v>
+        <v>613</v>
       </c>
     </row>
     <row r="988" spans="1:2">
       <c r="A988" s="2">
-        <v>600303</v>
+        <v>501571</v>
       </c>
       <c r="B988" s="1" t="s">
-        <v>641</v>
+        <v>574</v>
       </c>
     </row>
     <row r="989" spans="1:2">
@@ -33446,10 +33450,10 @@
     </row>
     <row r="990" spans="1:2">
       <c r="A990" s="2">
-        <v>680757</v>
+        <v>600303</v>
       </c>
       <c r="B990" s="1" t="s">
-        <v>28</v>
+        <v>641</v>
       </c>
     </row>
     <row r="991" spans="1:2">
@@ -33470,18 +33474,18 @@
     </row>
     <row r="993" spans="1:2">
       <c r="A993" s="2">
-        <v>607249</v>
+        <v>680757</v>
       </c>
       <c r="B993" s="1" t="s">
-        <v>656</v>
+        <v>28</v>
       </c>
     </row>
     <row r="994" spans="1:2">
       <c r="A994" s="2">
-        <v>668952</v>
+        <v>607249</v>
       </c>
       <c r="B994" s="1" t="s">
-        <v>389</v>
+        <v>656</v>
       </c>
     </row>
     <row r="995" spans="1:2">
@@ -33502,26 +33506,26 @@
     </row>
     <row r="997" spans="1:2">
       <c r="A997" s="2">
-        <v>656627</v>
+        <v>668952</v>
       </c>
       <c r="B997" s="1" t="s">
-        <v>729</v>
+        <v>389</v>
       </c>
     </row>
     <row r="998" spans="1:2">
       <c r="A998" s="2">
-        <v>670128</v>
+        <v>656627</v>
       </c>
       <c r="B998" s="1" t="s">
-        <v>816</v>
+        <v>729</v>
       </c>
     </row>
     <row r="999" spans="1:2">
       <c r="A999" s="2">
-        <v>668800</v>
+        <v>670128</v>
       </c>
       <c r="B999" s="1" t="s">
-        <v>265</v>
+        <v>816</v>
       </c>
     </row>
     <row r="1000" spans="1:2">
@@ -33542,18 +33546,18 @@
     </row>
     <row r="1002" spans="1:2">
       <c r="A1002" s="2">
-        <v>595284</v>
+        <v>668800</v>
       </c>
       <c r="B1002" s="1" t="s">
-        <v>632</v>
+        <v>265</v>
       </c>
     </row>
     <row r="1003" spans="1:2">
       <c r="A1003" s="2">
-        <v>677008</v>
+        <v>595284</v>
       </c>
       <c r="B1003" s="1" t="s">
-        <v>399</v>
+        <v>632</v>
       </c>
     </row>
     <row r="1004" spans="1:2">
@@ -33566,10 +33570,10 @@
     </row>
     <row r="1005" spans="1:2">
       <c r="A1005" s="2">
-        <v>672386</v>
+        <v>677008</v>
       </c>
       <c r="B1005" s="1" t="s">
-        <v>188</v>
+        <v>399</v>
       </c>
     </row>
     <row r="1006" spans="1:2">
@@ -33590,10 +33594,10 @@
     </row>
     <row r="1008" spans="1:2">
       <c r="A1008" s="2">
-        <v>666135</v>
+        <v>672386</v>
       </c>
       <c r="B1008" s="1" t="s">
-        <v>108</v>
+        <v>188</v>
       </c>
     </row>
     <row r="1009" spans="1:2">
@@ -33614,10 +33618,10 @@
     </row>
     <row r="1011" spans="1:2">
       <c r="A1011" s="2">
-        <v>643396</v>
+        <v>666135</v>
       </c>
       <c r="B1011" s="1" t="s">
-        <v>193</v>
+        <v>108</v>
       </c>
     </row>
     <row r="1012" spans="1:2">
@@ -33638,10 +33642,10 @@
     </row>
     <row r="1014" spans="1:2">
       <c r="A1014" s="2">
-        <v>673490</v>
+        <v>643396</v>
       </c>
       <c r="B1014" s="1" t="s">
-        <v>289</v>
+        <v>193</v>
       </c>
     </row>
     <row r="1015" spans="1:2">
@@ -33662,10 +33666,10 @@
     </row>
     <row r="1017" spans="1:2">
       <c r="A1017" s="2">
-        <v>595281</v>
+        <v>673490</v>
       </c>
       <c r="B1017" s="1" t="s">
-        <v>138</v>
+        <v>289</v>
       </c>
     </row>
     <row r="1018" spans="1:2">
@@ -33686,18 +33690,18 @@
     </row>
     <row r="1020" spans="1:2">
       <c r="A1020" s="2">
-        <v>666198</v>
+        <v>595281</v>
       </c>
       <c r="B1020" s="1" t="s">
-        <v>813</v>
+        <v>138</v>
       </c>
     </row>
     <row r="1021" spans="1:2">
       <c r="A1021" s="2">
-        <v>666197</v>
+        <v>666198</v>
       </c>
       <c r="B1021" s="1" t="s">
-        <v>412</v>
+        <v>813</v>
       </c>
     </row>
     <row r="1022" spans="1:2">
@@ -33710,10 +33714,10 @@
     </row>
     <row r="1023" spans="1:2">
       <c r="A1023" s="2">
-        <v>596146</v>
+        <v>666197</v>
       </c>
       <c r="B1023" s="1" t="s">
-        <v>262</v>
+        <v>412</v>
       </c>
     </row>
     <row r="1024" spans="1:2">
@@ -33734,10 +33738,10 @@
     </row>
     <row r="1026" spans="1:2">
       <c r="A1026" s="2">
-        <v>671083</v>
+        <v>596146</v>
       </c>
       <c r="B1026" s="1" t="s">
-        <v>395</v>
+        <v>262</v>
       </c>
     </row>
     <row r="1027" spans="1:2">
@@ -33758,10 +33762,10 @@
     </row>
     <row r="1029" spans="1:2">
       <c r="A1029" s="2">
-        <v>643393</v>
+        <v>671083</v>
       </c>
       <c r="B1029" s="1" t="s">
-        <v>261</v>
+        <v>395</v>
       </c>
     </row>
     <row r="1030" spans="1:2">
@@ -33782,10 +33786,10 @@
     </row>
     <row r="1032" spans="1:2">
       <c r="A1032" s="2">
-        <v>608348</v>
+        <v>643393</v>
       </c>
       <c r="B1032" s="1" t="s">
-        <v>369</v>
+        <v>261</v>
       </c>
     </row>
     <row r="1033" spans="1:2">
@@ -33806,10 +33810,10 @@
     </row>
     <row r="1035" spans="1:2">
       <c r="A1035" s="2">
-        <v>672284</v>
+        <v>608348</v>
       </c>
       <c r="B1035" s="1" t="s">
-        <v>197</v>
+        <v>369</v>
       </c>
     </row>
     <row r="1036" spans="1:2">
@@ -33830,42 +33834,42 @@
     </row>
     <row r="1038" spans="1:2">
       <c r="A1038" s="2">
-        <v>690993</v>
+        <v>672284</v>
       </c>
       <c r="B1038" s="1" t="s">
-        <v>457</v>
+        <v>197</v>
       </c>
     </row>
     <row r="1039" spans="1:2">
       <c r="A1039" s="2">
-        <v>680577</v>
+        <v>690993</v>
       </c>
       <c r="B1039" s="1" t="s">
-        <v>853</v>
+        <v>457</v>
       </c>
     </row>
     <row r="1040" spans="1:2">
       <c r="A1040" s="2">
-        <v>694359</v>
+        <v>680577</v>
       </c>
       <c r="B1040" s="1" t="s">
-        <v>870</v>
+        <v>853</v>
       </c>
     </row>
     <row r="1041" spans="1:2">
       <c r="A1041" s="2">
-        <v>641741</v>
+        <v>694359</v>
       </c>
       <c r="B1041" s="1" t="s">
-        <v>698</v>
+        <v>870</v>
       </c>
     </row>
     <row r="1042" spans="1:2">
       <c r="A1042" s="2">
-        <v>673962</v>
+        <v>641741</v>
       </c>
       <c r="B1042" s="1" t="s">
-        <v>75</v>
+        <v>698</v>
       </c>
     </row>
     <row r="1043" spans="1:2">
@@ -33886,18 +33890,18 @@
     </row>
     <row r="1045" spans="1:2">
       <c r="A1045" s="2">
-        <v>690291</v>
+        <v>673962</v>
       </c>
       <c r="B1045" s="1" t="s">
-        <v>864</v>
+        <v>75</v>
       </c>
     </row>
     <row r="1046" spans="1:2">
       <c r="A1046" s="2">
-        <v>667452</v>
+        <v>690291</v>
       </c>
       <c r="B1046" s="1" t="s">
-        <v>57</v>
+        <v>864</v>
       </c>
     </row>
     <row r="1047" spans="1:2">
@@ -33910,10 +33914,10 @@
     </row>
     <row r="1048" spans="1:2">
       <c r="A1048" s="2">
-        <v>666397</v>
+        <v>667452</v>
       </c>
       <c r="B1048" s="1" t="s">
-        <v>228</v>
+        <v>57</v>
       </c>
     </row>
     <row r="1049" spans="1:2">
@@ -33926,10 +33930,10 @@
     </row>
     <row r="1050" spans="1:2">
       <c r="A1050" s="2">
-        <v>592450</v>
+        <v>666397</v>
       </c>
       <c r="B1050" s="1" t="s">
-        <v>49</v>
+        <v>228</v>
       </c>
     </row>
     <row r="1051" spans="1:2">
@@ -33950,18 +33954,18 @@
     </row>
     <row r="1053" spans="1:2">
       <c r="A1053" s="2">
-        <v>682119</v>
+        <v>592450</v>
       </c>
       <c r="B1053" s="1" t="s">
-        <v>502</v>
+        <v>49</v>
       </c>
     </row>
     <row r="1054" spans="1:2">
       <c r="A1054" s="2">
-        <v>666134</v>
+        <v>682119</v>
       </c>
       <c r="B1054" s="1" t="s">
-        <v>258</v>
+        <v>502</v>
       </c>
     </row>
     <row r="1055" spans="1:2">
@@ -33982,10 +33986,10 @@
     </row>
     <row r="1057" spans="1:2">
       <c r="A1057" s="2">
-        <v>663330</v>
+        <v>666134</v>
       </c>
       <c r="B1057" s="1" t="s">
-        <v>380</v>
+        <v>258</v>
       </c>
     </row>
     <row r="1058" spans="1:2">
@@ -33998,10 +34002,10 @@
     </row>
     <row r="1059" spans="1:2">
       <c r="A1059" s="2">
-        <v>669369</v>
+        <v>663330</v>
       </c>
       <c r="B1059" s="1" t="s">
-        <v>413</v>
+        <v>380</v>
       </c>
     </row>
     <row r="1060" spans="1:2">
@@ -34022,10 +34026,10 @@
     </row>
     <row r="1062" spans="1:2">
       <c r="A1062" s="2">
-        <v>656582</v>
+        <v>669369</v>
       </c>
       <c r="B1062" s="1" t="s">
-        <v>278</v>
+        <v>413</v>
       </c>
     </row>
     <row r="1063" spans="1:2">
@@ -34046,18 +34050,18 @@
     </row>
     <row r="1065" spans="1:2">
       <c r="A1065" s="2">
-        <v>677870</v>
+        <v>656582</v>
       </c>
       <c r="B1065" s="1" t="s">
-        <v>534</v>
+        <v>278</v>
       </c>
     </row>
     <row r="1066" spans="1:2">
       <c r="A1066" s="2">
-        <v>650391</v>
+        <v>677870</v>
       </c>
       <c r="B1066" s="1" t="s">
-        <v>474</v>
+        <v>534</v>
       </c>
     </row>
     <row r="1067" spans="1:2">
@@ -34078,10 +34082,10 @@
     </row>
     <row r="1069" spans="1:2">
       <c r="A1069" s="2">
-        <v>680777</v>
+        <v>650391</v>
       </c>
       <c r="B1069" s="1" t="s">
-        <v>360</v>
+        <v>474</v>
       </c>
     </row>
     <row r="1070" spans="1:2">
@@ -34102,10 +34106,10 @@
     </row>
     <row r="1072" spans="1:2">
       <c r="A1072" s="2">
-        <v>643376</v>
+        <v>680777</v>
       </c>
       <c r="B1072" s="1" t="s">
-        <v>48</v>
+        <v>360</v>
       </c>
     </row>
     <row r="1073" spans="1:2">
@@ -34126,10 +34130,10 @@
     </row>
     <row r="1075" spans="1:2">
       <c r="A1075" s="2">
-        <v>608671</v>
+        <v>643376</v>
       </c>
       <c r="B1075" s="1" t="s">
-        <v>161</v>
+        <v>48</v>
       </c>
     </row>
     <row r="1076" spans="1:2">
@@ -34150,10 +34154,10 @@
     </row>
     <row r="1078" spans="1:2">
       <c r="A1078" s="2">
-        <v>656577</v>
+        <v>608671</v>
       </c>
       <c r="B1078" s="1" t="s">
-        <v>451</v>
+        <v>161</v>
       </c>
     </row>
     <row r="1079" spans="1:2">
@@ -34166,10 +34170,10 @@
     </row>
     <row r="1080" spans="1:2">
       <c r="A1080" s="2">
-        <v>664728</v>
+        <v>656577</v>
       </c>
       <c r="B1080" s="1" t="s">
-        <v>132</v>
+        <v>451</v>
       </c>
     </row>
     <row r="1081" spans="1:2">
@@ -34190,10 +34194,10 @@
     </row>
     <row r="1083" spans="1:2">
       <c r="A1083" s="2">
-        <v>663697</v>
+        <v>664728</v>
       </c>
       <c r="B1083" s="1" t="s">
-        <v>220</v>
+        <v>132</v>
       </c>
     </row>
     <row r="1084" spans="1:2">
@@ -34214,10 +34218,10 @@
     </row>
     <row r="1086" spans="1:2">
       <c r="A1086" s="2">
-        <v>578428</v>
+        <v>663697</v>
       </c>
       <c r="B1086" s="1" t="s">
-        <v>476</v>
+        <v>220</v>
       </c>
     </row>
     <row r="1087" spans="1:2">
@@ -34230,10 +34234,10 @@
     </row>
     <row r="1088" spans="1:2">
       <c r="A1088" s="2">
-        <v>628451</v>
+        <v>578428</v>
       </c>
       <c r="B1088" s="1" t="s">
-        <v>484</v>
+        <v>476</v>
       </c>
     </row>
     <row r="1089" spans="1:2">
@@ -34254,18 +34258,18 @@
     </row>
     <row r="1091" spans="1:2">
       <c r="A1091" s="2">
-        <v>674441</v>
+        <v>628451</v>
       </c>
       <c r="B1091" s="1" t="s">
-        <v>544</v>
+        <v>484</v>
       </c>
     </row>
     <row r="1092" spans="1:2">
       <c r="A1092" s="2">
-        <v>669450</v>
+        <v>674441</v>
       </c>
       <c r="B1092" s="1" t="s">
-        <v>775</v>
+        <v>544</v>
       </c>
     </row>
     <row r="1093" spans="1:2">
@@ -34278,10 +34282,10 @@
     </row>
     <row r="1094" spans="1:2">
       <c r="A1094" s="2">
-        <v>669087</v>
+        <v>669450</v>
       </c>
       <c r="B1094" s="1" t="s">
-        <v>772</v>
+        <v>775</v>
       </c>
     </row>
     <row r="1095" spans="1:2">
@@ -34294,10 +34298,10 @@
     </row>
     <row r="1096" spans="1:2">
       <c r="A1096" s="2">
-        <v>543333</v>
+        <v>669087</v>
       </c>
       <c r="B1096" s="1" t="s">
-        <v>592</v>
+        <v>772</v>
       </c>
     </row>
     <row r="1097" spans="1:2">
@@ -34310,10 +34314,10 @@
     </row>
     <row r="1098" spans="1:2">
       <c r="A1098" s="2">
-        <v>656555</v>
+        <v>543333</v>
       </c>
       <c r="B1098" s="1" t="s">
-        <v>442</v>
+        <v>592</v>
       </c>
     </row>
     <row r="1099" spans="1:2">
@@ -34326,10 +34330,10 @@
     </row>
     <row r="1100" spans="1:2">
       <c r="A1100" s="2">
-        <v>687462</v>
+        <v>656555</v>
       </c>
       <c r="B1100" s="1" t="s">
-        <v>410</v>
+        <v>442</v>
       </c>
     </row>
     <row r="1101" spans="1:2">
@@ -34342,26 +34346,26 @@
     </row>
     <row r="1102" spans="1:2">
       <c r="A1102" s="2">
-        <v>686759</v>
+        <v>687462</v>
       </c>
       <c r="B1102" s="1" t="s">
-        <v>831</v>
+        <v>410</v>
       </c>
     </row>
     <row r="1103" spans="1:2">
       <c r="A1103" s="2">
-        <v>702616</v>
+        <v>686759</v>
       </c>
       <c r="B1103" s="1" t="s">
-        <v>511</v>
+        <v>831</v>
       </c>
     </row>
     <row r="1104" spans="1:2">
       <c r="A1104" s="2">
-        <v>663538</v>
+        <v>702616</v>
       </c>
       <c r="B1104" s="1" t="s">
-        <v>18</v>
+        <v>511</v>
       </c>
     </row>
     <row r="1105" spans="1:2">
@@ -34382,10 +34386,10 @@
     </row>
     <row r="1107" spans="1:2">
       <c r="A1107" s="2">
-        <v>669374</v>
+        <v>663538</v>
       </c>
       <c r="B1107" s="1" t="s">
-        <v>514</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1108" spans="1:2">
@@ -34398,18 +34402,18 @@
     </row>
     <row r="1109" spans="1:2">
       <c r="A1109" s="2">
-        <v>677956</v>
+        <v>669374</v>
       </c>
       <c r="B1109" s="1" t="s">
-        <v>529</v>
+        <v>514</v>
       </c>
     </row>
     <row r="1110" spans="1:2">
       <c r="A1110" s="2">
-        <v>656541</v>
+        <v>677956</v>
       </c>
       <c r="B1110" s="1" t="s">
-        <v>421</v>
+        <v>529</v>
       </c>
     </row>
     <row r="1111" spans="1:2">
@@ -34430,10 +34434,10 @@
     </row>
     <row r="1113" spans="1:2">
       <c r="A1113" s="2">
-        <v>656537</v>
+        <v>656541</v>
       </c>
       <c r="B1113" s="1" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
     </row>
     <row r="1114" spans="1:2">
@@ -34454,18 +34458,18 @@
     </row>
     <row r="1116" spans="1:2">
       <c r="A1116" s="2">
-        <v>664731</v>
+        <v>656537</v>
       </c>
       <c r="B1116" s="1" t="s">
-        <v>753</v>
+        <v>415</v>
       </c>
     </row>
     <row r="1117" spans="1:2">
       <c r="A1117" s="2">
-        <v>543309</v>
+        <v>664731</v>
       </c>
       <c r="B1117" s="1" t="s">
-        <v>234</v>
+        <v>753</v>
       </c>
     </row>
     <row r="1118" spans="1:2">
@@ -34486,10 +34490,10 @@
     </row>
     <row r="1120" spans="1:2">
       <c r="A1120" s="2">
-        <v>543305</v>
+        <v>543309</v>
       </c>
       <c r="B1120" s="1" t="s">
-        <v>344</v>
+        <v>234</v>
       </c>
     </row>
     <row r="1121" spans="1:2">
@@ -34510,10 +34514,10 @@
     </row>
     <row r="1123" spans="1:2">
       <c r="A1123" s="2">
-        <v>518792</v>
+        <v>543305</v>
       </c>
       <c r="B1123" s="1" t="s">
-        <v>368</v>
+        <v>344</v>
       </c>
     </row>
     <row r="1124" spans="1:2">
@@ -34534,18 +34538,18 @@
     </row>
     <row r="1126" spans="1:2">
       <c r="A1126" s="2">
-        <v>546318</v>
+        <v>518792</v>
       </c>
       <c r="B1126" s="1" t="s">
-        <v>602</v>
+        <v>368</v>
       </c>
     </row>
     <row r="1127" spans="1:2">
       <c r="A1127" s="2">
-        <v>645444</v>
+        <v>546318</v>
       </c>
       <c r="B1127" s="1" t="s">
-        <v>10</v>
+        <v>602</v>
       </c>
     </row>
     <row r="1128" spans="1:2">
@@ -34566,10 +34570,10 @@
     </row>
     <row r="1130" spans="1:2">
       <c r="A1130" s="2">
-        <v>671056</v>
+        <v>645444</v>
       </c>
       <c r="B1130" s="1" t="s">
-        <v>441</v>
+        <v>10</v>
       </c>
     </row>
     <row r="1131" spans="1:2">
@@ -34590,10 +34594,10 @@
     </row>
     <row r="1133" spans="1:2">
       <c r="A1133" s="2">
-        <v>660634</v>
+        <v>671056</v>
       </c>
       <c r="B1133" s="1" t="s">
-        <v>737</v>
+        <v>441</v>
       </c>
     </row>
     <row r="1134" spans="1:2">
@@ -34606,18 +34610,18 @@
     </row>
     <row r="1135" spans="1:2">
       <c r="A1135" s="2">
-        <v>628450</v>
+        <v>660634</v>
       </c>
       <c r="B1135" s="1" t="s">
-        <v>685</v>
+        <v>737</v>
       </c>
     </row>
     <row r="1136" spans="1:2">
       <c r="A1136" s="2">
-        <v>606192</v>
+        <v>628450</v>
       </c>
       <c r="B1136" s="1" t="s">
-        <v>498</v>
+        <v>685</v>
       </c>
     </row>
     <row r="1137" spans="1:2">
@@ -34638,10 +34642,10 @@
     </row>
     <row r="1139" spans="1:2">
       <c r="A1139" s="2">
-        <v>571771</v>
+        <v>606192</v>
       </c>
       <c r="B1139" s="1" t="s">
-        <v>464</v>
+        <v>498</v>
       </c>
     </row>
     <row r="1140" spans="1:2">
@@ -34662,50 +34666,50 @@
     </row>
     <row r="1142" spans="1:2">
       <c r="A1142" s="2">
-        <v>609274</v>
+        <v>571771</v>
       </c>
       <c r="B1142" s="1" t="s">
-        <v>664</v>
+        <v>464</v>
       </c>
     </row>
     <row r="1143" spans="1:2">
       <c r="A1143" s="2">
-        <v>514917</v>
+        <v>609274</v>
       </c>
       <c r="B1143" s="1" t="s">
-        <v>578</v>
+        <v>664</v>
       </c>
     </row>
     <row r="1144" spans="1:2">
       <c r="A1144" s="2">
-        <v>687231</v>
+        <v>514917</v>
       </c>
       <c r="B1144" s="1" t="s">
-        <v>551</v>
+        <v>578</v>
       </c>
     </row>
     <row r="1145" spans="1:2">
       <c r="A1145" s="2">
-        <v>641684</v>
+        <v>687231</v>
       </c>
       <c r="B1145" s="1" t="s">
-        <v>697</v>
+        <v>551</v>
       </c>
     </row>
     <row r="1146" spans="1:2">
       <c r="A1146" s="2">
-        <v>628338</v>
+        <v>641684</v>
       </c>
       <c r="B1146" s="1" t="s">
-        <v>684</v>
+        <v>697</v>
       </c>
     </row>
     <row r="1147" spans="1:2">
       <c r="A1147" s="2">
-        <v>682073</v>
+        <v>628338</v>
       </c>
       <c r="B1147" s="1" t="s">
-        <v>800</v>
+        <v>684</v>
       </c>
     </row>
     <row r="1148" spans="1:2">
@@ -34726,18 +34730,18 @@
     </row>
     <row r="1150" spans="1:2">
       <c r="A1150" s="2">
-        <v>668721</v>
+        <v>682073</v>
       </c>
       <c r="B1150" s="1" t="s">
-        <v>768</v>
+        <v>800</v>
       </c>
     </row>
     <row r="1151" spans="1:2">
       <c r="A1151" s="2">
-        <v>683002</v>
+        <v>668721</v>
       </c>
       <c r="B1151" s="1" t="s">
-        <v>218</v>
+        <v>768</v>
       </c>
     </row>
     <row r="1152" spans="1:2">
@@ -34758,18 +34762,18 @@
     </row>
     <row r="1154" spans="1:2">
       <c r="A1154" s="2">
-        <v>680737</v>
+        <v>683002</v>
       </c>
       <c r="B1154" s="1" t="s">
-        <v>855</v>
+        <v>218</v>
       </c>
     </row>
     <row r="1155" spans="1:2">
       <c r="A1155" s="2">
-        <v>623168</v>
+        <v>680737</v>
       </c>
       <c r="B1155" s="1" t="s">
-        <v>680</v>
+        <v>855</v>
       </c>
     </row>
     <row r="1156" spans="1:2">
@@ -34790,10 +34794,10 @@
     </row>
     <row r="1158" spans="1:2">
       <c r="A1158" s="2">
-        <v>641680</v>
+        <v>623168</v>
       </c>
       <c r="B1158" s="1" t="s">
-        <v>246</v>
+        <v>680</v>
       </c>
     </row>
     <row r="1159" spans="1:2">
@@ -34814,10 +34818,10 @@
     </row>
     <row r="1161" spans="1:2">
       <c r="A1161" s="2">
-        <v>595978</v>
+        <v>641680</v>
       </c>
       <c r="B1161" s="1" t="s">
-        <v>47</v>
+        <v>246</v>
       </c>
     </row>
     <row r="1162" spans="1:2">
@@ -34838,10 +34842,10 @@
     </row>
     <row r="1164" spans="1:2">
       <c r="A1164" s="2">
-        <v>669720</v>
+        <v>595978</v>
       </c>
       <c r="B1164" s="1" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
     </row>
     <row r="1165" spans="1:2">
@@ -34862,10 +34866,10 @@
     </row>
     <row r="1167" spans="1:2">
       <c r="A1167" s="2">
-        <v>663647</v>
+        <v>669720</v>
       </c>
       <c r="B1167" s="1" t="s">
-        <v>189</v>
+        <v>59</v>
       </c>
     </row>
     <row r="1168" spans="1:2">
@@ -34886,10 +34890,10 @@
     </row>
     <row r="1170" spans="1:2">
       <c r="A1170" s="2">
-        <v>656514</v>
+        <v>663647</v>
       </c>
       <c r="B1170" s="1" t="s">
-        <v>728</v>
+        <v>189</v>
       </c>
     </row>
     <row r="1171" spans="1:2">
@@ -34902,18 +34906,18 @@
     </row>
     <row r="1172" spans="1:2">
       <c r="A1172" s="2">
-        <v>656509</v>
+        <v>656514</v>
       </c>
       <c r="B1172" s="1" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
     </row>
     <row r="1173" spans="1:2">
       <c r="A1173" s="2">
-        <v>543281</v>
+        <v>656509</v>
       </c>
       <c r="B1173" s="1" t="s">
-        <v>591</v>
+        <v>727</v>
       </c>
     </row>
     <row r="1174" spans="1:2">
@@ -34926,18 +34930,18 @@
     </row>
     <row r="1175" spans="1:2">
       <c r="A1175" s="2">
-        <v>695391</v>
+        <v>543281</v>
       </c>
       <c r="B1175" s="1" t="s">
-        <v>446</v>
+        <v>591</v>
       </c>
     </row>
     <row r="1176" spans="1:2">
       <c r="A1176" s="2">
-        <v>671739</v>
+        <v>695391</v>
       </c>
       <c r="B1176" s="1" t="s">
-        <v>154</v>
+        <v>446</v>
       </c>
     </row>
     <row r="1177" spans="1:2">
@@ -34958,10 +34962,10 @@
     </row>
     <row r="1179" spans="1:2">
       <c r="A1179" s="2">
-        <v>547180</v>
+        <v>671739</v>
       </c>
       <c r="B1179" s="1" t="s">
-        <v>210</v>
+        <v>154</v>
       </c>
     </row>
     <row r="1180" spans="1:2">
@@ -34982,10 +34986,10 @@
     </row>
     <row r="1182" spans="1:2">
       <c r="A1182" s="2">
-        <v>664023</v>
+        <v>547180</v>
       </c>
       <c r="B1182" s="1" t="s">
-        <v>62</v>
+        <v>210</v>
       </c>
     </row>
     <row r="1183" spans="1:2">
@@ -35006,10 +35010,10 @@
     </row>
     <row r="1185" spans="1:2">
       <c r="A1185" s="2">
-        <v>571745</v>
+        <v>664023</v>
       </c>
       <c r="B1185" s="1" t="s">
-        <v>340</v>
+        <v>62</v>
       </c>
     </row>
     <row r="1186" spans="1:2">
@@ -35030,10 +35034,10 @@
     </row>
     <row r="1188" spans="1:2">
       <c r="A1188" s="2">
-        <v>641658</v>
+        <v>571745</v>
       </c>
       <c r="B1188" s="1" t="s">
-        <v>165</v>
+        <v>340</v>
       </c>
     </row>
     <row r="1189" spans="1:2">
@@ -35054,10 +35058,10 @@
     </row>
     <row r="1191" spans="1:2">
       <c r="A1191" s="2">
-        <v>666152</v>
+        <v>641658</v>
       </c>
       <c r="B1191" s="1" t="s">
-        <v>403</v>
+        <v>165</v>
       </c>
     </row>
     <row r="1192" spans="1:2">
@@ -35070,26 +35074,26 @@
     </row>
     <row r="1193" spans="1:2">
       <c r="A1193" s="2">
-        <v>643348</v>
+        <v>666152</v>
       </c>
       <c r="B1193" s="1" t="s">
-        <v>713</v>
+        <v>403</v>
       </c>
     </row>
     <row r="1194" spans="1:2">
       <c r="A1194" s="2">
-        <v>571740</v>
+        <v>643348</v>
       </c>
       <c r="B1194" s="1" t="s">
-        <v>612</v>
+        <v>713</v>
       </c>
     </row>
     <row r="1195" spans="1:2">
       <c r="A1195" s="2">
-        <v>669742</v>
+        <v>571740</v>
       </c>
       <c r="B1195" s="1" t="s">
-        <v>776</v>
+        <v>612</v>
       </c>
     </row>
     <row r="1196" spans="1:2">
@@ -35102,10 +35106,10 @@
     </row>
     <row r="1197" spans="1:2">
       <c r="A1197" s="2">
-        <v>664059</v>
+        <v>669742</v>
       </c>
       <c r="B1197" s="1" t="s">
-        <v>357</v>
+        <v>776</v>
       </c>
     </row>
     <row r="1198" spans="1:2">
@@ -35126,18 +35130,18 @@
     </row>
     <row r="1200" spans="1:2">
       <c r="A1200" s="2">
-        <v>606993</v>
+        <v>664059</v>
       </c>
       <c r="B1200" s="1" t="s">
-        <v>655</v>
+        <v>357</v>
       </c>
     </row>
     <row r="1201" spans="1:2">
       <c r="A1201" s="2">
-        <v>606992</v>
+        <v>606993</v>
       </c>
       <c r="B1201" s="1" t="s">
-        <v>345</v>
+        <v>655</v>
       </c>
     </row>
     <row r="1202" spans="1:2">
@@ -35158,18 +35162,18 @@
     </row>
     <row r="1204" spans="1:2">
       <c r="A1204" s="2">
-        <v>642721</v>
+        <v>606992</v>
       </c>
       <c r="B1204" s="1" t="s">
-        <v>711</v>
+        <v>345</v>
       </c>
     </row>
     <row r="1205" spans="1:2">
       <c r="A1205" s="2">
-        <v>656495</v>
+        <v>642721</v>
       </c>
       <c r="B1205" s="1" t="s">
-        <v>726</v>
+        <v>711</v>
       </c>
     </row>
     <row r="1206" spans="1:2">
@@ -35182,10 +35186,10 @@
     </row>
     <row r="1207" spans="1:2">
       <c r="A1207" s="2">
-        <v>493329</v>
+        <v>656495</v>
       </c>
       <c r="B1207" s="1" t="s">
-        <v>572</v>
+        <v>726</v>
       </c>
     </row>
     <row r="1208" spans="1:2">
@@ -35206,10 +35210,10 @@
     </row>
     <row r="1210" spans="1:2">
       <c r="A1210" s="2">
-        <v>666971</v>
+        <v>493329</v>
       </c>
       <c r="B1210" s="1" t="s">
-        <v>118</v>
+        <v>572</v>
       </c>
     </row>
     <row r="1211" spans="1:2">
@@ -35230,10 +35234,10 @@
     </row>
     <row r="1213" spans="1:2">
       <c r="A1213" s="2">
-        <v>641645</v>
+        <v>666971</v>
       </c>
       <c r="B1213" s="1" t="s">
-        <v>231</v>
+        <v>118</v>
       </c>
     </row>
     <row r="1214" spans="1:2">
@@ -35254,10 +35258,10 @@
     </row>
     <row r="1216" spans="1:2">
       <c r="A1216" s="2">
-        <v>665489</v>
+        <v>641645</v>
       </c>
       <c r="B1216" s="1" t="s">
-        <v>257</v>
+        <v>231</v>
       </c>
     </row>
     <row r="1217" spans="1:2">
@@ -35278,10 +35282,10 @@
     </row>
     <row r="1219" spans="1:2">
       <c r="A1219" s="2">
-        <v>543257</v>
+        <v>665489</v>
       </c>
       <c r="B1219" s="1" t="s">
-        <v>315</v>
+        <v>257</v>
       </c>
     </row>
     <row r="1220" spans="1:2">
@@ -35302,18 +35306,18 @@
     </row>
     <row r="1222" spans="1:2">
       <c r="A1222" s="2">
-        <v>677954</v>
+        <v>543257</v>
       </c>
       <c r="B1222" s="1" t="s">
-        <v>795</v>
+        <v>315</v>
       </c>
     </row>
     <row r="1223" spans="1:2">
       <c r="A1223" s="2">
-        <v>687093</v>
+        <v>677954</v>
       </c>
       <c r="B1223" s="1" t="s">
-        <v>259</v>
+        <v>795</v>
       </c>
     </row>
     <row r="1224" spans="1:2">
@@ -35334,10 +35338,10 @@
     </row>
     <row r="1226" spans="1:2">
       <c r="A1226" s="2">
-        <v>663757</v>
+        <v>687093</v>
       </c>
       <c r="B1226" s="1" t="s">
-        <v>376</v>
+        <v>259</v>
       </c>
     </row>
     <row r="1227" spans="1:2">
@@ -35358,10 +35362,10 @@
     </row>
     <row r="1229" spans="1:2">
       <c r="A1229" s="2">
-        <v>545341</v>
+        <v>663757</v>
       </c>
       <c r="B1229" s="1" t="s">
-        <v>269</v>
+        <v>376</v>
       </c>
     </row>
     <row r="1230" spans="1:2">
@@ -35382,18 +35386,18 @@
     </row>
     <row r="1232" spans="1:2">
       <c r="A1232" s="2">
-        <v>544369</v>
+        <v>545341</v>
       </c>
       <c r="B1232" s="1" t="s">
-        <v>598</v>
+        <v>269</v>
       </c>
     </row>
     <row r="1233" spans="1:2">
       <c r="A1233" s="2">
-        <v>682985</v>
+        <v>544369</v>
       </c>
       <c r="B1233" s="1" t="s">
-        <v>78</v>
+        <v>598</v>
       </c>
     </row>
     <row r="1234" spans="1:2">
@@ -35414,18 +35418,18 @@
     </row>
     <row r="1236" spans="1:2">
       <c r="A1236" s="2">
-        <v>656484</v>
+        <v>682985</v>
       </c>
       <c r="B1236" s="1" t="s">
-        <v>838</v>
+        <v>78</v>
       </c>
     </row>
     <row r="1237" spans="1:2">
       <c r="A1237" s="2">
-        <v>518735</v>
+        <v>656484</v>
       </c>
       <c r="B1237" s="1" t="s">
-        <v>6</v>
+        <v>838</v>
       </c>
     </row>
     <row r="1238" spans="1:2">
@@ -35446,18 +35450,18 @@
     </row>
     <row r="1240" spans="1:2">
       <c r="A1240" s="2">
-        <v>594838</v>
+        <v>518735</v>
       </c>
       <c r="B1240" s="1" t="s">
-        <v>631</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1241" spans="1:2">
       <c r="A1241" s="2">
-        <v>669357</v>
+        <v>594838</v>
       </c>
       <c r="B1241" s="1" t="s">
-        <v>202</v>
+        <v>631</v>
       </c>
     </row>
     <row r="1242" spans="1:2">
@@ -35478,10 +35482,10 @@
     </row>
     <row r="1244" spans="1:2">
       <c r="A1244" s="2">
-        <v>624503</v>
+        <v>669357</v>
       </c>
       <c r="B1244" s="1" t="s">
-        <v>167</v>
+        <v>202</v>
       </c>
     </row>
     <row r="1245" spans="1:2">
@@ -35502,10 +35506,10 @@
     </row>
     <row r="1247" spans="1:2">
       <c r="A1247" s="2">
-        <v>592348</v>
+        <v>624503</v>
       </c>
       <c r="B1247" s="1" t="s">
-        <v>519</v>
+        <v>167</v>
       </c>
     </row>
     <row r="1248" spans="1:2">
@@ -35518,10 +35522,10 @@
     </row>
     <row r="1249" spans="1:2">
       <c r="A1249" s="2">
-        <v>696100</v>
+        <v>592348</v>
       </c>
       <c r="B1249" s="1" t="s">
-        <v>429</v>
+        <v>519</v>
       </c>
     </row>
     <row r="1250" spans="1:2">
@@ -35534,10 +35538,10 @@
     </row>
     <row r="1251" spans="1:2">
       <c r="A1251" s="2">
-        <v>663853</v>
+        <v>696100</v>
       </c>
       <c r="B1251" s="1" t="s">
-        <v>358</v>
+        <v>429</v>
       </c>
     </row>
     <row r="1252" spans="1:2">
@@ -35558,10 +35562,10 @@
     </row>
     <row r="1254" spans="1:2">
       <c r="A1254" s="2">
-        <v>660757</v>
+        <v>663853</v>
       </c>
       <c r="B1254" s="1" t="s">
-        <v>740</v>
+        <v>358</v>
       </c>
     </row>
     <row r="1255" spans="1:2">
@@ -35574,34 +35578,34 @@
     </row>
     <row r="1256" spans="1:2">
       <c r="A1256" s="2">
-        <v>503556</v>
+        <v>660757</v>
       </c>
       <c r="B1256" s="1" t="s">
-        <v>576</v>
+        <v>740</v>
       </c>
     </row>
     <row r="1257" spans="1:2">
       <c r="A1257" s="2">
-        <v>670768</v>
+        <v>503556</v>
       </c>
       <c r="B1257" s="1" t="s">
-        <v>780</v>
+        <v>576</v>
       </c>
     </row>
     <row r="1258" spans="1:2">
       <c r="A1258" s="2">
-        <v>570481</v>
+        <v>670768</v>
       </c>
       <c r="B1258" s="1" t="s">
-        <v>608</v>
+        <v>780</v>
       </c>
     </row>
     <row r="1259" spans="1:2">
       <c r="A1259" s="2">
-        <v>693304</v>
+        <v>570481</v>
       </c>
       <c r="B1259" s="1" t="s">
-        <v>337</v>
+        <v>608</v>
       </c>
     </row>
     <row r="1260" spans="1:2">
@@ -35614,10 +35618,10 @@
     </row>
     <row r="1261" spans="1:2">
       <c r="A1261" s="2">
-        <v>543228</v>
+        <v>693304</v>
       </c>
       <c r="B1261" s="1" t="s">
-        <v>87</v>
+        <v>337</v>
       </c>
     </row>
     <row r="1262" spans="1:2">
@@ -35638,10 +35642,10 @@
     </row>
     <row r="1264" spans="1:2">
       <c r="A1264" s="2">
-        <v>502671</v>
+        <v>543228</v>
       </c>
       <c r="B1264" s="1" t="s">
-        <v>159</v>
+        <v>87</v>
       </c>
     </row>
     <row r="1265" spans="1:2">
@@ -35662,18 +35666,18 @@
     </row>
     <row r="1267" spans="1:2">
       <c r="A1267" s="2">
-        <v>608422</v>
+        <v>502671</v>
       </c>
       <c r="B1267" s="1" t="s">
-        <v>659</v>
+        <v>159</v>
       </c>
     </row>
     <row r="1268" spans="1:2">
       <c r="A1268" s="2">
-        <v>665926</v>
+        <v>608422</v>
       </c>
       <c r="B1268" s="1" t="s">
-        <v>487</v>
+        <v>659</v>
       </c>
     </row>
     <row r="1269" spans="1:2">
@@ -35694,10 +35698,10 @@
     </row>
     <row r="1271" spans="1:2">
       <c r="A1271" s="2">
-        <v>680869</v>
+        <v>665926</v>
       </c>
       <c r="B1271" s="1" t="s">
-        <v>300</v>
+        <v>487</v>
       </c>
     </row>
     <row r="1272" spans="1:2">
@@ -35710,18 +35714,18 @@
     </row>
     <row r="1273" spans="1:2">
       <c r="A1273" s="2">
-        <v>681508</v>
+        <v>680869</v>
       </c>
       <c r="B1273" s="1" t="s">
-        <v>856</v>
+        <v>300</v>
       </c>
     </row>
     <row r="1274" spans="1:2">
       <c r="A1274" s="2">
-        <v>641598</v>
+        <v>681508</v>
       </c>
       <c r="B1274" s="1" t="s">
-        <v>156</v>
+        <v>856</v>
       </c>
     </row>
     <row r="1275" spans="1:2">
@@ -35742,10 +35746,10 @@
     </row>
     <row r="1277" spans="1:2">
       <c r="A1277" s="2">
-        <v>656448</v>
+        <v>641598</v>
       </c>
       <c r="B1277" s="1" t="s">
-        <v>725</v>
+        <v>156</v>
       </c>
     </row>
     <row r="1278" spans="1:2">
@@ -35758,18 +35762,18 @@
     </row>
     <row r="1279" spans="1:2">
       <c r="A1279" s="2">
-        <v>572863</v>
+        <v>656448</v>
       </c>
       <c r="B1279" s="1" t="s">
-        <v>623</v>
+        <v>725</v>
       </c>
     </row>
     <row r="1280" spans="1:2">
       <c r="A1280" s="2">
-        <v>664247</v>
+        <v>572863</v>
       </c>
       <c r="B1280" s="1" t="s">
-        <v>749</v>
+        <v>623</v>
       </c>
     </row>
     <row r="1281" spans="1:2">
@@ -35782,10 +35786,10 @@
     </row>
     <row r="1282" spans="1:2">
       <c r="A1282" s="2">
-        <v>672580</v>
+        <v>664247</v>
       </c>
       <c r="B1282" s="1" t="s">
-        <v>322</v>
+        <v>749</v>
       </c>
     </row>
     <row r="1283" spans="1:2">
@@ -35806,10 +35810,10 @@
     </row>
     <row r="1285" spans="1:2">
       <c r="A1285" s="2">
-        <v>671277</v>
+        <v>672580</v>
       </c>
       <c r="B1285" s="1" t="s">
-        <v>445</v>
+        <v>322</v>
       </c>
     </row>
     <row r="1286" spans="1:2">
@@ -35830,26 +35834,26 @@
     </row>
     <row r="1288" spans="1:2">
       <c r="A1288" s="2">
-        <v>544725</v>
+        <v>671277</v>
       </c>
       <c r="B1288" s="1" t="s">
-        <v>599</v>
+        <v>445</v>
       </c>
     </row>
     <row r="1289" spans="1:2">
       <c r="A1289" s="2">
-        <v>660650</v>
+        <v>544725</v>
       </c>
       <c r="B1289" s="1" t="s">
-        <v>739</v>
+        <v>599</v>
       </c>
     </row>
     <row r="1290" spans="1:2">
       <c r="A1290" s="2">
-        <v>541645</v>
+        <v>660650</v>
       </c>
       <c r="B1290" s="1" t="s">
-        <v>539</v>
+        <v>739</v>
       </c>
     </row>
     <row r="1291" spans="1:2">
@@ -35870,18 +35874,18 @@
     </row>
     <row r="1293" spans="1:2">
       <c r="A1293" s="2">
-        <v>605244</v>
+        <v>541645</v>
       </c>
       <c r="B1293" s="1" t="s">
-        <v>645</v>
+        <v>539</v>
       </c>
     </row>
     <row r="1294" spans="1:2">
       <c r="A1294" s="2">
-        <v>666969</v>
+        <v>605244</v>
       </c>
       <c r="B1294" s="1" t="s">
-        <v>491</v>
+        <v>645</v>
       </c>
     </row>
     <row r="1295" spans="1:2">
@@ -35902,10 +35906,10 @@
     </row>
     <row r="1297" spans="1:2">
       <c r="A1297" s="2">
-        <v>592325</v>
+        <v>666969</v>
       </c>
       <c r="B1297" s="1" t="s">
-        <v>394</v>
+        <v>491</v>
       </c>
     </row>
     <row r="1298" spans="1:2">
@@ -35926,10 +35930,10 @@
     </row>
     <row r="1300" spans="1:2">
       <c r="A1300" s="2">
-        <v>608336</v>
+        <v>592325</v>
       </c>
       <c r="B1300" s="1" t="s">
-        <v>351</v>
+        <v>394</v>
       </c>
     </row>
     <row r="1301" spans="1:2">
@@ -35950,10 +35954,10 @@
     </row>
     <row r="1303" spans="1:2">
       <c r="A1303" s="2">
-        <v>595956</v>
+        <v>608336</v>
       </c>
       <c r="B1303" s="1" t="s">
-        <v>635</v>
+        <v>351</v>
       </c>
     </row>
     <row r="1304" spans="1:2">
@@ -35966,10 +35970,10 @@
     </row>
     <row r="1305" spans="1:2">
       <c r="A1305" s="2">
-        <v>681807</v>
+        <v>595956</v>
       </c>
       <c r="B1305" s="1" t="s">
-        <v>330</v>
+        <v>635</v>
       </c>
     </row>
     <row r="1306" spans="1:2">
@@ -35982,10 +35986,10 @@
     </row>
     <row r="1307" spans="1:2">
       <c r="A1307" s="2">
-        <v>670770</v>
+        <v>681807</v>
       </c>
       <c r="B1307" s="1" t="s">
-        <v>243</v>
+        <v>330</v>
       </c>
     </row>
     <row r="1308" spans="1:2">
@@ -36006,10 +36010,10 @@
     </row>
     <row r="1310" spans="1:2">
       <c r="A1310" s="2">
-        <v>686217</v>
+        <v>670770</v>
       </c>
       <c r="B1310" s="1" t="s">
-        <v>310</v>
+        <v>243</v>
       </c>
     </row>
     <row r="1311" spans="1:2">
@@ -36022,10 +36026,10 @@
     </row>
     <row r="1312" spans="1:2">
       <c r="A1312" s="2">
-        <v>671289</v>
+        <v>686217</v>
       </c>
       <c r="B1312" s="1" t="s">
-        <v>335</v>
+        <v>310</v>
       </c>
     </row>
     <row r="1313" spans="1:2">
@@ -36046,10 +36050,10 @@
     </row>
     <row r="1315" spans="1:2">
       <c r="A1315" s="2">
-        <v>518692</v>
+        <v>671289</v>
       </c>
       <c r="B1315" s="1" t="s">
-        <v>308</v>
+        <v>335</v>
       </c>
     </row>
     <row r="1316" spans="1:2">
@@ -36070,10 +36074,10 @@
     </row>
     <row r="1318" spans="1:2">
       <c r="A1318" s="2">
-        <v>640449</v>
+        <v>518692</v>
       </c>
       <c r="B1318" s="1" t="s">
-        <v>686</v>
+        <v>308</v>
       </c>
     </row>
     <row r="1319" spans="1:2">
@@ -36086,10 +36090,10 @@
     </row>
     <row r="1320" spans="1:2">
       <c r="A1320" s="2">
-        <v>624428</v>
+        <v>640449</v>
       </c>
       <c r="B1320" s="1" t="s">
-        <v>200</v>
+        <v>686</v>
       </c>
     </row>
     <row r="1321" spans="1:2">
@@ -36110,10 +36114,10 @@
     </row>
     <row r="1323" spans="1:2">
       <c r="A1323" s="2">
-        <v>677551</v>
+        <v>624428</v>
       </c>
       <c r="B1323" s="1" t="s">
-        <v>794</v>
+        <v>200</v>
       </c>
     </row>
     <row r="1324" spans="1:2">
@@ -36126,18 +36130,18 @@
     </row>
     <row r="1325" spans="1:2">
       <c r="A1325" s="2">
-        <v>596748</v>
+        <v>677551</v>
       </c>
       <c r="B1325" s="1" t="s">
-        <v>638</v>
+        <v>794</v>
       </c>
     </row>
     <row r="1326" spans="1:2">
       <c r="A1326" s="2">
-        <v>664034</v>
+        <v>596748</v>
       </c>
       <c r="B1326" s="1" t="s">
-        <v>378</v>
+        <v>638</v>
       </c>
     </row>
     <row r="1327" spans="1:2">
@@ -36158,10 +36162,10 @@
     </row>
     <row r="1329" spans="1:2">
       <c r="A1329" s="2">
-        <v>641584</v>
+        <v>664034</v>
       </c>
       <c r="B1329" s="1" t="s">
-        <v>64</v>
+        <v>378</v>
       </c>
     </row>
     <row r="1330" spans="1:2">
@@ -36182,26 +36186,26 @@
     </row>
     <row r="1332" spans="1:2">
       <c r="A1332" s="2">
-        <v>665650</v>
+        <v>641584</v>
       </c>
       <c r="B1332" s="1" t="s">
-        <v>758</v>
+        <v>64</v>
       </c>
     </row>
     <row r="1333" spans="1:2">
       <c r="A1333" s="2">
-        <v>679822</v>
+        <v>665650</v>
       </c>
       <c r="B1333" s="1" t="s">
-        <v>508</v>
+        <v>758</v>
       </c>
     </row>
     <row r="1334" spans="1:2">
       <c r="A1334" s="2">
-        <v>663743</v>
+        <v>679822</v>
       </c>
       <c r="B1334" s="1" t="s">
-        <v>116</v>
+        <v>508</v>
       </c>
     </row>
     <row r="1335" spans="1:2">
@@ -36222,10 +36226,10 @@
     </row>
     <row r="1337" spans="1:2">
       <c r="A1337" s="2">
-        <v>645801</v>
+        <v>663743</v>
       </c>
       <c r="B1337" s="1" t="s">
-        <v>22</v>
+        <v>116</v>
       </c>
     </row>
     <row r="1338" spans="1:2">
@@ -36246,10 +36250,10 @@
     </row>
     <row r="1340" spans="1:2">
       <c r="A1340" s="2">
-        <v>664314</v>
+        <v>645801</v>
       </c>
       <c r="B1340" s="1" t="s">
-        <v>425</v>
+        <v>22</v>
       </c>
     </row>
     <row r="1341" spans="1:2">
@@ -36270,10 +36274,10 @@
     </row>
     <row r="1343" spans="1:2">
       <c r="A1343" s="2">
-        <v>527038</v>
+        <v>664314</v>
       </c>
       <c r="B1343" s="1" t="s">
-        <v>294</v>
+        <v>425</v>
       </c>
     </row>
     <row r="1344" spans="1:2">
@@ -36294,10 +36298,10 @@
     </row>
     <row r="1346" spans="1:2">
       <c r="A1346" s="2">
-        <v>666150</v>
+        <v>527038</v>
       </c>
       <c r="B1346" s="1" t="s">
-        <v>160</v>
+        <v>294</v>
       </c>
     </row>
     <row r="1347" spans="1:2">
@@ -36310,10 +36314,10 @@
     </row>
     <row r="1348" spans="1:2">
       <c r="A1348" s="2">
-        <v>664058</v>
+        <v>666150</v>
       </c>
       <c r="B1348" s="1" t="s">
-        <v>747</v>
+        <v>160</v>
       </c>
     </row>
     <row r="1349" spans="1:2">
@@ -36326,10 +36330,10 @@
     </row>
     <row r="1350" spans="1:2">
       <c r="A1350" s="2">
-        <v>666149</v>
+        <v>664058</v>
       </c>
       <c r="B1350" s="1" t="s">
-        <v>401</v>
+        <v>747</v>
       </c>
     </row>
     <row r="1351" spans="1:2">
@@ -36342,10 +36346,10 @@
     </row>
     <row r="1352" spans="1:2">
       <c r="A1352" s="2">
-        <v>665877</v>
+        <v>666149</v>
       </c>
       <c r="B1352" s="1" t="s">
-        <v>543</v>
+        <v>401</v>
       </c>
     </row>
     <row r="1353" spans="1:2">
@@ -36358,10 +36362,10 @@
     </row>
     <row r="1354" spans="1:2">
       <c r="A1354" s="2">
-        <v>666023</v>
+        <v>665877</v>
       </c>
       <c r="B1354" s="1" t="s">
-        <v>7</v>
+        <v>543</v>
       </c>
     </row>
     <row r="1355" spans="1:2">
@@ -36374,18 +36378,18 @@
     </row>
     <row r="1356" spans="1:2">
       <c r="A1356" s="2">
-        <v>676439</v>
+        <v>666023</v>
       </c>
       <c r="B1356" s="1" t="s">
-        <v>850</v>
+        <v>7</v>
       </c>
     </row>
     <row r="1357" spans="1:2">
       <c r="A1357" s="2">
-        <v>571657</v>
+        <v>676439</v>
       </c>
       <c r="B1357" s="1" t="s">
-        <v>297</v>
+        <v>850</v>
       </c>
     </row>
     <row r="1358" spans="1:2">
@@ -36406,10 +36410,10 @@
     </row>
     <row r="1360" spans="1:2">
       <c r="A1360" s="2">
-        <v>656413</v>
+        <v>571657</v>
       </c>
       <c r="B1360" s="1" t="s">
-        <v>121</v>
+        <v>297</v>
       </c>
     </row>
     <row r="1361" spans="1:2">
@@ -36430,10 +36434,10 @@
     </row>
     <row r="1363" spans="1:2">
       <c r="A1363" s="2">
-        <v>642731</v>
+        <v>656413</v>
       </c>
       <c r="B1363" s="1" t="s">
-        <v>81</v>
+        <v>121</v>
       </c>
     </row>
     <row r="1364" spans="1:2">
@@ -36454,10 +36458,10 @@
     </row>
     <row r="1366" spans="1:2">
       <c r="A1366" s="2">
-        <v>669289</v>
+        <v>642731</v>
       </c>
       <c r="B1366" s="1" t="s">
-        <v>272</v>
+        <v>81</v>
       </c>
     </row>
     <row r="1367" spans="1:2">
@@ -36478,10 +36482,10 @@
     </row>
     <row r="1369" spans="1:2">
       <c r="A1369" s="2">
-        <v>500871</v>
+        <v>669289</v>
       </c>
       <c r="B1369" s="1" t="s">
-        <v>573</v>
+        <v>272</v>
       </c>
     </row>
     <row r="1370" spans="1:2">
@@ -36494,26 +36498,26 @@
     </row>
     <row r="1371" spans="1:2">
       <c r="A1371" s="2">
-        <v>444876</v>
+        <v>500871</v>
       </c>
       <c r="B1371" s="1" t="s">
-        <v>561</v>
+        <v>573</v>
       </c>
     </row>
     <row r="1372" spans="1:2">
       <c r="A1372" s="2">
-        <v>641553</v>
+        <v>444876</v>
       </c>
       <c r="B1372" s="1" t="s">
-        <v>696</v>
+        <v>561</v>
       </c>
     </row>
     <row r="1373" spans="1:2">
       <c r="A1373" s="2">
-        <v>666464</v>
+        <v>641553</v>
       </c>
       <c r="B1373" s="1" t="s">
-        <v>762</v>
+        <v>696</v>
       </c>
     </row>
     <row r="1374" spans="1:2">
@@ -36526,10 +36530,10 @@
     </row>
     <row r="1375" spans="1:2">
       <c r="A1375" s="2">
-        <v>687952</v>
+        <v>666464</v>
       </c>
       <c r="B1375" s="1" t="s">
-        <v>245</v>
+        <v>762</v>
       </c>
     </row>
     <row r="1376" spans="1:2">
@@ -36542,10 +36546,10 @@
     </row>
     <row r="1377" spans="1:2">
       <c r="A1377" s="2">
-        <v>656403</v>
+        <v>687952</v>
       </c>
       <c r="B1377" s="1" t="s">
-        <v>724</v>
+        <v>245</v>
       </c>
     </row>
     <row r="1378" spans="1:2">
@@ -36558,10 +36562,10 @@
     </row>
     <row r="1379" spans="1:2">
       <c r="A1379" s="2">
-        <v>669364</v>
+        <v>656403</v>
       </c>
       <c r="B1379" s="1" t="s">
-        <v>288</v>
+        <v>724</v>
       </c>
     </row>
     <row r="1380" spans="1:2">
@@ -36574,10 +36578,10 @@
     </row>
     <row r="1381" spans="1:2">
       <c r="A1381" s="2">
-        <v>669242</v>
+        <v>669364</v>
       </c>
       <c r="B1381" s="1" t="s">
-        <v>773</v>
+        <v>288</v>
       </c>
     </row>
     <row r="1382" spans="1:2">
@@ -36598,10 +36602,10 @@
     </row>
     <row r="1384" spans="1:2">
       <c r="A1384" s="2">
-        <v>681987</v>
+        <v>669242</v>
       </c>
       <c r="B1384" s="1" t="s">
-        <v>799</v>
+        <v>773</v>
       </c>
     </row>
     <row r="1385" spans="1:2">
@@ -36614,10 +36618,10 @@
     </row>
     <row r="1386" spans="1:2">
       <c r="A1386" s="2">
-        <v>594807</v>
+        <v>681987</v>
       </c>
       <c r="B1386" s="1" t="s">
-        <v>252</v>
+        <v>799</v>
       </c>
     </row>
     <row r="1387" spans="1:2">
@@ -36638,10 +36642,10 @@
     </row>
     <row r="1389" spans="1:2">
       <c r="A1389" s="2">
-        <v>680776</v>
+        <v>594807</v>
       </c>
       <c r="B1389" s="1" t="s">
-        <v>304</v>
+        <v>252</v>
       </c>
     </row>
     <row r="1390" spans="1:2">
@@ -36662,10 +36666,10 @@
     </row>
     <row r="1392" spans="1:2">
       <c r="A1392" s="2">
-        <v>677649</v>
+        <v>680776</v>
       </c>
       <c r="B1392" s="1" t="s">
-        <v>95</v>
+        <v>304</v>
       </c>
     </row>
     <row r="1393" spans="1:2">
@@ -36686,42 +36690,42 @@
     </row>
     <row r="1395" spans="1:2">
       <c r="A1395" s="2">
-        <v>686554</v>
+        <v>677649</v>
       </c>
       <c r="B1395" s="1" t="s">
-        <v>499</v>
+        <v>95</v>
       </c>
     </row>
     <row r="1396" spans="1:2">
       <c r="A1396" s="2">
-        <v>694362</v>
+        <v>686554</v>
       </c>
       <c r="B1396" s="1" t="s">
-        <v>507</v>
+        <v>499</v>
       </c>
     </row>
     <row r="1397" spans="1:2">
       <c r="A1397" s="2">
-        <v>656388</v>
+        <v>694362</v>
       </c>
       <c r="B1397" s="1" t="s">
-        <v>723</v>
+        <v>507</v>
       </c>
     </row>
     <row r="1398" spans="1:2">
       <c r="A1398" s="2">
-        <v>621453</v>
+        <v>656388</v>
       </c>
       <c r="B1398" s="1" t="s">
-        <v>673</v>
+        <v>723</v>
       </c>
     </row>
     <row r="1399" spans="1:2">
       <c r="A1399" s="2">
-        <v>622110</v>
+        <v>621453</v>
       </c>
       <c r="B1399" s="1" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
     </row>
     <row r="1400" spans="1:2">
@@ -36742,10 +36746,10 @@
     </row>
     <row r="1402" spans="1:2">
       <c r="A1402" s="2">
-        <v>643289</v>
+        <v>622110</v>
       </c>
       <c r="B1402" s="1" t="s">
-        <v>456</v>
+        <v>675</v>
       </c>
     </row>
     <row r="1403" spans="1:2">
@@ -36766,10 +36770,10 @@
     </row>
     <row r="1405" spans="1:2">
       <c r="A1405" s="2">
-        <v>592273</v>
+        <v>643289</v>
       </c>
       <c r="B1405" s="1" t="s">
-        <v>323</v>
+        <v>456</v>
       </c>
     </row>
     <row r="1406" spans="1:2">
@@ -36790,18 +36794,18 @@
     </row>
     <row r="1408" spans="1:2">
       <c r="A1408" s="2">
-        <v>686482</v>
+        <v>592273</v>
       </c>
       <c r="B1408" s="1" t="s">
-        <v>859</v>
+        <v>323</v>
       </c>
     </row>
     <row r="1409" spans="1:2">
       <c r="A1409" s="2">
-        <v>641531</v>
+        <v>686482</v>
       </c>
       <c r="B1409" s="1" t="s">
-        <v>695</v>
+        <v>859</v>
       </c>
     </row>
     <row r="1410" spans="1:2">
@@ -36814,10 +36818,10 @@
     </row>
     <row r="1411" spans="1:2">
       <c r="A1411" s="2">
-        <v>686668</v>
+        <v>641531</v>
       </c>
       <c r="B1411" s="1" t="s">
-        <v>334</v>
+        <v>695</v>
       </c>
     </row>
     <row r="1412" spans="1:2">
@@ -36830,18 +36834,18 @@
     </row>
     <row r="1413" spans="1:2">
       <c r="A1413" s="2">
-        <v>669023</v>
+        <v>686668</v>
       </c>
       <c r="B1413" s="1" t="s">
-        <v>771</v>
+        <v>334</v>
       </c>
     </row>
     <row r="1414" spans="1:2">
       <c r="A1414" s="2">
-        <v>680977</v>
+        <v>669023</v>
       </c>
       <c r="B1414" s="1" t="s">
-        <v>33</v>
+        <v>771</v>
       </c>
     </row>
     <row r="1415" spans="1:2">
@@ -36862,10 +36866,10 @@
     </row>
     <row r="1417" spans="1:2">
       <c r="A1417" s="2">
-        <v>518626</v>
+        <v>680977</v>
       </c>
       <c r="B1417" s="1" t="s">
-        <v>581</v>
+        <v>33</v>
       </c>
     </row>
     <row r="1418" spans="1:2">
@@ -36878,10 +36882,10 @@
     </row>
     <row r="1419" spans="1:2">
       <c r="A1419" s="2">
-        <v>691176</v>
+        <v>518626</v>
       </c>
       <c r="B1419" s="1" t="s">
-        <v>833</v>
+        <v>581</v>
       </c>
     </row>
     <row r="1420" spans="1:2">
@@ -36894,10 +36898,10 @@
     </row>
     <row r="1421" spans="1:2">
       <c r="A1421" s="2">
-        <v>641525</v>
+        <v>691176</v>
       </c>
       <c r="B1421" s="1" t="s">
-        <v>694</v>
+        <v>833</v>
       </c>
     </row>
     <row r="1422" spans="1:2">
@@ -36910,18 +36914,18 @@
     </row>
     <row r="1423" spans="1:2">
       <c r="A1423" s="2">
-        <v>693307</v>
+        <v>641525</v>
       </c>
       <c r="B1423" s="1" t="s">
-        <v>868</v>
+        <v>694</v>
       </c>
     </row>
     <row r="1424" spans="1:2">
       <c r="A1424" s="2">
-        <v>572816</v>
+        <v>693307</v>
       </c>
       <c r="B1424" s="1" t="s">
-        <v>622</v>
+        <v>868</v>
       </c>
     </row>
     <row r="1425" spans="1:2">
@@ -36934,18 +36938,18 @@
     </row>
     <row r="1426" spans="1:2">
       <c r="A1426" s="2">
-        <v>543105</v>
+        <v>572816</v>
       </c>
       <c r="B1426" s="1" t="s">
-        <v>590</v>
+        <v>622</v>
       </c>
     </row>
     <row r="1427" spans="1:2">
       <c r="A1427" s="2">
-        <v>650490</v>
+        <v>543105</v>
       </c>
       <c r="B1427" s="1" t="s">
-        <v>482</v>
+        <v>590</v>
       </c>
     </row>
     <row r="1428" spans="1:2">
@@ -36966,10 +36970,10 @@
     </row>
     <row r="1430" spans="1:2">
       <c r="A1430" s="2">
-        <v>673237</v>
+        <v>650490</v>
       </c>
       <c r="B1430" s="1" t="s">
-        <v>3</v>
+        <v>482</v>
       </c>
     </row>
     <row r="1431" spans="1:2">
@@ -36982,18 +36986,18 @@
     </row>
     <row r="1432" spans="1:2">
       <c r="A1432" s="2">
-        <v>650331</v>
+        <v>673237</v>
       </c>
       <c r="B1432" s="1" t="s">
-        <v>716</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1433" spans="1:2">
       <c r="A1433" s="2">
-        <v>672478</v>
+        <v>650331</v>
       </c>
       <c r="B1433" s="1" t="s">
-        <v>782</v>
+        <v>716</v>
       </c>
     </row>
     <row r="1434" spans="1:2">
@@ -37006,18 +37010,18 @@
     </row>
     <row r="1435" spans="1:2">
       <c r="A1435" s="2">
-        <v>656371</v>
+        <v>672478</v>
       </c>
       <c r="B1435" s="1" t="s">
-        <v>805</v>
+        <v>782</v>
       </c>
     </row>
     <row r="1436" spans="1:2">
       <c r="A1436" s="2">
-        <v>553869</v>
+        <v>656371</v>
       </c>
       <c r="B1436" s="1" t="s">
-        <v>479</v>
+        <v>805</v>
       </c>
     </row>
     <row r="1437" spans="1:2">
@@ -37038,10 +37042,10 @@
     </row>
     <row r="1439" spans="1:2">
       <c r="A1439" s="2">
-        <v>649557</v>
+        <v>553869</v>
       </c>
       <c r="B1439" s="1" t="s">
-        <v>527</v>
+        <v>479</v>
       </c>
     </row>
     <row r="1440" spans="1:2">
@@ -37062,18 +37066,18 @@
     </row>
     <row r="1442" spans="1:2">
       <c r="A1442" s="2">
-        <v>701305</v>
+        <v>649557</v>
       </c>
       <c r="B1442" s="1" t="s">
-        <v>877</v>
+        <v>527</v>
       </c>
     </row>
     <row r="1443" spans="1:2">
       <c r="A1443" s="2">
-        <v>646240</v>
+        <v>701305</v>
       </c>
       <c r="B1443" s="1" t="s">
-        <v>71</v>
+        <v>877</v>
       </c>
     </row>
     <row r="1444" spans="1:2">
@@ -37094,26 +37098,26 @@
     </row>
     <row r="1446" spans="1:2">
       <c r="A1446" s="2">
-        <v>641513</v>
+        <v>646240</v>
       </c>
       <c r="B1446" s="1" t="s">
-        <v>693</v>
+        <v>71</v>
       </c>
     </row>
     <row r="1447" spans="1:2">
       <c r="A1447" s="2">
-        <v>641512</v>
+        <v>641513</v>
       </c>
       <c r="B1447" s="1" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
     </row>
     <row r="1448" spans="1:2">
       <c r="A1448" s="2">
-        <v>676356</v>
+        <v>641512</v>
       </c>
       <c r="B1448" s="1" t="s">
-        <v>449</v>
+        <v>692</v>
       </c>
     </row>
     <row r="1449" spans="1:2">
@@ -37126,18 +37130,18 @@
     </row>
     <row r="1450" spans="1:2">
       <c r="A1450" s="2">
-        <v>676113</v>
+        <v>676356</v>
       </c>
       <c r="B1450" s="1" t="s">
-        <v>509</v>
+        <v>449</v>
       </c>
     </row>
     <row r="1451" spans="1:2">
       <c r="A1451" s="2">
-        <v>641511</v>
+        <v>676113</v>
       </c>
       <c r="B1451" s="1" t="s">
-        <v>365</v>
+        <v>509</v>
       </c>
     </row>
     <row r="1452" spans="1:2">
@@ -37158,18 +37162,18 @@
     </row>
     <row r="1454" spans="1:2">
       <c r="A1454" s="2">
-        <v>680728</v>
+        <v>641511</v>
       </c>
       <c r="B1454" s="1" t="s">
-        <v>854</v>
+        <v>365</v>
       </c>
     </row>
     <row r="1455" spans="1:2">
       <c r="A1455" s="2">
-        <v>657557</v>
+        <v>680728</v>
       </c>
       <c r="B1455" s="1" t="s">
-        <v>196</v>
+        <v>854</v>
       </c>
     </row>
     <row r="1456" spans="1:2">
@@ -37190,18 +37194,18 @@
     </row>
     <row r="1458" spans="1:2">
       <c r="A1458" s="2">
-        <v>665782</v>
+        <v>657557</v>
       </c>
       <c r="B1458" s="1" t="s">
-        <v>841</v>
+        <v>196</v>
       </c>
     </row>
     <row r="1459" spans="1:2">
       <c r="A1459" s="2">
-        <v>682829</v>
+        <v>665782</v>
       </c>
       <c r="B1459" s="1" t="s">
-        <v>236</v>
+        <v>841</v>
       </c>
     </row>
     <row r="1460" spans="1:2">
@@ -37214,10 +37218,10 @@
     </row>
     <row r="1461" spans="1:2">
       <c r="A1461" s="2">
-        <v>650559</v>
+        <v>682829</v>
       </c>
       <c r="B1461" s="1" t="s">
-        <v>66</v>
+        <v>236</v>
       </c>
     </row>
     <row r="1462" spans="1:2">
@@ -37238,10 +37242,10 @@
     </row>
     <row r="1464" spans="1:2">
       <c r="A1464" s="2">
-        <v>602074</v>
+        <v>650559</v>
       </c>
       <c r="B1464" s="1" t="s">
-        <v>643</v>
+        <v>66</v>
       </c>
     </row>
     <row r="1465" spans="1:2">
@@ -37254,10 +37258,10 @@
     </row>
     <row r="1466" spans="1:2">
       <c r="A1466" s="2">
-        <v>641505</v>
+        <v>602074</v>
       </c>
       <c r="B1466" s="1" t="s">
-        <v>691</v>
+        <v>643</v>
       </c>
     </row>
     <row r="1467" spans="1:2">
@@ -37270,18 +37274,18 @@
     </row>
     <row r="1468" spans="1:2">
       <c r="A1468" s="2">
-        <v>664041</v>
+        <v>641505</v>
       </c>
       <c r="B1468" s="1" t="s">
-        <v>746</v>
+        <v>691</v>
       </c>
     </row>
     <row r="1469" spans="1:2">
       <c r="A1469" s="2">
-        <v>605204</v>
+        <v>664041</v>
       </c>
       <c r="B1469" s="1" t="s">
-        <v>183</v>
+        <v>746</v>
       </c>
     </row>
     <row r="1470" spans="1:2">
@@ -37302,10 +37306,10 @@
     </row>
     <row r="1472" spans="1:2">
       <c r="A1472" s="2">
-        <v>680779</v>
+        <v>605204</v>
       </c>
       <c r="B1472" s="1" t="s">
-        <v>280</v>
+        <v>183</v>
       </c>
     </row>
     <row r="1473" spans="1:2">
@@ -37318,26 +37322,26 @@
     </row>
     <row r="1474" spans="1:2">
       <c r="A1474" s="2">
-        <v>663478</v>
+        <v>680779</v>
       </c>
       <c r="B1474" s="1" t="s">
-        <v>742</v>
+        <v>280</v>
       </c>
     </row>
     <row r="1475" spans="1:2">
       <c r="A1475" s="2">
-        <v>571602</v>
+        <v>663478</v>
       </c>
       <c r="B1475" s="1" t="s">
-        <v>611</v>
+        <v>742</v>
       </c>
     </row>
     <row r="1476" spans="1:2">
       <c r="A1476" s="2">
-        <v>666915</v>
+        <v>571602</v>
       </c>
       <c r="B1476" s="1" t="s">
-        <v>400</v>
+        <v>611</v>
       </c>
     </row>
     <row r="1477" spans="1:2">
@@ -37358,18 +37362,18 @@
     </row>
     <row r="1479" spans="1:2">
       <c r="A1479" s="2">
-        <v>621311</v>
+        <v>666915</v>
       </c>
       <c r="B1479" s="1" t="s">
-        <v>540</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1480" spans="1:2">
       <c r="A1480" s="2">
-        <v>518595</v>
+        <v>621311</v>
       </c>
       <c r="B1480" s="1" t="s">
-        <v>208</v>
+        <v>540</v>
       </c>
     </row>
     <row r="1481" spans="1:2">
@@ -37390,18 +37394,18 @@
     </row>
     <row r="1483" spans="1:2">
       <c r="A1483" s="2">
-        <v>518586</v>
+        <v>518595</v>
       </c>
       <c r="B1483" s="1" t="s">
-        <v>580</v>
+        <v>208</v>
       </c>
     </row>
     <row r="1484" spans="1:2">
       <c r="A1484" s="2">
-        <v>665833</v>
+        <v>518586</v>
       </c>
       <c r="B1484" s="1" t="s">
-        <v>408</v>
+        <v>580</v>
       </c>
     </row>
     <row r="1485" spans="1:2">
@@ -37422,10 +37426,10 @@
     </row>
     <row r="1487" spans="1:2">
       <c r="A1487" s="2">
-        <v>443558</v>
+        <v>665833</v>
       </c>
       <c r="B1487" s="1" t="s">
-        <v>559</v>
+        <v>408</v>
       </c>
     </row>
     <row r="1488" spans="1:2">
@@ -37438,10 +37442,10 @@
     </row>
     <row r="1489" spans="1:2">
       <c r="A1489" s="2">
-        <v>691718</v>
+        <v>443558</v>
       </c>
       <c r="B1489" s="1" t="s">
-        <v>384</v>
+        <v>559</v>
       </c>
     </row>
     <row r="1490" spans="1:2">
@@ -37454,10 +37458,10 @@
     </row>
     <row r="1491" spans="1:2">
       <c r="A1491" s="2">
-        <v>630105</v>
+        <v>691718</v>
       </c>
       <c r="B1491" s="1" t="s">
-        <v>329</v>
+        <v>384</v>
       </c>
     </row>
     <row r="1492" spans="1:2">
@@ -37478,10 +37482,10 @@
     </row>
     <row r="1494" spans="1:2">
       <c r="A1494" s="2">
-        <v>543068</v>
+        <v>630105</v>
       </c>
       <c r="B1494" s="1" t="s">
-        <v>589</v>
+        <v>329</v>
       </c>
     </row>
     <row r="1495" spans="1:2">
@@ -37494,18 +37498,18 @@
     </row>
     <row r="1496" spans="1:2">
       <c r="A1496" s="2">
-        <v>686611</v>
+        <v>543068</v>
       </c>
       <c r="B1496" s="1" t="s">
-        <v>861</v>
+        <v>589</v>
       </c>
     </row>
     <row r="1497" spans="1:2">
       <c r="A1497" s="2">
-        <v>641487</v>
+        <v>686611</v>
       </c>
       <c r="B1497" s="1" t="s">
-        <v>313</v>
+        <v>861</v>
       </c>
     </row>
     <row r="1498" spans="1:2">
@@ -37526,10 +37530,10 @@
     </row>
     <row r="1500" spans="1:2">
       <c r="A1500" s="2">
-        <v>543063</v>
+        <v>641487</v>
       </c>
       <c r="B1500" s="1" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
     </row>
     <row r="1501" spans="1:2">
@@ -37550,10 +37554,10 @@
     </row>
     <row r="1503" spans="1:2">
       <c r="A1503" s="2">
-        <v>681297</v>
+        <v>543063</v>
       </c>
       <c r="B1503" s="1" t="s">
-        <v>423</v>
+        <v>319</v>
       </c>
     </row>
     <row r="1504" spans="1:2">
@@ -37566,10 +37570,10 @@
     </row>
     <row r="1505" spans="1:2">
       <c r="A1505" s="2">
-        <v>621043</v>
+        <v>681297</v>
       </c>
       <c r="B1505" s="1" t="s">
-        <v>114</v>
+        <v>423</v>
       </c>
     </row>
     <row r="1506" spans="1:2">
@@ -37590,10 +37594,10 @@
     </row>
     <row r="1508" spans="1:2">
       <c r="A1508" s="2">
-        <v>614173</v>
+        <v>621043</v>
       </c>
       <c r="B1508" s="1" t="s">
-        <v>666</v>
+        <v>114</v>
       </c>
     </row>
     <row r="1509" spans="1:2">
@@ -37606,10 +37610,10 @@
     </row>
     <row r="1510" spans="1:2">
       <c r="A1510" s="2">
-        <v>643265</v>
+        <v>614173</v>
       </c>
       <c r="B1510" s="1" t="s">
-        <v>291</v>
+        <v>666</v>
       </c>
     </row>
     <row r="1511" spans="1:2">
@@ -37630,18 +37634,18 @@
     </row>
     <row r="1513" spans="1:2">
       <c r="A1513" s="2">
-        <v>695257</v>
+        <v>643265</v>
       </c>
       <c r="B1513" s="1" t="s">
-        <v>874</v>
+        <v>291</v>
       </c>
     </row>
     <row r="1514" spans="1:2">
       <c r="A1514" s="2">
-        <v>575929</v>
+        <v>695257</v>
       </c>
       <c r="B1514" s="1" t="s">
-        <v>140</v>
+        <v>874</v>
       </c>
     </row>
     <row r="1515" spans="1:2">
@@ -37662,10 +37666,10 @@
     </row>
     <row r="1517" spans="1:2">
       <c r="A1517" s="2">
-        <v>661388</v>
+        <v>575929</v>
       </c>
       <c r="B1517" s="1" t="s">
-        <v>296</v>
+        <v>140</v>
       </c>
     </row>
     <row r="1518" spans="1:2">
@@ -37686,26 +37690,26 @@
     </row>
     <row r="1520" spans="1:2">
       <c r="A1520" s="2">
-        <v>676628</v>
+        <v>661388</v>
       </c>
       <c r="B1520" s="1" t="s">
-        <v>789</v>
+        <v>296</v>
       </c>
     </row>
     <row r="1521" spans="1:2">
       <c r="A1521" s="2">
-        <v>665052</v>
+        <v>676628</v>
       </c>
       <c r="B1521" s="1" t="s">
-        <v>840</v>
+        <v>789</v>
       </c>
     </row>
     <row r="1522" spans="1:2">
       <c r="A1522" s="2">
-        <v>624424</v>
+        <v>665052</v>
       </c>
       <c r="B1522" s="1" t="s">
-        <v>141</v>
+        <v>840</v>
       </c>
     </row>
     <row r="1523" spans="1:2">
@@ -37718,26 +37722,26 @@
     </row>
     <row r="1524" spans="1:2">
       <c r="A1524" s="2">
-        <v>641470</v>
+        <v>624424</v>
       </c>
       <c r="B1524" s="1" t="s">
-        <v>690</v>
+        <v>141</v>
       </c>
     </row>
     <row r="1525" spans="1:2">
       <c r="A1525" s="2">
-        <v>686555</v>
+        <v>641470</v>
       </c>
       <c r="B1525" s="1" t="s">
-        <v>860</v>
+        <v>690</v>
       </c>
     </row>
     <row r="1526" spans="1:2">
       <c r="A1526" s="2">
-        <v>693049</v>
+        <v>686555</v>
       </c>
       <c r="B1526" s="1" t="s">
-        <v>524</v>
+        <v>860</v>
       </c>
     </row>
     <row r="1527" spans="1:2">
@@ -37750,10 +37754,10 @@
     </row>
     <row r="1528" spans="1:2">
       <c r="A1528" s="2">
-        <v>676391</v>
+        <v>693049</v>
       </c>
       <c r="B1528" s="1" t="s">
-        <v>428</v>
+        <v>524</v>
       </c>
     </row>
     <row r="1529" spans="1:2">
@@ -37774,10 +37778,10 @@
     </row>
     <row r="1531" spans="1:2">
       <c r="A1531" s="2">
-        <v>665019</v>
+        <v>676391</v>
       </c>
       <c r="B1531" s="1" t="s">
-        <v>251</v>
+        <v>428</v>
       </c>
     </row>
     <row r="1532" spans="1:2">
@@ -37798,26 +37802,26 @@
     </row>
     <row r="1534" spans="1:2">
       <c r="A1534" s="2">
-        <v>682729</v>
+        <v>665019</v>
       </c>
       <c r="B1534" s="1" t="s">
-        <v>531</v>
+        <v>251</v>
       </c>
     </row>
     <row r="1535" spans="1:2">
       <c r="A1535" s="2">
-        <v>694192</v>
+        <v>682729</v>
       </c>
       <c r="B1535" s="1" t="s">
-        <v>486</v>
+        <v>531</v>
       </c>
     </row>
     <row r="1536" spans="1:2">
       <c r="A1536" s="2">
-        <v>596847</v>
+        <v>694192</v>
       </c>
       <c r="B1536" s="1" t="s">
-        <v>639</v>
+        <v>486</v>
       </c>
     </row>
     <row r="1537" spans="1:2">
@@ -37830,10 +37834,10 @@
     </row>
     <row r="1538" spans="1:2">
       <c r="A1538" s="2">
-        <v>665862</v>
+        <v>596847</v>
       </c>
       <c r="B1538" s="1" t="s">
-        <v>292</v>
+        <v>639</v>
       </c>
     </row>
     <row r="1539" spans="1:2">
@@ -37854,18 +37858,18 @@
     </row>
     <row r="1541" spans="1:2">
       <c r="A1541" s="2">
-        <v>455139</v>
+        <v>665862</v>
       </c>
       <c r="B1541" s="1" t="s">
-        <v>563</v>
+        <v>292</v>
       </c>
     </row>
     <row r="1542" spans="1:2">
       <c r="A1542" s="2">
-        <v>656308</v>
+        <v>455139</v>
       </c>
       <c r="B1542" s="1" t="s">
-        <v>722</v>
+        <v>563</v>
       </c>
     </row>
     <row r="1543" spans="1:2">
@@ -37878,10 +37882,10 @@
     </row>
     <row r="1544" spans="1:2">
       <c r="A1544" s="2">
-        <v>656305</v>
+        <v>656308</v>
       </c>
       <c r="B1544" s="1" t="s">
-        <v>255</v>
+        <v>722</v>
       </c>
     </row>
     <row r="1545" spans="1:2">
@@ -37902,18 +37906,18 @@
     </row>
     <row r="1547" spans="1:2">
       <c r="A1547" s="2">
-        <v>665953</v>
+        <v>656305</v>
       </c>
       <c r="B1547" s="1" t="s">
-        <v>842</v>
+        <v>255</v>
       </c>
     </row>
     <row r="1548" spans="1:2">
       <c r="A1548" s="2">
-        <v>644374</v>
+        <v>665953</v>
       </c>
       <c r="B1548" s="1" t="s">
-        <v>715</v>
+        <v>842</v>
       </c>
     </row>
     <row r="1549" spans="1:2">
@@ -37926,18 +37930,18 @@
     </row>
     <row r="1550" spans="1:2">
       <c r="A1550" s="2">
-        <v>665482</v>
+        <v>644374</v>
       </c>
       <c r="B1550" s="1" t="s">
-        <v>757</v>
+        <v>715</v>
       </c>
     </row>
     <row r="1551" spans="1:2">
       <c r="A1551" s="2">
-        <v>595909</v>
+        <v>665482</v>
       </c>
       <c r="B1551" s="1" t="s">
-        <v>142</v>
+        <v>757</v>
       </c>
     </row>
     <row r="1552" spans="1:2">
@@ -37958,10 +37962,10 @@
     </row>
     <row r="1554" spans="1:2">
       <c r="A1554" s="2">
-        <v>650489</v>
+        <v>595909</v>
       </c>
       <c r="B1554" s="1" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
     </row>
     <row r="1555" spans="1:2">
@@ -37982,10 +37986,10 @@
     </row>
     <row r="1557" spans="1:2">
       <c r="A1557" s="2">
-        <v>666801</v>
+        <v>650489</v>
       </c>
       <c r="B1557" s="1" t="s">
-        <v>763</v>
+        <v>151</v>
       </c>
     </row>
     <row r="1558" spans="1:2">
@@ -37998,18 +38002,18 @@
     </row>
     <row r="1559" spans="1:2">
       <c r="A1559" s="2">
-        <v>488771</v>
+        <v>666801</v>
       </c>
       <c r="B1559" s="1" t="s">
-        <v>571</v>
+        <v>763</v>
       </c>
     </row>
     <row r="1560" spans="1:2">
       <c r="A1560" s="2">
-        <v>605612</v>
+        <v>488771</v>
       </c>
       <c r="B1560" s="1" t="s">
-        <v>650</v>
+        <v>571</v>
       </c>
     </row>
     <row r="1561" spans="1:2">
@@ -38022,18 +38026,18 @@
     </row>
     <row r="1562" spans="1:2">
       <c r="A1562" s="2">
-        <v>660636</v>
+        <v>605612</v>
       </c>
       <c r="B1562" s="1" t="s">
-        <v>738</v>
+        <v>650</v>
       </c>
     </row>
     <row r="1563" spans="1:2">
       <c r="A1563" s="2">
-        <v>592206</v>
+        <v>660636</v>
       </c>
       <c r="B1563" s="1" t="s">
-        <v>99</v>
+        <v>738</v>
       </c>
     </row>
     <row r="1564" spans="1:2">
@@ -38054,10 +38058,10 @@
     </row>
     <row r="1566" spans="1:2">
       <c r="A1566" s="2">
-        <v>671213</v>
+        <v>592206</v>
       </c>
       <c r="B1566" s="1" t="s">
-        <v>9</v>
+        <v>99</v>
       </c>
     </row>
     <row r="1567" spans="1:2">
@@ -38078,10 +38082,10 @@
     </row>
     <row r="1569" spans="1:2">
       <c r="A1569" s="2">
-        <v>592200</v>
+        <v>671213</v>
       </c>
       <c r="B1569" s="1" t="s">
-        <v>305</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1570" spans="1:2">
@@ -38102,10 +38106,10 @@
     </row>
     <row r="1572" spans="1:2">
       <c r="A1572" s="2">
-        <v>694497</v>
+        <v>592200</v>
       </c>
       <c r="B1572" s="1" t="s">
-        <v>420</v>
+        <v>305</v>
       </c>
     </row>
     <row r="1573" spans="1:2">
@@ -38118,10 +38122,10 @@
     </row>
     <row r="1574" spans="1:2">
       <c r="A1574" s="2">
-        <v>682998</v>
+        <v>694497</v>
       </c>
       <c r="B1574" s="1" t="s">
-        <v>149</v>
+        <v>420</v>
       </c>
     </row>
     <row r="1575" spans="1:2">
@@ -38142,10 +38146,10 @@
     </row>
     <row r="1577" spans="1:2">
       <c r="A1577" s="2">
-        <v>572761</v>
+        <v>682998</v>
       </c>
       <c r="B1577" s="1" t="s">
-        <v>298</v>
+        <v>149</v>
       </c>
     </row>
     <row r="1578" spans="1:2">
@@ -38166,10 +38170,10 @@
     </row>
     <row r="1580" spans="1:2">
       <c r="A1580" s="2">
-        <v>681481</v>
+        <v>572761</v>
       </c>
       <c r="B1580" s="1" t="s">
-        <v>29</v>
+        <v>298</v>
       </c>
     </row>
     <row r="1581" spans="1:2">
@@ -38190,10 +38194,10 @@
     </row>
     <row r="1583" spans="1:2">
       <c r="A1583" s="2">
-        <v>666185</v>
+        <v>681481</v>
       </c>
       <c r="B1583" s="1" t="s">
-        <v>90</v>
+        <v>29</v>
       </c>
     </row>
     <row r="1584" spans="1:2">
@@ -38214,10 +38218,10 @@
     </row>
     <row r="1586" spans="1:2">
       <c r="A1586" s="2">
-        <v>605170</v>
+        <v>666185</v>
       </c>
       <c r="B1586" s="1" t="s">
-        <v>180</v>
+        <v>90</v>
       </c>
     </row>
     <row r="1587" spans="1:2">
@@ -38238,18 +38242,18 @@
     </row>
     <row r="1589" spans="1:2">
       <c r="A1589" s="2">
-        <v>681962</v>
+        <v>605170</v>
       </c>
       <c r="B1589" s="1" t="s">
-        <v>826</v>
+        <v>180</v>
       </c>
     </row>
     <row r="1590" spans="1:2">
       <c r="A1590" s="2">
-        <v>668843</v>
+        <v>681962</v>
       </c>
       <c r="B1590" s="1" t="s">
-        <v>770</v>
+        <v>826</v>
       </c>
     </row>
     <row r="1591" spans="1:2">
@@ -38262,10 +38266,10 @@
     </row>
     <row r="1592" spans="1:2">
       <c r="A1592" s="2">
-        <v>686527</v>
+        <v>668843</v>
       </c>
       <c r="B1592" s="1" t="s">
-        <v>317</v>
+        <v>770</v>
       </c>
     </row>
     <row r="1593" spans="1:2">
@@ -38278,18 +38282,18 @@
     </row>
     <row r="1594" spans="1:2">
       <c r="A1594" s="2">
-        <v>429664</v>
+        <v>686527</v>
       </c>
       <c r="B1594" s="1" t="s">
-        <v>557</v>
+        <v>317</v>
       </c>
     </row>
     <row r="1595" spans="1:2">
       <c r="A1595" s="2">
-        <v>592192</v>
+        <v>429664</v>
       </c>
       <c r="B1595" s="1" t="s">
-        <v>24</v>
+        <v>557</v>
       </c>
     </row>
     <row r="1596" spans="1:2">
@@ -38310,10 +38314,10 @@
     </row>
     <row r="1598" spans="1:2">
       <c r="A1598" s="2">
-        <v>600869</v>
+        <v>592192</v>
       </c>
       <c r="B1598" s="1" t="s">
-        <v>377</v>
+        <v>24</v>
       </c>
     </row>
     <row r="1599" spans="1:2">
@@ -38334,10 +38338,10 @@
     </row>
     <row r="1601" spans="1:2">
       <c r="A1601" s="2">
-        <v>672744</v>
+        <v>600869</v>
       </c>
       <c r="B1601" s="1" t="s">
-        <v>386</v>
+        <v>377</v>
       </c>
     </row>
     <row r="1602" spans="1:2">
@@ -38350,10 +38354,10 @@
     </row>
     <row r="1603" spans="1:2">
       <c r="A1603" s="2">
-        <v>669134</v>
+        <v>672744</v>
       </c>
       <c r="B1603" s="1" t="s">
-        <v>370</v>
+        <v>386</v>
       </c>
     </row>
     <row r="1604" spans="1:2">
@@ -38374,18 +38378,18 @@
     </row>
     <row r="1606" spans="1:2">
       <c r="A1606" s="2">
-        <v>672569</v>
+        <v>669134</v>
       </c>
       <c r="B1606" s="1" t="s">
-        <v>848</v>
+        <v>370</v>
       </c>
     </row>
     <row r="1607" spans="1:2">
       <c r="A1607" s="2">
-        <v>691406</v>
+        <v>672569</v>
       </c>
       <c r="B1607" s="1" t="s">
-        <v>834</v>
+        <v>848</v>
       </c>
     </row>
     <row r="1608" spans="1:2">
@@ -38398,10 +38402,10 @@
     </row>
     <row r="1609" spans="1:2">
       <c r="A1609" s="2">
-        <v>663662</v>
+        <v>691406</v>
       </c>
       <c r="B1609" s="1" t="s">
-        <v>469</v>
+        <v>834</v>
       </c>
     </row>
     <row r="1610" spans="1:2">
@@ -38414,10 +38418,10 @@
     </row>
     <row r="1611" spans="1:2">
       <c r="A1611" s="2">
-        <v>622666</v>
+        <v>663662</v>
       </c>
       <c r="B1611" s="1" t="s">
-        <v>678</v>
+        <v>469</v>
       </c>
     </row>
     <row r="1612" spans="1:2">
@@ -38430,10 +38434,10 @@
     </row>
     <row r="1613" spans="1:2">
       <c r="A1613" s="2">
-        <v>669743</v>
+        <v>622666</v>
       </c>
       <c r="B1613" s="1" t="s">
-        <v>339</v>
+        <v>678</v>
       </c>
     </row>
     <row r="1614" spans="1:2">
@@ -38454,10 +38458,10 @@
     </row>
     <row r="1616" spans="1:2">
       <c r="A1616" s="2">
-        <v>641432</v>
+        <v>669743</v>
       </c>
       <c r="B1616" s="1" t="s">
-        <v>109</v>
+        <v>339</v>
       </c>
     </row>
     <row r="1617" spans="1:2">
@@ -38478,10 +38482,10 @@
     </row>
     <row r="1619" spans="1:2">
       <c r="A1619" s="2">
-        <v>594777</v>
+        <v>641432</v>
       </c>
       <c r="B1619" s="1" t="s">
-        <v>630</v>
+        <v>109</v>
       </c>
     </row>
     <row r="1620" spans="1:2">
@@ -38494,18 +38498,18 @@
     </row>
     <row r="1621" spans="1:2">
       <c r="A1621" s="2">
-        <v>456715</v>
+        <v>594777</v>
       </c>
       <c r="B1621" s="1" t="s">
-        <v>564</v>
+        <v>630</v>
       </c>
     </row>
     <row r="1622" spans="1:2">
       <c r="A1622" s="2">
-        <v>665828</v>
+        <v>456715</v>
       </c>
       <c r="B1622" s="1" t="s">
-        <v>44</v>
+        <v>564</v>
       </c>
     </row>
     <row r="1623" spans="1:2">
@@ -38526,10 +38530,10 @@
     </row>
     <row r="1625" spans="1:2">
       <c r="A1625" s="2">
-        <v>408234</v>
+        <v>665828</v>
       </c>
       <c r="B1625" s="1" t="s">
-        <v>555</v>
+        <v>44</v>
       </c>
     </row>
     <row r="1626" spans="1:2">
@@ -38542,10 +38546,10 @@
     </row>
     <row r="1627" spans="1:2">
       <c r="A1627" s="2">
-        <v>663550</v>
+        <v>408234</v>
       </c>
       <c r="B1627" s="1" t="s">
-        <v>411</v>
+        <v>555</v>
       </c>
     </row>
     <row r="1628" spans="1:2">
@@ -38558,10 +38562,10 @@
     </row>
     <row r="1629" spans="1:2">
       <c r="A1629" s="2">
-        <v>676609</v>
+        <v>663550</v>
       </c>
       <c r="B1629" s="1" t="s">
-        <v>494</v>
+        <v>411</v>
       </c>
     </row>
     <row r="1630" spans="1:2">
@@ -38574,10 +38578,10 @@
     </row>
     <row r="1631" spans="1:2">
       <c r="A1631" s="2">
-        <v>621439</v>
+        <v>676609</v>
       </c>
       <c r="B1631" s="1" t="s">
-        <v>69</v>
+        <v>494</v>
       </c>
     </row>
     <row r="1632" spans="1:2">
@@ -38598,10 +38602,10 @@
     </row>
     <row r="1634" spans="1:2">
       <c r="A1634" s="2">
-        <v>671732</v>
+        <v>621439</v>
       </c>
       <c r="B1634" s="1" t="s">
-        <v>327</v>
+        <v>69</v>
       </c>
     </row>
     <row r="1635" spans="1:2">
@@ -38614,10 +38618,10 @@
     </row>
     <row r="1636" spans="1:2">
       <c r="A1636" s="2">
-        <v>683737</v>
+        <v>671732</v>
       </c>
       <c r="B1636" s="1" t="s">
-        <v>427</v>
+        <v>327</v>
       </c>
     </row>
     <row r="1637" spans="1:2">
@@ -38630,10 +38634,10 @@
     </row>
     <row r="1638" spans="1:2">
       <c r="A1638" s="2">
-        <v>676475</v>
+        <v>683737</v>
       </c>
       <c r="B1638" s="1" t="s">
-        <v>341</v>
+        <v>427</v>
       </c>
     </row>
     <row r="1639" spans="1:2">
@@ -38654,10 +38658,10 @@
     </row>
     <row r="1641" spans="1:2">
       <c r="A1641" s="2">
-        <v>669394</v>
+        <v>676475</v>
       </c>
       <c r="B1641" s="1" t="s">
-        <v>194</v>
+        <v>341</v>
       </c>
     </row>
     <row r="1642" spans="1:2">
@@ -38678,10 +38682,10 @@
     </row>
     <row r="1644" spans="1:2">
       <c r="A1644" s="2">
-        <v>680814</v>
+        <v>669394</v>
       </c>
       <c r="B1644" s="1" t="s">
-        <v>797</v>
+        <v>194</v>
       </c>
     </row>
     <row r="1645" spans="1:2">
@@ -38694,10 +38698,10 @@
     </row>
     <row r="1646" spans="1:2">
       <c r="A1646" s="2">
-        <v>592178</v>
+        <v>680814</v>
       </c>
       <c r="B1646" s="1" t="s">
-        <v>19</v>
+        <v>797</v>
       </c>
     </row>
     <row r="1647" spans="1:2">
@@ -38718,10 +38722,10 @@
     </row>
     <row r="1649" spans="1:2">
       <c r="A1649" s="2">
-        <v>660644</v>
+        <v>592178</v>
       </c>
       <c r="B1649" s="1" t="s">
-        <v>448</v>
+        <v>19</v>
       </c>
     </row>
     <row r="1650" spans="1:2">
@@ -38742,10 +38746,10 @@
     </row>
     <row r="1652" spans="1:2">
       <c r="A1652" s="2">
-        <v>664913</v>
+        <v>660644</v>
       </c>
       <c r="B1652" s="1" t="s">
-        <v>163</v>
+        <v>448</v>
       </c>
     </row>
     <row r="1653" spans="1:2">
@@ -38766,10 +38770,10 @@
     </row>
     <row r="1655" spans="1:2">
       <c r="A1655" s="2">
-        <v>670712</v>
+        <v>664913</v>
       </c>
       <c r="B1655" s="1" t="s">
-        <v>779</v>
+        <v>163</v>
       </c>
     </row>
     <row r="1656" spans="1:2">
@@ -38782,26 +38786,26 @@
     </row>
     <row r="1657" spans="1:2">
       <c r="A1657" s="2">
-        <v>670092</v>
+        <v>670712</v>
       </c>
       <c r="B1657" s="1" t="s">
-        <v>518</v>
+        <v>779</v>
       </c>
     </row>
     <row r="1658" spans="1:2">
       <c r="A1658" s="2">
-        <v>621446</v>
+        <v>670092</v>
       </c>
       <c r="B1658" s="1" t="s">
-        <v>671</v>
+        <v>518</v>
       </c>
     </row>
     <row r="1659" spans="1:2">
       <c r="A1659" s="2">
-        <v>681146</v>
+        <v>621446</v>
       </c>
       <c r="B1659" s="1" t="s">
-        <v>309</v>
+        <v>671</v>
       </c>
     </row>
     <row r="1660" spans="1:2">
@@ -38822,10 +38826,10 @@
     </row>
     <row r="1662" spans="1:2">
       <c r="A1662" s="2">
-        <v>686823</v>
+        <v>681146</v>
       </c>
       <c r="B1662" s="1" t="s">
-        <v>8</v>
+        <v>309</v>
       </c>
     </row>
     <row r="1663" spans="1:2">
@@ -38846,10 +38850,10 @@
     </row>
     <row r="1665" spans="1:2">
       <c r="A1665" s="2">
-        <v>608324</v>
+        <v>686823</v>
       </c>
       <c r="B1665" s="1" t="s">
-        <v>207</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1666" spans="1:2">
@@ -38870,10 +38874,10 @@
     </row>
     <row r="1668" spans="1:2">
       <c r="A1668" s="2">
-        <v>488726</v>
+        <v>608324</v>
       </c>
       <c r="B1668" s="1" t="s">
-        <v>570</v>
+        <v>207</v>
       </c>
     </row>
     <row r="1669" spans="1:2">
@@ -38886,18 +38890,18 @@
     </row>
     <row r="1670" spans="1:2">
       <c r="A1670" s="2">
-        <v>656252</v>
+        <v>488726</v>
       </c>
       <c r="B1670" s="1" t="s">
-        <v>721</v>
+        <v>570</v>
       </c>
     </row>
     <row r="1671" spans="1:2">
       <c r="A1671" s="2">
-        <v>598265</v>
+        <v>656252</v>
       </c>
       <c r="B1671" s="1" t="s">
-        <v>640</v>
+        <v>721</v>
       </c>
     </row>
     <row r="1672" spans="1:2">
@@ -38910,10 +38914,10 @@
     </row>
     <row r="1673" spans="1:2">
       <c r="A1673" s="2">
-        <v>656248</v>
+        <v>598265</v>
       </c>
       <c r="B1673" s="1" t="s">
-        <v>409</v>
+        <v>640</v>
       </c>
     </row>
     <row r="1674" spans="1:2">
@@ -38934,10 +38938,10 @@
     </row>
     <row r="1676" spans="1:2">
       <c r="A1676" s="2">
-        <v>623520</v>
+        <v>656248</v>
       </c>
       <c r="B1676" s="1" t="s">
-        <v>533</v>
+        <v>409</v>
       </c>
     </row>
     <row r="1677" spans="1:2">
@@ -38950,18 +38954,18 @@
     </row>
     <row r="1678" spans="1:2">
       <c r="A1678" s="2">
-        <v>621450</v>
+        <v>623520</v>
       </c>
       <c r="B1678" s="1" t="s">
-        <v>672</v>
+        <v>533</v>
       </c>
     </row>
     <row r="1679" spans="1:2">
       <c r="A1679" s="2">
-        <v>664761</v>
+        <v>621450</v>
       </c>
       <c r="B1679" s="1" t="s">
-        <v>58</v>
+        <v>672</v>
       </c>
     </row>
     <row r="1680" spans="1:2">
@@ -38982,10 +38986,10 @@
     </row>
     <row r="1682" spans="1:2">
       <c r="A1682" s="2">
-        <v>593428</v>
+        <v>664761</v>
       </c>
       <c r="B1682" s="1" t="s">
-        <v>201</v>
+        <v>58</v>
       </c>
     </row>
     <row r="1683" spans="1:2">
@@ -39006,18 +39010,18 @@
     </row>
     <row r="1685" spans="1:2">
       <c r="A1685" s="2">
-        <v>669208</v>
+        <v>593428</v>
       </c>
       <c r="B1685" s="1" t="s">
-        <v>542</v>
+        <v>201</v>
       </c>
     </row>
     <row r="1686" spans="1:2">
       <c r="A1686" s="2">
-        <v>668709</v>
+        <v>669208</v>
       </c>
       <c r="B1686" s="1" t="s">
-        <v>79</v>
+        <v>542</v>
       </c>
     </row>
     <row r="1687" spans="1:2">
@@ -39038,10 +39042,10 @@
     </row>
     <row r="1689" spans="1:2">
       <c r="A1689" s="2">
-        <v>663905</v>
+        <v>668709</v>
       </c>
       <c r="B1689" s="1" t="s">
-        <v>809</v>
+        <v>79</v>
       </c>
     </row>
     <row r="1690" spans="1:2">
@@ -39054,10 +39058,10 @@
     </row>
     <row r="1691" spans="1:2">
       <c r="A1691" s="2">
-        <v>680118</v>
+        <v>663905</v>
       </c>
       <c r="B1691" s="1" t="s">
-        <v>179</v>
+        <v>809</v>
       </c>
     </row>
     <row r="1692" spans="1:2">
@@ -39070,10 +39074,10 @@
     </row>
     <row r="1693" spans="1:2">
       <c r="A1693" s="2">
-        <v>453568</v>
+        <v>680118</v>
       </c>
       <c r="B1693" s="1" t="s">
-        <v>374</v>
+        <v>179</v>
       </c>
     </row>
     <row r="1694" spans="1:2">
@@ -39094,18 +39098,18 @@
     </row>
     <row r="1696" spans="1:2">
       <c r="A1696" s="2">
-        <v>672012</v>
+        <v>453568</v>
       </c>
       <c r="B1696" s="1" t="s">
-        <v>522</v>
+        <v>374</v>
       </c>
     </row>
     <row r="1697" spans="1:2">
       <c r="A1697" s="2">
-        <v>624415</v>
+        <v>672012</v>
       </c>
       <c r="B1697" s="1" t="s">
-        <v>229</v>
+        <v>522</v>
       </c>
     </row>
     <row r="1698" spans="1:2">
@@ -39126,10 +39130,10 @@
     </row>
     <row r="1700" spans="1:2">
       <c r="A1700" s="2">
-        <v>666182</v>
+        <v>624415</v>
       </c>
       <c r="B1700" s="1" t="s">
-        <v>299</v>
+        <v>229</v>
       </c>
     </row>
     <row r="1701" spans="1:2">
@@ -39150,10 +39154,10 @@
     </row>
     <row r="1703" spans="1:2">
       <c r="A1703" s="2">
-        <v>605141</v>
+        <v>666182</v>
       </c>
       <c r="B1703" s="1" t="s">
-        <v>359</v>
+        <v>299</v>
       </c>
     </row>
     <row r="1704" spans="1:2">
@@ -39174,10 +39178,10 @@
     </row>
     <row r="1706" spans="1:2">
       <c r="A1706" s="2">
-        <v>542194</v>
+        <v>605141</v>
       </c>
       <c r="B1706" s="1" t="s">
-        <v>20</v>
+        <v>359</v>
       </c>
     </row>
     <row r="1707" spans="1:2">
@@ -39198,10 +39202,10 @@
     </row>
     <row r="1709" spans="1:2">
       <c r="A1709" s="2">
-        <v>542932</v>
+        <v>542194</v>
       </c>
       <c r="B1709" s="1" t="s">
-        <v>68</v>
+        <v>20</v>
       </c>
     </row>
     <row r="1710" spans="1:2">
@@ -39222,26 +39226,26 @@
     </row>
     <row r="1712" spans="1:2">
       <c r="A1712" s="2">
-        <v>672642</v>
+        <v>542932</v>
       </c>
       <c r="B1712" s="1" t="s">
-        <v>553</v>
+        <v>68</v>
       </c>
     </row>
     <row r="1713" spans="1:2">
       <c r="A1713" s="2">
-        <v>592144</v>
+        <v>672642</v>
       </c>
       <c r="B1713" s="1" t="s">
-        <v>625</v>
+        <v>553</v>
       </c>
     </row>
     <row r="1714" spans="1:2">
       <c r="A1714" s="2">
-        <v>666181</v>
+        <v>592144</v>
       </c>
       <c r="B1714" s="1" t="s">
-        <v>77</v>
+        <v>625</v>
       </c>
     </row>
     <row r="1715" spans="1:2">
@@ -39262,10 +39266,10 @@
     </row>
     <row r="1717" spans="1:2">
       <c r="A1717" s="2">
-        <v>643217</v>
+        <v>666181</v>
       </c>
       <c r="B1717" s="1" t="s">
-        <v>42</v>
+        <v>77</v>
       </c>
     </row>
     <row r="1718" spans="1:2">
@@ -39286,10 +39290,10 @@
     </row>
     <row r="1720" spans="1:2">
       <c r="A1720" s="2">
-        <v>621532</v>
+        <v>643217</v>
       </c>
       <c r="B1720" s="1" t="s">
-        <v>674</v>
+        <v>42</v>
       </c>
     </row>
     <row r="1721" spans="1:2">
@@ -39302,10 +39306,10 @@
     </row>
     <row r="1722" spans="1:2">
       <c r="A1722" s="2">
-        <v>474832</v>
+        <v>621532</v>
       </c>
       <c r="B1722" s="1" t="s">
-        <v>568</v>
+        <v>674</v>
       </c>
     </row>
     <row r="1723" spans="1:2">
@@ -39318,10 +39322,10 @@
     </row>
     <row r="1724" spans="1:2">
       <c r="A1724" s="2">
-        <v>641355</v>
+        <v>474832</v>
       </c>
       <c r="B1724" s="1" t="s">
-        <v>250</v>
+        <v>568</v>
       </c>
     </row>
     <row r="1725" spans="1:2">
@@ -39342,10 +39346,10 @@
     </row>
     <row r="1727" spans="1:2">
       <c r="A1727" s="2">
-        <v>605137</v>
+        <v>641355</v>
       </c>
       <c r="B1727" s="1" t="s">
-        <v>306</v>
+        <v>250</v>
       </c>
     </row>
     <row r="1728" spans="1:2">
@@ -39366,34 +39370,34 @@
     </row>
     <row r="1730" spans="1:2">
       <c r="A1730" s="2">
-        <v>666179</v>
+        <v>605137</v>
       </c>
       <c r="B1730" s="1" t="s">
-        <v>760</v>
+        <v>306</v>
       </c>
     </row>
     <row r="1731" spans="1:2">
       <c r="A1731" s="2">
-        <v>542921</v>
+        <v>666179</v>
       </c>
       <c r="B1731" s="1" t="s">
-        <v>588</v>
+        <v>760</v>
       </c>
     </row>
     <row r="1732" spans="1:2">
       <c r="A1732" s="2">
-        <v>687597</v>
+        <v>542921</v>
       </c>
       <c r="B1732" s="1" t="s">
-        <v>549</v>
+        <v>588</v>
       </c>
     </row>
     <row r="1733" spans="1:2">
       <c r="A1733" s="2">
-        <v>607461</v>
+        <v>687597</v>
       </c>
       <c r="B1733" s="1" t="s">
-        <v>657</v>
+        <v>549</v>
       </c>
     </row>
     <row r="1734" spans="1:2">
@@ -39406,10 +39410,10 @@
     </row>
     <row r="1735" spans="1:2">
       <c r="A1735" s="2">
-        <v>641343</v>
+        <v>607461</v>
       </c>
       <c r="B1735" s="1" t="s">
-        <v>244</v>
+        <v>657</v>
       </c>
     </row>
     <row r="1736" spans="1:2">
@@ -39422,10 +39426,10 @@
     </row>
     <row r="1737" spans="1:2">
       <c r="A1737" s="2">
-        <v>683146</v>
+        <v>641343</v>
       </c>
       <c r="B1737" s="1" t="s">
-        <v>89</v>
+        <v>244</v>
       </c>
     </row>
     <row r="1738" spans="1:2">
@@ -39446,10 +39450,10 @@
     </row>
     <row r="1740" spans="1:2">
       <c r="A1740" s="2">
-        <v>676946</v>
+        <v>683146</v>
       </c>
       <c r="B1740" s="1" t="s">
-        <v>792</v>
+        <v>89</v>
       </c>
     </row>
     <row r="1741" spans="1:2">
@@ -39462,18 +39466,18 @@
     </row>
     <row r="1742" spans="1:2">
       <c r="A1742" s="2">
-        <v>678545</v>
+        <v>676946</v>
       </c>
       <c r="B1742" s="1" t="s">
-        <v>823</v>
+        <v>792</v>
       </c>
     </row>
     <row r="1743" spans="1:2">
       <c r="A1743" s="2">
-        <v>663698</v>
+        <v>678545</v>
       </c>
       <c r="B1743" s="1" t="s">
-        <v>136</v>
+        <v>823</v>
       </c>
     </row>
     <row r="1744" spans="1:2">
@@ -39494,18 +39498,18 @@
     </row>
     <row r="1746" spans="1:2">
       <c r="A1746" s="2">
-        <v>678489</v>
+        <v>663698</v>
       </c>
       <c r="B1746" s="1" t="s">
-        <v>504</v>
+        <v>136</v>
       </c>
     </row>
     <row r="1747" spans="1:2">
       <c r="A1747" s="2">
-        <v>676480</v>
+        <v>678489</v>
       </c>
       <c r="B1747" s="1" t="s">
-        <v>787</v>
+        <v>504</v>
       </c>
     </row>
     <row r="1748" spans="1:2">
@@ -39518,26 +39522,26 @@
     </row>
     <row r="1749" spans="1:2">
       <c r="A1749" s="2">
-        <v>668663</v>
+        <v>676480</v>
       </c>
       <c r="B1749" s="1" t="s">
-        <v>767</v>
+        <v>787</v>
       </c>
     </row>
     <row r="1750" spans="1:2">
       <c r="A1750" s="2">
-        <v>642456</v>
+        <v>668663</v>
       </c>
       <c r="B1750" s="1" t="s">
-        <v>710</v>
+        <v>767</v>
       </c>
     </row>
     <row r="1751" spans="1:2">
       <c r="A1751" s="2">
-        <v>571466</v>
+        <v>642456</v>
       </c>
       <c r="B1751" s="1" t="s">
-        <v>73</v>
+        <v>710</v>
       </c>
     </row>
     <row r="1752" spans="1:2">
@@ -39558,10 +39562,10 @@
     </row>
     <row r="1754" spans="1:2">
       <c r="A1754" s="2">
-        <v>605131</v>
+        <v>571466</v>
       </c>
       <c r="B1754" s="1" t="s">
-        <v>101</v>
+        <v>73</v>
       </c>
     </row>
     <row r="1755" spans="1:2">
@@ -39582,34 +39586,34 @@
     </row>
     <row r="1757" spans="1:2">
       <c r="A1757" s="2">
-        <v>680718</v>
+        <v>605131</v>
       </c>
       <c r="B1757" s="1" t="s">
-        <v>545</v>
+        <v>101</v>
       </c>
     </row>
     <row r="1758" spans="1:2">
       <c r="A1758" s="2">
-        <v>676625</v>
+        <v>680718</v>
       </c>
       <c r="B1758" s="1" t="s">
-        <v>788</v>
+        <v>545</v>
       </c>
     </row>
     <row r="1759" spans="1:2">
       <c r="A1759" s="2">
-        <v>681460</v>
+        <v>676625</v>
       </c>
       <c r="B1759" s="1" t="s">
-        <v>517</v>
+        <v>788</v>
       </c>
     </row>
     <row r="1760" spans="1:2">
       <c r="A1760" s="2">
-        <v>663609</v>
+        <v>681460</v>
       </c>
       <c r="B1760" s="1" t="s">
-        <v>807</v>
+        <v>517</v>
       </c>
     </row>
     <row r="1761" spans="1:2">
@@ -39622,18 +39626,18 @@
     </row>
     <row r="1762" spans="1:2">
       <c r="A1762" s="2">
-        <v>671117</v>
+        <v>663609</v>
       </c>
       <c r="B1762" s="1" t="s">
-        <v>847</v>
+        <v>807</v>
       </c>
     </row>
     <row r="1763" spans="1:2">
       <c r="A1763" s="2">
-        <v>672275</v>
+        <v>671117</v>
       </c>
       <c r="B1763" s="1" t="s">
-        <v>168</v>
+        <v>847</v>
       </c>
     </row>
     <row r="1764" spans="1:2">
@@ -39646,10 +39650,10 @@
     </row>
     <row r="1765" spans="1:2">
       <c r="A1765" s="2">
-        <v>595879</v>
+        <v>672275</v>
       </c>
       <c r="B1765" s="1" t="s">
-        <v>443</v>
+        <v>168</v>
       </c>
     </row>
     <row r="1766" spans="1:2">
@@ -39670,10 +39674,10 @@
     </row>
     <row r="1768" spans="1:2">
       <c r="A1768" s="2">
-        <v>678225</v>
+        <v>595879</v>
       </c>
       <c r="B1768" s="1" t="s">
-        <v>260</v>
+        <v>443</v>
       </c>
     </row>
     <row r="1769" spans="1:2">
@@ -39694,10 +39698,10 @@
     </row>
     <row r="1771" spans="1:2">
       <c r="A1771" s="2">
-        <v>664056</v>
+        <v>678225</v>
       </c>
       <c r="B1771" s="1" t="s">
-        <v>350</v>
+        <v>260</v>
       </c>
     </row>
     <row r="1772" spans="1:2">
@@ -39718,10 +39722,10 @@
     </row>
     <row r="1774" spans="1:2">
       <c r="A1774" s="2">
-        <v>668731</v>
+        <v>664056</v>
       </c>
       <c r="B1774" s="1" t="s">
-        <v>224</v>
+        <v>350</v>
       </c>
     </row>
     <row r="1775" spans="1:2">
@@ -39742,10 +39746,10 @@
     </row>
     <row r="1777" spans="1:2">
       <c r="A1777" s="2">
-        <v>640492</v>
+        <v>668731</v>
       </c>
       <c r="B1777" s="1" t="s">
-        <v>485</v>
+        <v>224</v>
       </c>
     </row>
     <row r="1778" spans="1:2">
@@ -39766,18 +39770,18 @@
     </row>
     <row r="1780" spans="1:2">
       <c r="A1780" s="2">
-        <v>553902</v>
+        <v>640492</v>
       </c>
       <c r="B1780" s="1" t="s">
-        <v>606</v>
+        <v>485</v>
       </c>
     </row>
     <row r="1781" spans="1:2">
       <c r="A1781" s="2">
-        <v>624414</v>
+        <v>553902</v>
       </c>
       <c r="B1781" s="1" t="s">
-        <v>682</v>
+        <v>606</v>
       </c>
     </row>
     <row r="1782" spans="1:2">
@@ -39790,10 +39794,10 @@
     </row>
     <row r="1783" spans="1:2">
       <c r="A1783" s="2">
-        <v>650333</v>
+        <v>624414</v>
       </c>
       <c r="B1783" s="1" t="s">
-        <v>158</v>
+        <v>682</v>
       </c>
     </row>
     <row r="1784" spans="1:2">
@@ -39814,10 +39818,10 @@
     </row>
     <row r="1786" spans="1:2">
       <c r="A1786" s="2">
-        <v>668227</v>
+        <v>650333</v>
       </c>
       <c r="B1786" s="1" t="s">
-        <v>233</v>
+        <v>158</v>
       </c>
     </row>
     <row r="1787" spans="1:2">
@@ -39838,10 +39842,10 @@
     </row>
     <row r="1789" spans="1:2">
       <c r="A1789" s="2">
-        <v>672356</v>
+        <v>668227</v>
       </c>
       <c r="B1789" s="1" t="s">
-        <v>113</v>
+        <v>233</v>
       </c>
     </row>
     <row r="1790" spans="1:2">
@@ -39862,10 +39866,10 @@
     </row>
     <row r="1792" spans="1:2">
       <c r="A1792" s="2">
-        <v>571448</v>
+        <v>672356</v>
       </c>
       <c r="B1792" s="1" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
     </row>
     <row r="1793" spans="1:2">
@@ -39886,10 +39890,10 @@
     </row>
     <row r="1795" spans="1:2">
       <c r="A1795" s="2">
-        <v>606115</v>
+        <v>571448</v>
       </c>
       <c r="B1795" s="1" t="s">
-        <v>147</v>
+        <v>128</v>
       </c>
     </row>
     <row r="1796" spans="1:2">
@@ -39910,10 +39914,10 @@
     </row>
     <row r="1798" spans="1:2">
       <c r="A1798" s="2">
-        <v>660620</v>
+        <v>606115</v>
       </c>
       <c r="B1798" s="1" t="s">
-        <v>736</v>
+        <v>147</v>
       </c>
     </row>
     <row r="1799" spans="1:2">
@@ -39926,10 +39930,10 @@
     </row>
     <row r="1800" spans="1:2">
       <c r="A1800" s="2">
-        <v>666018</v>
+        <v>660620</v>
       </c>
       <c r="B1800" s="1" t="s">
-        <v>60</v>
+        <v>736</v>
       </c>
     </row>
     <row r="1801" spans="1:2">
@@ -39950,18 +39954,18 @@
     </row>
     <row r="1803" spans="1:2">
       <c r="A1803" s="2">
-        <v>606157</v>
+        <v>666018</v>
       </c>
       <c r="B1803" s="1" t="s">
-        <v>653</v>
+        <v>60</v>
       </c>
     </row>
     <row r="1804" spans="1:2">
       <c r="A1804" s="2">
-        <v>609280</v>
+        <v>606157</v>
       </c>
       <c r="B1804" s="1" t="s">
-        <v>107</v>
+        <v>653</v>
       </c>
     </row>
     <row r="1805" spans="1:2">
@@ -39982,10 +39986,10 @@
     </row>
     <row r="1807" spans="1:2">
       <c r="A1807" s="2">
-        <v>462101</v>
+        <v>609280</v>
       </c>
       <c r="B1807" s="1" t="s">
-        <v>567</v>
+        <v>107</v>
       </c>
     </row>
     <row r="1808" spans="1:2">
@@ -39998,10 +40002,10 @@
     </row>
     <row r="1809" spans="1:2">
       <c r="A1809" s="2">
-        <v>641313</v>
+        <v>462101</v>
       </c>
       <c r="B1809" s="1" t="s">
-        <v>143</v>
+        <v>567</v>
       </c>
     </row>
     <row r="1810" spans="1:2">
@@ -40022,10 +40026,10 @@
     </row>
     <row r="1812" spans="1:2">
       <c r="A1812" s="2">
-        <v>605119</v>
+        <v>641313</v>
       </c>
       <c r="B1812" s="1" t="s">
-        <v>644</v>
+        <v>143</v>
       </c>
     </row>
     <row r="1813" spans="1:2">
@@ -40038,10 +40042,10 @@
     </row>
     <row r="1814" spans="1:2">
       <c r="A1814" s="2">
-        <v>665804</v>
+        <v>605119</v>
       </c>
       <c r="B1814" s="1" t="s">
-        <v>239</v>
+        <v>644</v>
       </c>
     </row>
     <row r="1815" spans="1:2">
@@ -40054,26 +40058,26 @@
     </row>
     <row r="1816" spans="1:2">
       <c r="A1816" s="2">
-        <v>676070</v>
+        <v>665804</v>
       </c>
       <c r="B1816" s="1" t="s">
-        <v>849</v>
+        <v>239</v>
       </c>
     </row>
     <row r="1817" spans="1:2">
       <c r="A1817" s="2">
-        <v>691182</v>
+        <v>676070</v>
       </c>
       <c r="B1817" s="1" t="s">
-        <v>535</v>
+        <v>849</v>
       </c>
     </row>
     <row r="1818" spans="1:2">
       <c r="A1818" s="2">
-        <v>670541</v>
+        <v>691182</v>
       </c>
       <c r="B1818" s="1" t="s">
-        <v>379</v>
+        <v>535</v>
       </c>
     </row>
     <row r="1819" spans="1:2">
@@ -40094,10 +40098,10 @@
     </row>
     <row r="1821" spans="1:2">
       <c r="A1821" s="2">
-        <v>682626</v>
+        <v>670541</v>
       </c>
       <c r="B1821" s="1" t="s">
-        <v>253</v>
+        <v>379</v>
       </c>
     </row>
     <row r="1822" spans="1:2">
@@ -40118,10 +40122,10 @@
     </row>
     <row r="1824" spans="1:2">
       <c r="A1824" s="2">
-        <v>657193</v>
+        <v>682626</v>
       </c>
       <c r="B1824" s="1" t="s">
-        <v>733</v>
+        <v>253</v>
       </c>
     </row>
     <row r="1825" spans="1:2">
@@ -40134,34 +40138,34 @@
     </row>
     <row r="1826" spans="1:2">
       <c r="A1826" s="2">
-        <v>669137</v>
+        <v>657193</v>
       </c>
       <c r="B1826" s="1" t="s">
-        <v>520</v>
+        <v>733</v>
       </c>
     </row>
     <row r="1827" spans="1:2">
       <c r="A1827" s="2">
-        <v>805373</v>
+        <v>669137</v>
       </c>
       <c r="B1827" s="1" t="s">
-        <v>505</v>
+        <v>520</v>
       </c>
     </row>
     <row r="1828" spans="1:2">
       <c r="A1828" s="2">
-        <v>666906</v>
+        <v>805373</v>
       </c>
       <c r="B1828" s="1" t="s">
-        <v>814</v>
+        <v>505</v>
       </c>
     </row>
     <row r="1829" spans="1:2">
       <c r="A1829" s="2">
-        <v>514888</v>
+        <v>666906</v>
       </c>
       <c r="B1829" s="1" t="s">
-        <v>320</v>
+        <v>814</v>
       </c>
     </row>
     <row r="1830" spans="1:2">
@@ -40182,10 +40186,10 @@
     </row>
     <row r="1832" spans="1:2">
       <c r="A1832" s="2">
-        <v>624413</v>
+        <v>514888</v>
       </c>
       <c r="B1832" s="1" t="s">
-        <v>32</v>
+        <v>320</v>
       </c>
     </row>
     <row r="1833" spans="1:2">
@@ -40206,18 +40210,18 @@
     </row>
     <row r="1835" spans="1:2">
       <c r="A1835" s="2">
-        <v>546991</v>
+        <v>624413</v>
       </c>
       <c r="B1835" s="1" t="s">
-        <v>603</v>
+        <v>32</v>
       </c>
     </row>
     <row r="1836" spans="1:2">
       <c r="A1836" s="2">
-        <v>501659</v>
+        <v>546991</v>
       </c>
       <c r="B1836" s="1" t="s">
-        <v>575</v>
+        <v>603</v>
       </c>
     </row>
     <row r="1837" spans="1:2">
@@ -40230,10 +40234,10 @@
     </row>
     <row r="1838" spans="1:2">
       <c r="A1838" s="2">
-        <v>669397</v>
+        <v>501659</v>
       </c>
       <c r="B1838" s="1" t="s">
-        <v>222</v>
+        <v>575</v>
       </c>
     </row>
     <row r="1839" spans="1:2">
@@ -40254,10 +40258,10 @@
     </row>
     <row r="1841" spans="1:2">
       <c r="A1841" s="2">
-        <v>656185</v>
+        <v>669397</v>
       </c>
       <c r="B1841" s="1" t="s">
-        <v>720</v>
+        <v>222</v>
       </c>
     </row>
     <row r="1842" spans="1:2">
@@ -40270,18 +40274,18 @@
     </row>
     <row r="1843" spans="1:2">
       <c r="A1843" s="2">
-        <v>664119</v>
+        <v>656185</v>
       </c>
       <c r="B1843" s="1" t="s">
-        <v>748</v>
+        <v>720</v>
       </c>
     </row>
     <row r="1844" spans="1:2">
       <c r="A1844" s="2">
-        <v>595751</v>
+        <v>664119</v>
       </c>
       <c r="B1844" s="1" t="s">
-        <v>634</v>
+        <v>748</v>
       </c>
     </row>
     <row r="1845" spans="1:2">
@@ -40294,34 +40298,34 @@
     </row>
     <row r="1846" spans="1:2">
       <c r="A1846" s="2">
-        <v>677942</v>
+        <v>595751</v>
       </c>
       <c r="B1846" s="1" t="s">
-        <v>473</v>
+        <v>634</v>
       </c>
     </row>
     <row r="1847" spans="1:2">
       <c r="A1847" s="2">
-        <v>642727</v>
+        <v>677942</v>
       </c>
       <c r="B1847" s="1" t="s">
-        <v>712</v>
+        <v>473</v>
       </c>
     </row>
     <row r="1848" spans="1:2">
       <c r="A1848" s="2">
-        <v>682634</v>
+        <v>642727</v>
       </c>
       <c r="B1848" s="1" t="s">
-        <v>857</v>
+        <v>712</v>
       </c>
     </row>
     <row r="1849" spans="1:2">
       <c r="A1849" s="2">
-        <v>645277</v>
+        <v>682634</v>
       </c>
       <c r="B1849" s="1" t="s">
-        <v>117</v>
+        <v>857</v>
       </c>
     </row>
     <row r="1850" spans="1:2">
@@ -40342,10 +40346,10 @@
     </row>
     <row r="1852" spans="1:2">
       <c r="A1852" s="2">
-        <v>593643</v>
+        <v>645277</v>
       </c>
       <c r="B1852" s="1" t="s">
-        <v>629</v>
+        <v>117</v>
       </c>
     </row>
     <row r="1853" spans="1:2">
@@ -40358,10 +40362,10 @@
     </row>
     <row r="1854" spans="1:2">
       <c r="A1854" s="2">
-        <v>605113</v>
+        <v>593643</v>
       </c>
       <c r="B1854" s="1" t="s">
-        <v>367</v>
+        <v>629</v>
       </c>
     </row>
     <row r="1855" spans="1:2">
@@ -40382,18 +40386,18 @@
     </row>
     <row r="1857" spans="1:2">
       <c r="A1857" s="2">
-        <v>666922</v>
+        <v>605113</v>
       </c>
       <c r="B1857" s="1" t="s">
-        <v>764</v>
+        <v>367</v>
       </c>
     </row>
     <row r="1858" spans="1:2">
       <c r="A1858" s="2">
-        <v>542583</v>
+        <v>666922</v>
       </c>
       <c r="B1858" s="1" t="s">
-        <v>587</v>
+        <v>764</v>
       </c>
     </row>
     <row r="1859" spans="1:2">
@@ -40406,10 +40410,10 @@
     </row>
     <row r="1860" spans="1:2">
       <c r="A1860" s="2">
-        <v>501303</v>
+        <v>542583</v>
       </c>
       <c r="B1860" s="1" t="s">
-        <v>381</v>
+        <v>587</v>
       </c>
     </row>
     <row r="1861" spans="1:2">
@@ -40430,10 +40434,10 @@
     </row>
     <row r="1863" spans="1:2">
       <c r="A1863" s="2">
-        <v>666176</v>
+        <v>501303</v>
       </c>
       <c r="B1863" s="1" t="s">
-        <v>414</v>
+        <v>381</v>
       </c>
     </row>
     <row r="1864" spans="1:2">
@@ -40454,10 +40458,10 @@
     </row>
     <row r="1866" spans="1:2">
       <c r="A1866" s="2">
-        <v>656180</v>
+        <v>666176</v>
       </c>
       <c r="B1866" s="1" t="s">
-        <v>363</v>
+        <v>414</v>
       </c>
     </row>
     <row r="1867" spans="1:2">
@@ -40478,10 +40482,10 @@
     </row>
     <row r="1869" spans="1:2">
       <c r="A1869" s="2">
-        <v>677941</v>
+        <v>656180</v>
       </c>
       <c r="B1869" s="1" t="s">
-        <v>822</v>
+        <v>363</v>
       </c>
     </row>
     <row r="1870" spans="1:2">
@@ -40494,10 +40498,10 @@
     </row>
     <row r="1871" spans="1:2">
       <c r="A1871" s="2">
-        <v>642715</v>
+        <v>677941</v>
       </c>
       <c r="B1871" s="1" t="s">
-        <v>110</v>
+        <v>822</v>
       </c>
     </row>
     <row r="1872" spans="1:2">
@@ -40518,18 +40522,18 @@
     </row>
     <row r="1874" spans="1:2">
       <c r="A1874" s="2">
-        <v>682668</v>
+        <v>642715</v>
       </c>
       <c r="B1874" s="1" t="s">
-        <v>858</v>
+        <v>110</v>
       </c>
     </row>
     <row r="1875" spans="1:2">
       <c r="A1875" s="2">
-        <v>660670</v>
+        <v>682668</v>
       </c>
       <c r="B1875" s="1" t="s">
-        <v>455</v>
+        <v>858</v>
       </c>
     </row>
     <row r="1876" spans="1:2">
@@ -40550,10 +40554,10 @@
     </row>
     <row r="1878" spans="1:2">
       <c r="A1878" s="2">
-        <v>677800</v>
+        <v>660670</v>
       </c>
       <c r="B1878" s="1" t="s">
-        <v>434</v>
+        <v>455</v>
       </c>
     </row>
     <row r="1879" spans="1:2">
@@ -40566,10 +40570,10 @@
     </row>
     <row r="1880" spans="1:2">
       <c r="A1880" s="2">
-        <v>547989</v>
+        <v>677800</v>
       </c>
       <c r="B1880" s="1" t="s">
-        <v>481</v>
+        <v>434</v>
       </c>
     </row>
     <row r="1881" spans="1:2">
@@ -40590,10 +40594,10 @@
     </row>
     <row r="1883" spans="1:2">
       <c r="A1883" s="2">
-        <v>682928</v>
+        <v>547989</v>
       </c>
       <c r="B1883" s="1" t="s">
-        <v>54</v>
+        <v>481</v>
       </c>
     </row>
     <row r="1884" spans="1:2">
@@ -40609,6 +40613,14 @@
         <v>682928</v>
       </c>
       <c r="B1885" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="1886" spans="1:2">
+      <c r="A1886" s="2">
+        <v>682928</v>
+      </c>
+      <c r="B1886" s="1" t="s">
         <v>54</v>
       </c>
     </row>

--- a/Batter_ID(2025).xlsx
+++ b/Batter_ID(2025).xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kyengwook/Documents/Baseball/PB/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32E37A51-6DF9-C04A-BB47-7745F02925FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1AED01B-F7B3-254C-8DC4-7CD14C1CA139}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5820" yWindow="3020" windowWidth="33600" windowHeight="19360" activeTab="1" xr2:uid="{AE3D3477-F45C-5047-804C-5B3139EFD268}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19360" xr2:uid="{AE3D3477-F45C-5047-804C-5B3139EFD268}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$B$879</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$B$880</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4211" uniqueCount="910">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4212" uniqueCount="910">
   <si>
     <t>Vogelbach, Daniel</t>
   </si>
@@ -3155,10 +3155,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E47EA9C6-684B-904B-B57A-1918EC706D79}">
-  <dimension ref="A1:F2323"/>
+  <dimension ref="A1:F2324"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="A424" workbookViewId="0">
+      <selection activeCell="A448" sqref="A448:XFD448"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -7633,20 +7633,18 @@
     </row>
     <row r="448" spans="1:6">
       <c r="A448" s="2">
-        <v>676391</v>
+        <v>808975</v>
       </c>
       <c r="B448" s="1" t="s">
-        <v>428</v>
-      </c>
-      <c r="E448" s="1"/>
-      <c r="F448" s="2"/>
+        <v>909</v>
+      </c>
     </row>
     <row r="449" spans="1:6">
       <c r="A449" s="2">
-        <v>676369</v>
+        <v>676391</v>
       </c>
       <c r="B449" s="1" t="s">
-        <v>460</v>
+        <v>428</v>
       </c>
       <c r="E449" s="1"/>
       <c r="F449" s="2"/>
@@ -7673,10 +7671,10 @@
     </row>
     <row r="452" spans="1:6">
       <c r="A452" s="2">
-        <v>676356</v>
+        <v>676369</v>
       </c>
       <c r="B452" s="1" t="s">
-        <v>449</v>
+        <v>460</v>
       </c>
       <c r="E452" s="1"/>
       <c r="F452" s="2"/>
@@ -7703,10 +7701,10 @@
     </row>
     <row r="455" spans="1:6">
       <c r="A455" s="2">
-        <v>676116</v>
+        <v>676356</v>
       </c>
       <c r="B455" s="1" t="s">
-        <v>50</v>
+        <v>449</v>
       </c>
       <c r="E455" s="1"/>
       <c r="F455" s="2"/>
@@ -7723,20 +7721,20 @@
     </row>
     <row r="457" spans="1:6">
       <c r="A457" s="2">
-        <v>676113</v>
+        <v>676116</v>
       </c>
       <c r="B457" s="1" t="s">
-        <v>509</v>
+        <v>50</v>
       </c>
       <c r="E457" s="1"/>
       <c r="F457" s="2"/>
     </row>
     <row r="458" spans="1:6">
       <c r="A458" s="2">
-        <v>676070</v>
+        <v>676113</v>
       </c>
       <c r="B458" s="1" t="s">
-        <v>849</v>
+        <v>509</v>
       </c>
       <c r="E458" s="1"/>
       <c r="F458" s="2"/>
@@ -7753,10 +7751,10 @@
     </row>
     <row r="460" spans="1:6">
       <c r="A460" s="2">
-        <v>676059</v>
+        <v>676070</v>
       </c>
       <c r="B460" s="1" t="s">
-        <v>63</v>
+        <v>849</v>
       </c>
       <c r="E460" s="1"/>
       <c r="F460" s="2"/>
@@ -7783,20 +7781,20 @@
     </row>
     <row r="463" spans="1:6">
       <c r="A463" s="2">
-        <v>675986</v>
+        <v>676059</v>
       </c>
       <c r="B463" s="1" t="s">
-        <v>817</v>
+        <v>63</v>
       </c>
       <c r="E463" s="1"/>
       <c r="F463" s="2"/>
     </row>
     <row r="464" spans="1:6">
       <c r="A464" s="2">
-        <v>675961</v>
+        <v>675986</v>
       </c>
       <c r="B464" s="1" t="s">
-        <v>271</v>
+        <v>817</v>
       </c>
       <c r="E464" s="1"/>
       <c r="F464" s="2"/>
@@ -7813,10 +7811,10 @@
     </row>
     <row r="466" spans="1:6">
       <c r="A466" s="2">
-        <v>675656</v>
+        <v>675961</v>
       </c>
       <c r="B466" s="1" t="s">
-        <v>786</v>
+        <v>271</v>
       </c>
       <c r="E466" s="1"/>
       <c r="F466" s="2"/>
@@ -7833,10 +7831,10 @@
     </row>
     <row r="468" spans="1:6">
       <c r="A468" s="2">
-        <v>674441</v>
+        <v>675656</v>
       </c>
       <c r="B468" s="1" t="s">
-        <v>544</v>
+        <v>786</v>
       </c>
       <c r="E468" s="1"/>
       <c r="F468" s="2"/>
@@ -7853,20 +7851,20 @@
     </row>
     <row r="470" spans="1:6">
       <c r="A470" s="2">
-        <v>673995</v>
+        <v>674441</v>
       </c>
       <c r="B470" s="1" t="s">
-        <v>537</v>
+        <v>544</v>
       </c>
       <c r="E470" s="1"/>
       <c r="F470" s="2"/>
     </row>
     <row r="471" spans="1:6">
       <c r="A471" s="2">
-        <v>673962</v>
+        <v>673995</v>
       </c>
       <c r="B471" s="1" t="s">
-        <v>75</v>
+        <v>537</v>
       </c>
       <c r="E471" s="1"/>
       <c r="F471" s="2"/>
@@ -7903,10 +7901,10 @@
     </row>
     <row r="475" spans="1:6">
       <c r="A475" s="2">
-        <v>673548</v>
+        <v>673962</v>
       </c>
       <c r="B475" s="1" t="s">
-        <v>129</v>
+        <v>75</v>
       </c>
       <c r="E475" s="1"/>
       <c r="F475" s="2"/>
@@ -7943,10 +7941,10 @@
     </row>
     <row r="479" spans="1:6">
       <c r="A479" s="2">
-        <v>673490</v>
+        <v>673548</v>
       </c>
       <c r="B479" s="1" t="s">
-        <v>289</v>
+        <v>129</v>
       </c>
       <c r="E479" s="1"/>
       <c r="F479" s="2"/>
@@ -7973,10 +7971,10 @@
     </row>
     <row r="482" spans="1:6">
       <c r="A482" s="2">
-        <v>673357</v>
+        <v>673490</v>
       </c>
       <c r="B482" s="1" t="s">
-        <v>192</v>
+        <v>289</v>
       </c>
       <c r="E482" s="1"/>
       <c r="F482" s="2"/>
@@ -8013,10 +8011,10 @@
     </row>
     <row r="486" spans="1:6">
       <c r="A486" s="2">
-        <v>673237</v>
+        <v>673357</v>
       </c>
       <c r="B486" s="1" t="s">
-        <v>3</v>
+        <v>192</v>
       </c>
       <c r="E486" s="1"/>
       <c r="F486" s="2"/>
@@ -8043,20 +8041,20 @@
     </row>
     <row r="489" spans="1:6">
       <c r="A489" s="2">
-        <v>672832</v>
+        <v>673237</v>
       </c>
       <c r="B489" s="1" t="s">
-        <v>785</v>
+        <v>3</v>
       </c>
       <c r="E489" s="1"/>
       <c r="F489" s="2"/>
     </row>
     <row r="490" spans="1:6">
       <c r="A490" s="2">
-        <v>672820</v>
+        <v>672832</v>
       </c>
       <c r="B490" s="1" t="s">
-        <v>72</v>
+        <v>785</v>
       </c>
       <c r="E490" s="1"/>
       <c r="F490" s="2"/>
@@ -8093,10 +8091,10 @@
     </row>
     <row r="494" spans="1:6">
       <c r="A494" s="2">
-        <v>672779</v>
+        <v>672820</v>
       </c>
       <c r="B494" s="1" t="s">
-        <v>784</v>
+        <v>72</v>
       </c>
       <c r="E494" s="1"/>
       <c r="F494" s="2"/>
@@ -8113,20 +8111,20 @@
     </row>
     <row r="496" spans="1:6">
       <c r="A496" s="2">
-        <v>672761</v>
+        <v>672779</v>
       </c>
       <c r="B496" s="1" t="s">
-        <v>463</v>
+        <v>784</v>
       </c>
       <c r="E496" s="1"/>
       <c r="F496" s="2"/>
     </row>
     <row r="497" spans="1:6">
       <c r="A497" s="2">
-        <v>672744</v>
+        <v>672761</v>
       </c>
       <c r="B497" s="1" t="s">
-        <v>386</v>
+        <v>463</v>
       </c>
       <c r="E497" s="1"/>
       <c r="F497" s="2"/>
@@ -8153,10 +8151,10 @@
     </row>
     <row r="500" spans="1:6">
       <c r="A500" s="2">
-        <v>672724</v>
+        <v>672744</v>
       </c>
       <c r="B500" s="1" t="s">
-        <v>783</v>
+        <v>386</v>
       </c>
       <c r="E500" s="1"/>
       <c r="F500" s="2"/>
@@ -8193,10 +8191,10 @@
     </row>
     <row r="504" spans="1:6">
       <c r="A504" s="2">
-        <v>672695</v>
+        <v>672724</v>
       </c>
       <c r="B504" s="1" t="s">
-        <v>170</v>
+        <v>783</v>
       </c>
       <c r="E504" s="1"/>
       <c r="F504" s="2"/>
@@ -8233,20 +8231,20 @@
     </row>
     <row r="508" spans="1:6">
       <c r="A508" s="2">
-        <v>672642</v>
+        <v>672695</v>
       </c>
       <c r="B508" s="1" t="s">
-        <v>553</v>
+        <v>170</v>
       </c>
       <c r="E508" s="1"/>
       <c r="F508" s="2"/>
     </row>
     <row r="509" spans="1:6">
       <c r="A509" s="2">
-        <v>672640</v>
+        <v>672642</v>
       </c>
       <c r="B509" s="1" t="s">
-        <v>495</v>
+        <v>553</v>
       </c>
       <c r="E509" s="1"/>
       <c r="F509" s="2"/>
@@ -8273,10 +8271,10 @@
     </row>
     <row r="512" spans="1:6">
       <c r="A512" s="2">
-        <v>672580</v>
+        <v>672640</v>
       </c>
       <c r="B512" s="1" t="s">
-        <v>322</v>
+        <v>495</v>
       </c>
       <c r="E512" s="1"/>
       <c r="F512" s="2"/>
@@ -8313,20 +8311,20 @@
     </row>
     <row r="516" spans="1:6">
       <c r="A516" s="2">
-        <v>672569</v>
+        <v>672580</v>
       </c>
       <c r="B516" s="1" t="s">
-        <v>848</v>
+        <v>322</v>
       </c>
       <c r="E516" s="1"/>
       <c r="F516" s="2"/>
     </row>
     <row r="517" spans="1:6">
       <c r="A517" s="2">
-        <v>672515</v>
+        <v>672569</v>
       </c>
       <c r="B517" s="1" t="s">
-        <v>55</v>
+        <v>848</v>
       </c>
       <c r="E517" s="1"/>
       <c r="F517" s="2"/>
@@ -8363,10 +8361,10 @@
     </row>
     <row r="521" spans="1:6">
       <c r="A521" s="2">
-        <v>672478</v>
+        <v>672515</v>
       </c>
       <c r="B521" s="1" t="s">
-        <v>782</v>
+        <v>55</v>
       </c>
       <c r="E521" s="1"/>
       <c r="F521" s="2"/>
@@ -8383,10 +8381,10 @@
     </row>
     <row r="523" spans="1:6">
       <c r="A523" s="2">
-        <v>672386</v>
+        <v>672478</v>
       </c>
       <c r="B523" s="1" t="s">
-        <v>188</v>
+        <v>782</v>
       </c>
       <c r="E523" s="1"/>
       <c r="F523" s="2"/>
@@ -8423,20 +8421,20 @@
     </row>
     <row r="527" spans="1:6">
       <c r="A527" s="2">
-        <v>672359</v>
+        <v>672386</v>
       </c>
       <c r="B527" s="1" t="s">
-        <v>908</v>
+        <v>188</v>
       </c>
       <c r="E527" s="1"/>
       <c r="F527" s="2"/>
     </row>
     <row r="528" spans="1:6">
       <c r="A528" s="2">
-        <v>672356</v>
+        <v>672359</v>
       </c>
       <c r="B528" s="1" t="s">
-        <v>113</v>
+        <v>908</v>
       </c>
       <c r="E528" s="1"/>
       <c r="F528" s="2"/>
@@ -8473,10 +8471,10 @@
     </row>
     <row r="532" spans="1:6">
       <c r="A532" s="2">
-        <v>672284</v>
+        <v>672356</v>
       </c>
       <c r="B532" s="1" t="s">
-        <v>197</v>
+        <v>113</v>
       </c>
       <c r="E532" s="1"/>
       <c r="F532" s="2"/>
@@ -8513,10 +8511,10 @@
     </row>
     <row r="536" spans="1:6">
       <c r="A536" s="2">
-        <v>672279</v>
+        <v>672284</v>
       </c>
       <c r="B536" s="1" t="s">
-        <v>444</v>
+        <v>197</v>
       </c>
       <c r="E536" s="1"/>
       <c r="F536" s="2"/>
@@ -8543,10 +8541,10 @@
     </row>
     <row r="539" spans="1:6">
       <c r="A539" s="2">
-        <v>672275</v>
+        <v>672279</v>
       </c>
       <c r="B539" s="1" t="s">
-        <v>168</v>
+        <v>444</v>
       </c>
       <c r="E539" s="1"/>
       <c r="F539" s="2"/>
@@ -8573,20 +8571,20 @@
     </row>
     <row r="542" spans="1:6">
       <c r="A542" s="2">
-        <v>672012</v>
+        <v>672275</v>
       </c>
       <c r="B542" s="1" t="s">
-        <v>522</v>
+        <v>168</v>
       </c>
       <c r="E542" s="1"/>
       <c r="F542" s="2"/>
     </row>
     <row r="543" spans="1:6">
       <c r="A543" s="2">
-        <v>671739</v>
+        <v>672012</v>
       </c>
       <c r="B543" s="1" t="s">
-        <v>154</v>
+        <v>522</v>
       </c>
       <c r="E543" s="1"/>
       <c r="F543" s="2"/>
@@ -8623,10 +8621,10 @@
     </row>
     <row r="547" spans="1:6">
       <c r="A547" s="2">
-        <v>671732</v>
+        <v>671739</v>
       </c>
       <c r="B547" s="1" t="s">
-        <v>327</v>
+        <v>154</v>
       </c>
       <c r="E547" s="1"/>
       <c r="F547" s="2"/>
@@ -8653,10 +8651,10 @@
     </row>
     <row r="550" spans="1:6">
       <c r="A550" s="2">
-        <v>671289</v>
+        <v>671732</v>
       </c>
       <c r="B550" s="1" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="E550" s="1"/>
       <c r="F550" s="2"/>
@@ -8693,20 +8691,20 @@
     </row>
     <row r="554" spans="1:6">
       <c r="A554" s="2">
-        <v>671286</v>
+        <v>671289</v>
       </c>
       <c r="B554" s="1" t="s">
-        <v>893</v>
+        <v>335</v>
       </c>
       <c r="E554" s="1"/>
       <c r="F554" s="2"/>
     </row>
     <row r="555" spans="1:6">
       <c r="A555" s="2">
-        <v>671277</v>
+        <v>671286</v>
       </c>
       <c r="B555" s="1" t="s">
-        <v>445</v>
+        <v>893</v>
       </c>
       <c r="E555" s="1"/>
       <c r="F555" s="2"/>
@@ -8743,10 +8741,10 @@
     </row>
     <row r="559" spans="1:6">
       <c r="A559" s="2">
-        <v>671221</v>
+        <v>671277</v>
       </c>
       <c r="B559" s="1" t="s">
-        <v>204</v>
+        <v>445</v>
       </c>
       <c r="E559" s="1"/>
       <c r="F559" s="2"/>
@@ -8783,10 +8781,10 @@
     </row>
     <row r="563" spans="1:6">
       <c r="A563" s="2">
-        <v>671218</v>
+        <v>671221</v>
       </c>
       <c r="B563" s="1" t="s">
-        <v>416</v>
+        <v>204</v>
       </c>
       <c r="E563" s="1"/>
       <c r="F563" s="2"/>
@@ -8823,10 +8821,10 @@
     </row>
     <row r="567" spans="1:6">
       <c r="A567" s="2">
-        <v>671213</v>
+        <v>671218</v>
       </c>
       <c r="B567" s="1" t="s">
-        <v>9</v>
+        <v>416</v>
       </c>
       <c r="E567" s="1"/>
       <c r="F567" s="2"/>
@@ -8863,20 +8861,20 @@
     </row>
     <row r="571" spans="1:6">
       <c r="A571" s="2">
-        <v>671117</v>
+        <v>671213</v>
       </c>
       <c r="B571" s="1" t="s">
-        <v>847</v>
+        <v>9</v>
       </c>
       <c r="E571" s="1"/>
       <c r="F571" s="2"/>
     </row>
     <row r="572" spans="1:6">
       <c r="A572" s="2">
-        <v>671083</v>
+        <v>671117</v>
       </c>
       <c r="B572" s="1" t="s">
-        <v>395</v>
+        <v>847</v>
       </c>
       <c r="E572" s="1"/>
       <c r="F572" s="2"/>
@@ -8903,10 +8901,10 @@
     </row>
     <row r="575" spans="1:6">
       <c r="A575" s="2">
-        <v>671056</v>
+        <v>671083</v>
       </c>
       <c r="B575" s="1" t="s">
-        <v>441</v>
+        <v>395</v>
       </c>
       <c r="E575" s="1"/>
       <c r="F575" s="2"/>
@@ -8943,10 +8941,10 @@
     </row>
     <row r="579" spans="1:6">
       <c r="A579" s="2">
-        <v>670869</v>
+        <v>671056</v>
       </c>
       <c r="B579" s="1" t="s">
-        <v>781</v>
+        <v>441</v>
       </c>
       <c r="E579" s="1"/>
       <c r="F579" s="2"/>
@@ -8973,10 +8971,10 @@
     </row>
     <row r="582" spans="1:6">
       <c r="A582" s="2">
-        <v>670770</v>
+        <v>670869</v>
       </c>
       <c r="B582" s="1" t="s">
-        <v>243</v>
+        <v>781</v>
       </c>
       <c r="E582" s="1"/>
       <c r="F582" s="2"/>
@@ -9013,20 +9011,20 @@
     </row>
     <row r="586" spans="1:6">
       <c r="A586" s="2">
-        <v>670768</v>
+        <v>670770</v>
       </c>
       <c r="B586" s="1" t="s">
-        <v>780</v>
+        <v>243</v>
       </c>
       <c r="E586" s="1"/>
       <c r="F586" s="2"/>
     </row>
     <row r="587" spans="1:6">
       <c r="A587" s="2">
-        <v>670764</v>
+        <v>670768</v>
       </c>
       <c r="B587" s="1" t="s">
-        <v>302</v>
+        <v>780</v>
       </c>
       <c r="E587" s="1"/>
       <c r="F587" s="2"/>
@@ -9063,10 +9061,10 @@
     </row>
     <row r="591" spans="1:6">
       <c r="A591" s="2">
-        <v>670712</v>
+        <v>670764</v>
       </c>
       <c r="B591" s="1" t="s">
-        <v>779</v>
+        <v>302</v>
       </c>
       <c r="E591" s="1"/>
       <c r="F591" s="2"/>
@@ -9083,10 +9081,10 @@
     </row>
     <row r="593" spans="1:6">
       <c r="A593" s="2">
-        <v>670623</v>
+        <v>670712</v>
       </c>
       <c r="B593" s="1" t="s">
-        <v>209</v>
+        <v>779</v>
       </c>
       <c r="E593" s="1"/>
       <c r="F593" s="2"/>
@@ -9123,10 +9121,10 @@
     </row>
     <row r="597" spans="1:6">
       <c r="A597" s="2">
-        <v>670541</v>
+        <v>670623</v>
       </c>
       <c r="B597" s="1" t="s">
-        <v>379</v>
+        <v>209</v>
       </c>
       <c r="E597" s="1"/>
       <c r="F597" s="2"/>
@@ -9163,20 +9161,20 @@
     </row>
     <row r="601" spans="1:6">
       <c r="A601" s="2">
-        <v>670351</v>
+        <v>670541</v>
       </c>
       <c r="B601" s="1" t="s">
-        <v>778</v>
+        <v>379</v>
       </c>
       <c r="E601" s="1"/>
       <c r="F601" s="2"/>
     </row>
     <row r="602" spans="1:6">
       <c r="A602" s="2">
-        <v>670276</v>
+        <v>670351</v>
       </c>
       <c r="B602" s="1" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="E602" s="1"/>
       <c r="F602" s="2"/>
@@ -9203,10 +9201,10 @@
     </row>
     <row r="605" spans="1:6">
       <c r="A605" s="2">
-        <v>670242</v>
+        <v>670276</v>
       </c>
       <c r="B605" s="1" t="s">
-        <v>98</v>
+        <v>777</v>
       </c>
       <c r="E605" s="1"/>
       <c r="F605" s="2"/>
@@ -9243,10 +9241,10 @@
     </row>
     <row r="609" spans="1:6">
       <c r="A609" s="2">
-        <v>670224</v>
+        <v>670242</v>
       </c>
       <c r="B609" s="1" t="s">
-        <v>846</v>
+        <v>98</v>
       </c>
       <c r="E609" s="1"/>
       <c r="F609" s="2"/>
@@ -9263,10 +9261,10 @@
     </row>
     <row r="611" spans="1:6">
       <c r="A611" s="2">
-        <v>670223</v>
+        <v>670224</v>
       </c>
       <c r="B611" s="1" t="s">
-        <v>148</v>
+        <v>846</v>
       </c>
       <c r="E611" s="1"/>
       <c r="F611" s="2"/>
@@ -9293,10 +9291,10 @@
     </row>
     <row r="614" spans="1:6">
       <c r="A614" s="2">
-        <v>670156</v>
+        <v>670223</v>
       </c>
       <c r="B614" s="1" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="E614" s="1"/>
       <c r="F614" s="2"/>
@@ -9333,20 +9331,20 @@
     </row>
     <row r="618" spans="1:6">
       <c r="A618" s="2">
-        <v>670128</v>
+        <v>670156</v>
       </c>
       <c r="B618" s="1" t="s">
-        <v>816</v>
+        <v>145</v>
       </c>
       <c r="E618" s="1"/>
       <c r="F618" s="2"/>
     </row>
     <row r="619" spans="1:6">
       <c r="A619" s="2">
-        <v>670097</v>
+        <v>670128</v>
       </c>
       <c r="B619" s="1" t="s">
-        <v>362</v>
+        <v>816</v>
       </c>
       <c r="E619" s="1"/>
       <c r="F619" s="2"/>
@@ -9373,20 +9371,20 @@
     </row>
     <row r="622" spans="1:6">
       <c r="A622" s="2">
-        <v>670092</v>
+        <v>670097</v>
       </c>
       <c r="B622" s="1" t="s">
-        <v>518</v>
+        <v>362</v>
       </c>
       <c r="E622" s="1"/>
       <c r="F622" s="2"/>
     </row>
     <row r="623" spans="1:6">
       <c r="A623" s="2">
-        <v>670042</v>
+        <v>670092</v>
       </c>
       <c r="B623" s="1" t="s">
-        <v>175</v>
+        <v>518</v>
       </c>
       <c r="E623" s="1"/>
       <c r="F623" s="2"/>
@@ -9423,10 +9421,10 @@
     </row>
     <row r="627" spans="1:6">
       <c r="A627" s="2">
-        <v>670032</v>
+        <v>670042</v>
       </c>
       <c r="B627" s="1" t="s">
-        <v>214</v>
+        <v>175</v>
       </c>
       <c r="E627" s="1"/>
       <c r="F627" s="2"/>
@@ -9453,10 +9451,10 @@
     </row>
     <row r="630" spans="1:6">
       <c r="A630" s="2">
-        <v>669911</v>
+        <v>670032</v>
       </c>
       <c r="B630" s="1" t="s">
-        <v>274</v>
+        <v>214</v>
       </c>
       <c r="E630" s="1"/>
       <c r="F630" s="2"/>
@@ -9493,10 +9491,10 @@
     </row>
     <row r="634" spans="1:6">
       <c r="A634" s="2">
-        <v>669743</v>
+        <v>669911</v>
       </c>
       <c r="B634" s="1" t="s">
-        <v>339</v>
+        <v>274</v>
       </c>
       <c r="E634" s="1"/>
       <c r="F634" s="2"/>
@@ -9533,10 +9531,10 @@
     </row>
     <row r="638" spans="1:6">
       <c r="A638" s="2">
-        <v>669742</v>
+        <v>669743</v>
       </c>
       <c r="B638" s="1" t="s">
-        <v>776</v>
+        <v>339</v>
       </c>
       <c r="E638" s="1"/>
       <c r="F638" s="2"/>
@@ -9553,10 +9551,10 @@
     </row>
     <row r="640" spans="1:6">
       <c r="A640" s="2">
-        <v>669720</v>
+        <v>669742</v>
       </c>
       <c r="B640" s="1" t="s">
-        <v>59</v>
+        <v>776</v>
       </c>
       <c r="E640" s="1"/>
       <c r="F640" s="2"/>
@@ -9593,20 +9591,20 @@
     </row>
     <row r="644" spans="1:6">
       <c r="A644" s="2">
-        <v>669717</v>
+        <v>669720</v>
       </c>
       <c r="B644" s="1" t="s">
-        <v>879</v>
+        <v>59</v>
       </c>
       <c r="E644" s="1"/>
       <c r="F644" s="2"/>
     </row>
     <row r="645" spans="1:6">
       <c r="A645" s="2">
-        <v>669707</v>
+        <v>669717</v>
       </c>
       <c r="B645" s="1" t="s">
-        <v>195</v>
+        <v>879</v>
       </c>
       <c r="E645" s="1"/>
       <c r="F645" s="2"/>
@@ -9633,10 +9631,10 @@
     </row>
     <row r="648" spans="1:6">
       <c r="A648" s="2">
-        <v>669701</v>
+        <v>669707</v>
       </c>
       <c r="B648" s="1" t="s">
-        <v>465</v>
+        <v>195</v>
       </c>
       <c r="E648" s="1"/>
       <c r="F648" s="2"/>
@@ -9673,20 +9671,20 @@
     </row>
     <row r="652" spans="1:6">
       <c r="A652" s="2">
-        <v>669699</v>
+        <v>669701</v>
       </c>
       <c r="B652" s="1" t="s">
-        <v>488</v>
+        <v>465</v>
       </c>
       <c r="E652" s="1"/>
       <c r="F652" s="2"/>
     </row>
     <row r="653" spans="1:6">
       <c r="A653" s="2">
-        <v>669477</v>
+        <v>669699</v>
       </c>
       <c r="B653" s="1" t="s">
-        <v>314</v>
+        <v>488</v>
       </c>
       <c r="E653" s="1"/>
       <c r="F653" s="2"/>
@@ -9713,10 +9711,10 @@
     </row>
     <row r="656" spans="1:6">
       <c r="A656" s="2">
-        <v>669450</v>
+        <v>669477</v>
       </c>
       <c r="B656" s="1" t="s">
-        <v>775</v>
+        <v>314</v>
       </c>
       <c r="E656" s="1"/>
       <c r="F656" s="2"/>
@@ -9733,20 +9731,20 @@
     </row>
     <row r="658" spans="1:6">
       <c r="A658" s="2">
-        <v>669398</v>
+        <v>669450</v>
       </c>
       <c r="B658" s="1" t="s">
-        <v>888</v>
+        <v>775</v>
       </c>
       <c r="E658" s="1"/>
       <c r="F658" s="2"/>
     </row>
     <row r="659" spans="1:6">
       <c r="A659" s="2">
-        <v>669397</v>
+        <v>669398</v>
       </c>
       <c r="B659" s="1" t="s">
-        <v>222</v>
+        <v>888</v>
       </c>
       <c r="E659" s="1"/>
       <c r="F659" s="2"/>
@@ -9783,10 +9781,10 @@
     </row>
     <row r="663" spans="1:6">
       <c r="A663" s="2">
-        <v>669394</v>
+        <v>669397</v>
       </c>
       <c r="B663" s="1" t="s">
-        <v>194</v>
+        <v>222</v>
       </c>
       <c r="E663" s="1"/>
       <c r="F663" s="2"/>
@@ -9823,20 +9821,20 @@
     </row>
     <row r="667" spans="1:6">
       <c r="A667" s="2">
-        <v>669392</v>
+        <v>669394</v>
       </c>
       <c r="B667" s="1" t="s">
-        <v>815</v>
+        <v>194</v>
       </c>
       <c r="E667" s="1"/>
       <c r="F667" s="2"/>
     </row>
     <row r="668" spans="1:6">
       <c r="A668" s="2">
-        <v>669374</v>
+        <v>669392</v>
       </c>
       <c r="B668" s="1" t="s">
-        <v>514</v>
+        <v>815</v>
       </c>
       <c r="E668" s="1"/>
       <c r="F668" s="2"/>
@@ -9853,10 +9851,10 @@
     </row>
     <row r="670" spans="1:6">
       <c r="A670" s="2">
-        <v>669369</v>
+        <v>669374</v>
       </c>
       <c r="B670" s="1" t="s">
-        <v>413</v>
+        <v>514</v>
       </c>
       <c r="E670" s="1"/>
       <c r="F670" s="2"/>
@@ -9883,10 +9881,10 @@
     </row>
     <row r="673" spans="1:6">
       <c r="A673" s="2">
-        <v>669364</v>
+        <v>669369</v>
       </c>
       <c r="B673" s="1" t="s">
-        <v>288</v>
+        <v>413</v>
       </c>
       <c r="E673" s="1"/>
       <c r="F673" s="2"/>
@@ -9913,10 +9911,10 @@
     </row>
     <row r="676" spans="1:6">
       <c r="A676" s="2">
-        <v>669357</v>
+        <v>669364</v>
       </c>
       <c r="B676" s="1" t="s">
-        <v>202</v>
+        <v>288</v>
       </c>
       <c r="E676" s="1"/>
       <c r="F676" s="2"/>
@@ -9953,10 +9951,10 @@
     </row>
     <row r="680" spans="1:6">
       <c r="A680" s="2">
-        <v>669352</v>
+        <v>669357</v>
       </c>
       <c r="B680" s="1" t="s">
-        <v>419</v>
+        <v>202</v>
       </c>
       <c r="E680" s="1"/>
       <c r="F680" s="2"/>
@@ -9983,20 +9981,20 @@
     </row>
     <row r="683" spans="1:6">
       <c r="A683" s="2">
-        <v>669326</v>
+        <v>669352</v>
       </c>
       <c r="B683" s="1" t="s">
-        <v>845</v>
+        <v>419</v>
       </c>
       <c r="E683" s="1"/>
       <c r="F683" s="2"/>
     </row>
     <row r="684" spans="1:6">
       <c r="A684" s="2">
-        <v>669304</v>
+        <v>669326</v>
       </c>
       <c r="B684" s="1" t="s">
-        <v>326</v>
+        <v>845</v>
       </c>
       <c r="E684" s="1"/>
       <c r="F684" s="2"/>
@@ -10033,10 +10031,10 @@
     </row>
     <row r="688" spans="1:6">
       <c r="A688" s="2">
-        <v>669289</v>
+        <v>669304</v>
       </c>
       <c r="B688" s="1" t="s">
-        <v>272</v>
+        <v>326</v>
       </c>
       <c r="E688" s="1"/>
       <c r="F688" s="2"/>
@@ -10073,10 +10071,10 @@
     </row>
     <row r="692" spans="1:6">
       <c r="A692" s="2">
-        <v>669261</v>
+        <v>669289</v>
       </c>
       <c r="B692" s="1" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="E692" s="1"/>
       <c r="F692" s="2"/>
@@ -10113,10 +10111,10 @@
     </row>
     <row r="696" spans="1:6">
       <c r="A696" s="2">
-        <v>669257</v>
+        <v>669261</v>
       </c>
       <c r="B696" s="1" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="E696" s="1"/>
       <c r="F696" s="2"/>
@@ -10153,20 +10151,20 @@
     </row>
     <row r="700" spans="1:6">
       <c r="A700" s="2">
-        <v>669256</v>
+        <v>669257</v>
       </c>
       <c r="B700" s="1" t="s">
-        <v>774</v>
+        <v>293</v>
       </c>
       <c r="E700" s="1"/>
       <c r="F700" s="2"/>
     </row>
     <row r="701" spans="1:6">
       <c r="A701" s="2">
-        <v>669242</v>
+        <v>669256</v>
       </c>
       <c r="B701" s="1" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="E701" s="1"/>
       <c r="F701" s="2"/>
@@ -10203,10 +10201,10 @@
     </row>
     <row r="705" spans="1:6">
       <c r="A705" s="2">
-        <v>669234</v>
+        <v>669242</v>
       </c>
       <c r="B705" s="1" t="s">
-        <v>452</v>
+        <v>773</v>
       </c>
       <c r="E705" s="1"/>
       <c r="F705" s="2"/>
@@ -10223,10 +10221,10 @@
     </row>
     <row r="707" spans="1:6">
       <c r="A707" s="2">
-        <v>669224</v>
+        <v>669234</v>
       </c>
       <c r="B707" s="1" t="s">
-        <v>316</v>
+        <v>452</v>
       </c>
       <c r="E707" s="1"/>
       <c r="F707" s="2"/>
@@ -10253,10 +10251,10 @@
     </row>
     <row r="710" spans="1:6">
       <c r="A710" s="2">
-        <v>669222</v>
+        <v>669224</v>
       </c>
       <c r="B710" s="1" t="s">
-        <v>353</v>
+        <v>316</v>
       </c>
       <c r="E710" s="1"/>
       <c r="F710" s="2"/>
@@ -10283,10 +10281,10 @@
     </row>
     <row r="713" spans="1:6">
       <c r="A713" s="2">
-        <v>669221</v>
+        <v>669222</v>
       </c>
       <c r="B713" s="1" t="s">
-        <v>212</v>
+        <v>353</v>
       </c>
       <c r="E713" s="1"/>
       <c r="F713" s="2"/>
@@ -10323,10 +10321,10 @@
     </row>
     <row r="717" spans="1:6">
       <c r="A717" s="2">
-        <v>669208</v>
+        <v>669221</v>
       </c>
       <c r="B717" s="1" t="s">
-        <v>542</v>
+        <v>212</v>
       </c>
       <c r="E717" s="1"/>
       <c r="F717" s="2"/>
@@ -10343,30 +10341,30 @@
     </row>
     <row r="719" spans="1:6">
       <c r="A719" s="2">
-        <v>669200</v>
+        <v>669208</v>
       </c>
       <c r="B719" s="1" t="s">
-        <v>844</v>
+        <v>542</v>
       </c>
       <c r="E719" s="1"/>
       <c r="F719" s="2"/>
     </row>
     <row r="720" spans="1:6">
       <c r="A720" s="2">
-        <v>669137</v>
+        <v>669200</v>
       </c>
       <c r="B720" s="1" t="s">
-        <v>520</v>
+        <v>844</v>
       </c>
       <c r="E720" s="1"/>
       <c r="F720" s="2"/>
     </row>
     <row r="721" spans="1:6">
       <c r="A721" s="2">
-        <v>669134</v>
+        <v>669137</v>
       </c>
       <c r="B721" s="1" t="s">
-        <v>370</v>
+        <v>520</v>
       </c>
       <c r="E721" s="1"/>
       <c r="F721" s="2"/>
@@ -10393,10 +10391,10 @@
     </row>
     <row r="724" spans="1:6">
       <c r="A724" s="2">
-        <v>669127</v>
+        <v>669134</v>
       </c>
       <c r="B724" s="1" t="s">
-        <v>26</v>
+        <v>370</v>
       </c>
       <c r="E724" s="1"/>
       <c r="F724" s="2"/>
@@ -10433,10 +10431,10 @@
     </row>
     <row r="728" spans="1:6">
       <c r="A728" s="2">
-        <v>669087</v>
+        <v>669127</v>
       </c>
       <c r="B728" s="1" t="s">
-        <v>772</v>
+        <v>26</v>
       </c>
       <c r="E728" s="1"/>
       <c r="F728" s="2"/>
@@ -10463,10 +10461,10 @@
     </row>
     <row r="731" spans="1:6">
       <c r="A731" s="2">
-        <v>669065</v>
+        <v>669087</v>
       </c>
       <c r="B731" s="1" t="s">
-        <v>396</v>
+        <v>772</v>
       </c>
       <c r="E731" s="1"/>
       <c r="F731" s="2"/>
@@ -10503,20 +10501,20 @@
     </row>
     <row r="735" spans="1:6">
       <c r="A735" s="2">
-        <v>669023</v>
+        <v>669065</v>
       </c>
       <c r="B735" s="1" t="s">
-        <v>771</v>
+        <v>396</v>
       </c>
       <c r="E735" s="1"/>
       <c r="F735" s="2"/>
     </row>
     <row r="736" spans="1:6">
       <c r="A736" s="2">
-        <v>669016</v>
+        <v>669023</v>
       </c>
       <c r="B736" s="1" t="s">
-        <v>155</v>
+        <v>771</v>
       </c>
       <c r="E736" s="1"/>
       <c r="F736" s="2"/>
@@ -10553,10 +10551,10 @@
     </row>
     <row r="740" spans="1:6">
       <c r="A740" s="2">
-        <v>669004</v>
+        <v>669016</v>
       </c>
       <c r="B740" s="1" t="s">
-        <v>338</v>
+        <v>155</v>
       </c>
       <c r="E740" s="1"/>
       <c r="F740" s="2"/>
@@ -10593,10 +10591,10 @@
     </row>
     <row r="744" spans="1:6">
       <c r="A744" s="2">
-        <v>669003</v>
+        <v>669004</v>
       </c>
       <c r="B744" s="1" t="s">
-        <v>422</v>
+        <v>338</v>
       </c>
       <c r="E744" s="1"/>
       <c r="F744" s="2"/>
@@ -10633,10 +10631,10 @@
     </row>
     <row r="748" spans="1:6">
       <c r="A748" s="2">
-        <v>668952</v>
+        <v>669003</v>
       </c>
       <c r="B748" s="1" t="s">
-        <v>389</v>
+        <v>422</v>
       </c>
       <c r="E748" s="1"/>
       <c r="F748" s="2"/>
@@ -10673,10 +10671,10 @@
     </row>
     <row r="752" spans="1:6">
       <c r="A752" s="2">
-        <v>668942</v>
+        <v>668952</v>
       </c>
       <c r="B752" s="1" t="s">
-        <v>354</v>
+        <v>389</v>
       </c>
       <c r="E752" s="1"/>
       <c r="F752" s="2"/>
@@ -10703,10 +10701,10 @@
     </row>
     <row r="755" spans="1:6">
       <c r="A755" s="2">
-        <v>668939</v>
+        <v>668942</v>
       </c>
       <c r="B755" s="1" t="s">
-        <v>126</v>
+        <v>354</v>
       </c>
       <c r="E755" s="1"/>
       <c r="F755" s="2"/>
@@ -10743,10 +10741,10 @@
     </row>
     <row r="759" spans="1:6">
       <c r="A759" s="2">
-        <v>668930</v>
+        <v>668939</v>
       </c>
       <c r="B759" s="1" t="s">
-        <v>221</v>
+        <v>126</v>
       </c>
       <c r="E759" s="1"/>
       <c r="F759" s="2"/>
@@ -10773,10 +10771,10 @@
     </row>
     <row r="762" spans="1:6">
       <c r="A762" s="2">
-        <v>668904</v>
+        <v>668930</v>
       </c>
       <c r="B762" s="1" t="s">
-        <v>166</v>
+        <v>221</v>
       </c>
       <c r="E762" s="1"/>
       <c r="F762" s="2"/>
@@ -10803,10 +10801,10 @@
     </row>
     <row r="765" spans="1:6">
       <c r="A765" s="2">
-        <v>668901</v>
+        <v>668904</v>
       </c>
       <c r="B765" s="1" t="s">
-        <v>219</v>
+        <v>166</v>
       </c>
       <c r="E765" s="1"/>
       <c r="F765" s="2"/>
@@ -10843,30 +10841,30 @@
     </row>
     <row r="769" spans="1:6">
       <c r="A769" s="2">
-        <v>668885</v>
+        <v>668901</v>
       </c>
       <c r="B769" s="1" t="s">
-        <v>461</v>
+        <v>219</v>
       </c>
       <c r="E769" s="1"/>
       <c r="F769" s="2"/>
     </row>
     <row r="770" spans="1:6">
       <c r="A770" s="2">
-        <v>668853</v>
+        <v>668885</v>
       </c>
       <c r="B770" s="1" t="s">
-        <v>525</v>
+        <v>461</v>
       </c>
       <c r="E770" s="1"/>
       <c r="F770" s="2"/>
     </row>
     <row r="771" spans="1:6">
       <c r="A771" s="2">
-        <v>668845</v>
+        <v>668853</v>
       </c>
       <c r="B771" s="1" t="s">
-        <v>515</v>
+        <v>525</v>
       </c>
       <c r="E771" s="1"/>
       <c r="F771" s="2"/>
@@ -10883,10 +10881,10 @@
     </row>
     <row r="773" spans="1:6">
       <c r="A773" s="2">
-        <v>668843</v>
+        <v>668845</v>
       </c>
       <c r="B773" s="1" t="s">
-        <v>770</v>
+        <v>515</v>
       </c>
       <c r="E773" s="1"/>
       <c r="F773" s="2"/>
@@ -10903,20 +10901,20 @@
     </row>
     <row r="775" spans="1:6">
       <c r="A775" s="2">
-        <v>668832</v>
+        <v>668843</v>
       </c>
       <c r="B775" s="1" t="s">
-        <v>480</v>
+        <v>770</v>
       </c>
       <c r="E775" s="1"/>
       <c r="F775" s="2"/>
     </row>
     <row r="776" spans="1:6">
       <c r="A776" s="2">
-        <v>668804</v>
+        <v>668832</v>
       </c>
       <c r="B776" s="1" t="s">
-        <v>184</v>
+        <v>480</v>
       </c>
       <c r="E776" s="1"/>
       <c r="F776" s="2"/>
@@ -10953,10 +10951,10 @@
     </row>
     <row r="780" spans="1:6">
       <c r="A780" s="2">
-        <v>668800</v>
+        <v>668804</v>
       </c>
       <c r="B780" s="1" t="s">
-        <v>265</v>
+        <v>184</v>
       </c>
       <c r="E780" s="1"/>
       <c r="F780" s="2"/>
@@ -10983,20 +10981,20 @@
     </row>
     <row r="783" spans="1:6">
       <c r="A783" s="2">
-        <v>668751</v>
+        <v>668800</v>
       </c>
       <c r="B783" s="1" t="s">
-        <v>769</v>
+        <v>265</v>
       </c>
       <c r="E783" s="1"/>
       <c r="F783" s="2"/>
     </row>
     <row r="784" spans="1:6">
       <c r="A784" s="2">
-        <v>668731</v>
+        <v>668751</v>
       </c>
       <c r="B784" s="1" t="s">
-        <v>224</v>
+        <v>769</v>
       </c>
       <c r="E784" s="1"/>
       <c r="F784" s="2"/>
@@ -11023,30 +11021,30 @@
     </row>
     <row r="787" spans="1:6">
       <c r="A787" s="2">
-        <v>668723</v>
+        <v>668731</v>
       </c>
       <c r="B787" s="1" t="s">
-        <v>523</v>
+        <v>224</v>
       </c>
       <c r="E787" s="1"/>
       <c r="F787" s="2"/>
     </row>
     <row r="788" spans="1:6">
       <c r="A788" s="2">
-        <v>668721</v>
+        <v>668723</v>
       </c>
       <c r="B788" s="1" t="s">
-        <v>768</v>
+        <v>523</v>
       </c>
       <c r="E788" s="1"/>
       <c r="F788" s="2"/>
     </row>
     <row r="789" spans="1:6">
       <c r="A789" s="2">
-        <v>668715</v>
+        <v>668721</v>
       </c>
       <c r="B789" s="1" t="s">
-        <v>355</v>
+        <v>768</v>
       </c>
       <c r="E789" s="1"/>
       <c r="F789" s="2"/>
@@ -11083,10 +11081,10 @@
     </row>
     <row r="793" spans="1:6">
       <c r="A793" s="2">
-        <v>668709</v>
+        <v>668715</v>
       </c>
       <c r="B793" s="1" t="s">
-        <v>79</v>
+        <v>355</v>
       </c>
       <c r="E793" s="1"/>
       <c r="F793" s="2"/>
@@ -11123,10 +11121,10 @@
     </row>
     <row r="797" spans="1:6">
       <c r="A797" s="2">
-        <v>668670</v>
+        <v>668709</v>
       </c>
       <c r="B797" s="1" t="s">
-        <v>106</v>
+        <v>79</v>
       </c>
       <c r="E797" s="1"/>
       <c r="F797" s="2"/>
@@ -11153,20 +11151,20 @@
     </row>
     <row r="800" spans="1:6">
       <c r="A800" s="2">
-        <v>668663</v>
+        <v>668670</v>
       </c>
       <c r="B800" s="1" t="s">
-        <v>767</v>
+        <v>106</v>
       </c>
       <c r="E800" s="1"/>
       <c r="F800" s="2"/>
     </row>
     <row r="801" spans="1:6">
       <c r="A801" s="2">
-        <v>668472</v>
+        <v>668663</v>
       </c>
       <c r="B801" s="1" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="E801" s="1"/>
       <c r="F801" s="2"/>
@@ -11183,10 +11181,10 @@
     </row>
     <row r="803" spans="1:6">
       <c r="A803" s="2">
-        <v>668227</v>
+        <v>668472</v>
       </c>
       <c r="B803" s="1" t="s">
-        <v>233</v>
+        <v>766</v>
       </c>
       <c r="E803" s="1"/>
       <c r="F803" s="2"/>
@@ -11223,20 +11221,20 @@
     </row>
     <row r="807" spans="1:6">
       <c r="A807" s="2">
-        <v>667727</v>
+        <v>668227</v>
       </c>
       <c r="B807" s="1" t="s">
-        <v>765</v>
+        <v>233</v>
       </c>
       <c r="E807" s="1"/>
       <c r="F807" s="2"/>
     </row>
     <row r="808" spans="1:6">
       <c r="A808" s="2">
-        <v>667670</v>
+        <v>667727</v>
       </c>
       <c r="B808" s="1" t="s">
-        <v>227</v>
+        <v>765</v>
       </c>
       <c r="E808" s="1"/>
       <c r="F808" s="2"/>
@@ -11273,10 +11271,10 @@
     </row>
     <row r="812" spans="1:6">
       <c r="A812" s="2">
-        <v>667472</v>
+        <v>667670</v>
       </c>
       <c r="B812" s="1" t="s">
-        <v>430</v>
+        <v>227</v>
       </c>
       <c r="E812" s="1"/>
       <c r="F812" s="2"/>
@@ -11303,10 +11301,10 @@
     </row>
     <row r="815" spans="1:6">
       <c r="A815" s="2">
-        <v>667452</v>
+        <v>667472</v>
       </c>
       <c r="B815" s="1" t="s">
-        <v>57</v>
+        <v>430</v>
       </c>
       <c r="E815" s="1"/>
       <c r="F815" s="2"/>
@@ -11323,10 +11321,10 @@
     </row>
     <row r="817" spans="1:6">
       <c r="A817" s="2">
-        <v>666971</v>
+        <v>667452</v>
       </c>
       <c r="B817" s="1" t="s">
-        <v>118</v>
+        <v>57</v>
       </c>
       <c r="E817" s="1"/>
       <c r="F817" s="2"/>
@@ -11363,10 +11361,10 @@
     </row>
     <row r="821" spans="1:6">
       <c r="A821" s="2">
-        <v>666969</v>
+        <v>666971</v>
       </c>
       <c r="B821" s="1" t="s">
-        <v>491</v>
+        <v>118</v>
       </c>
       <c r="E821" s="1"/>
       <c r="F821" s="2"/>
@@ -11403,20 +11401,20 @@
     </row>
     <row r="825" spans="1:6">
       <c r="A825" s="2">
-        <v>666922</v>
+        <v>666969</v>
       </c>
       <c r="B825" s="1" t="s">
-        <v>764</v>
+        <v>491</v>
       </c>
       <c r="E825" s="1"/>
       <c r="F825" s="2"/>
     </row>
     <row r="826" spans="1:6">
       <c r="A826" s="2">
-        <v>666915</v>
+        <v>666922</v>
       </c>
       <c r="B826" s="1" t="s">
-        <v>400</v>
+        <v>764</v>
       </c>
       <c r="E826" s="1"/>
       <c r="F826" s="2"/>
@@ -11453,20 +11451,20 @@
     </row>
     <row r="830" spans="1:6">
       <c r="A830" s="2">
-        <v>666906</v>
+        <v>666915</v>
       </c>
       <c r="B830" s="1" t="s">
-        <v>814</v>
+        <v>400</v>
       </c>
       <c r="E830" s="1"/>
       <c r="F830" s="2"/>
     </row>
     <row r="831" spans="1:6">
       <c r="A831" s="2">
-        <v>666801</v>
+        <v>666906</v>
       </c>
       <c r="B831" s="1" t="s">
-        <v>763</v>
+        <v>814</v>
       </c>
       <c r="E831" s="1"/>
       <c r="F831" s="2"/>
@@ -11483,10 +11481,10 @@
     </row>
     <row r="833" spans="1:6">
       <c r="A833" s="2">
-        <v>666703</v>
+        <v>666801</v>
       </c>
       <c r="B833" s="1" t="s">
-        <v>405</v>
+        <v>763</v>
       </c>
       <c r="E833" s="1"/>
       <c r="F833" s="2"/>
@@ -11503,10 +11501,10 @@
     </row>
     <row r="835" spans="1:6">
       <c r="A835" s="2">
-        <v>666624</v>
+        <v>666703</v>
       </c>
       <c r="B835" s="1" t="s">
-        <v>331</v>
+        <v>405</v>
       </c>
       <c r="E835" s="1"/>
       <c r="F835" s="2"/>
@@ -11543,10 +11541,10 @@
     </row>
     <row r="839" spans="1:6">
       <c r="A839" s="2">
-        <v>666464</v>
+        <v>666624</v>
       </c>
       <c r="B839" s="1" t="s">
-        <v>762</v>
+        <v>331</v>
       </c>
       <c r="E839" s="1"/>
       <c r="F839" s="2"/>
@@ -11563,10 +11561,10 @@
     </row>
     <row r="841" spans="1:6">
       <c r="A841" s="2">
-        <v>666397</v>
+        <v>666464</v>
       </c>
       <c r="B841" s="1" t="s">
-        <v>228</v>
+        <v>762</v>
       </c>
       <c r="E841" s="1"/>
       <c r="F841" s="2"/>
@@ -11593,10 +11591,10 @@
     </row>
     <row r="844" spans="1:6">
       <c r="A844" s="2">
-        <v>666310</v>
+        <v>666397</v>
       </c>
       <c r="B844" s="1" t="s">
-        <v>23</v>
+        <v>228</v>
       </c>
       <c r="E844" s="1"/>
       <c r="F844" s="2"/>
@@ -11623,10 +11621,10 @@
     </row>
     <row r="847" spans="1:6">
       <c r="A847" s="2">
-        <v>666211</v>
+        <v>666310</v>
       </c>
       <c r="B847" s="1" t="s">
-        <v>761</v>
+        <v>23</v>
       </c>
       <c r="E847" s="1"/>
       <c r="F847" s="2"/>
@@ -11643,20 +11641,20 @@
     </row>
     <row r="849" spans="1:6">
       <c r="A849" s="2">
-        <v>666198</v>
+        <v>666211</v>
       </c>
       <c r="B849" s="1" t="s">
-        <v>813</v>
+        <v>761</v>
       </c>
       <c r="E849" s="1"/>
       <c r="F849" s="2"/>
     </row>
     <row r="850" spans="1:6">
       <c r="A850" s="2">
-        <v>666197</v>
+        <v>666198</v>
       </c>
       <c r="B850" s="1" t="s">
-        <v>412</v>
+        <v>813</v>
       </c>
       <c r="E850" s="1"/>
       <c r="F850" s="2"/>
@@ -11673,10 +11671,10 @@
     </row>
     <row r="852" spans="1:6">
       <c r="A852" s="2">
-        <v>666185</v>
+        <v>666197</v>
       </c>
       <c r="B852" s="1" t="s">
-        <v>90</v>
+        <v>412</v>
       </c>
       <c r="E852" s="1"/>
       <c r="F852" s="2"/>
@@ -11713,10 +11711,10 @@
     </row>
     <row r="856" spans="1:6">
       <c r="A856" s="2">
-        <v>666182</v>
+        <v>666185</v>
       </c>
       <c r="B856" s="1" t="s">
-        <v>299</v>
+        <v>90</v>
       </c>
       <c r="E856" s="1"/>
       <c r="F856" s="2"/>
@@ -11753,10 +11751,10 @@
     </row>
     <row r="860" spans="1:6">
       <c r="A860" s="2">
-        <v>666181</v>
+        <v>666182</v>
       </c>
       <c r="B860" s="1" t="s">
-        <v>77</v>
+        <v>299</v>
       </c>
       <c r="E860" s="1"/>
       <c r="F860" s="2"/>
@@ -11783,20 +11781,20 @@
     </row>
     <row r="863" spans="1:6">
       <c r="A863" s="2">
-        <v>666179</v>
+        <v>666181</v>
       </c>
       <c r="B863" s="1" t="s">
-        <v>760</v>
+        <v>77</v>
       </c>
       <c r="E863" s="1"/>
       <c r="F863" s="2"/>
     </row>
     <row r="864" spans="1:6">
       <c r="A864" s="2">
-        <v>666176</v>
+        <v>666179</v>
       </c>
       <c r="B864" s="1" t="s">
-        <v>414</v>
+        <v>760</v>
       </c>
       <c r="E864" s="1"/>
       <c r="F864" s="2"/>
@@ -11833,10 +11831,10 @@
     </row>
     <row r="868" spans="1:6">
       <c r="A868" s="2">
-        <v>666165</v>
+        <v>666176</v>
       </c>
       <c r="B868" s="1" t="s">
-        <v>281</v>
+        <v>414</v>
       </c>
       <c r="E868" s="1"/>
       <c r="F868" s="2"/>
@@ -11863,20 +11861,20 @@
     </row>
     <row r="871" spans="1:6">
       <c r="A871" s="2">
-        <v>666164</v>
+        <v>666165</v>
       </c>
       <c r="B871" s="1" t="s">
-        <v>812</v>
+        <v>281</v>
       </c>
       <c r="E871" s="1"/>
       <c r="F871" s="2"/>
     </row>
     <row r="872" spans="1:6">
       <c r="A872" s="2">
-        <v>666163</v>
+        <v>666164</v>
       </c>
       <c r="B872" s="1" t="s">
-        <v>431</v>
+        <v>812</v>
       </c>
       <c r="E872" s="1"/>
       <c r="F872" s="2"/>
@@ -11903,10 +11901,10 @@
     </row>
     <row r="875" spans="1:6">
       <c r="A875" s="2">
-        <v>666160</v>
+        <v>666163</v>
       </c>
       <c r="B875" s="1" t="s">
-        <v>122</v>
+        <v>431</v>
       </c>
       <c r="E875" s="1"/>
       <c r="F875" s="2"/>
@@ -11943,10 +11941,10 @@
     </row>
     <row r="879" spans="1:6">
       <c r="A879" s="2">
-        <v>666158</v>
+        <v>666160</v>
       </c>
       <c r="B879" s="1" t="s">
-        <v>437</v>
+        <v>122</v>
       </c>
       <c r="E879" s="1"/>
       <c r="F879" s="2"/>
@@ -11973,10 +11971,10 @@
     </row>
     <row r="882" spans="1:6">
       <c r="A882" s="2">
-        <v>666152</v>
+        <v>666158</v>
       </c>
       <c r="B882" s="1" t="s">
-        <v>403</v>
+        <v>437</v>
       </c>
       <c r="E882" s="1"/>
       <c r="F882" s="2"/>
@@ -12003,10 +12001,10 @@
     </row>
     <row r="885" spans="1:6">
       <c r="A885" s="2">
-        <v>666150</v>
+        <v>666152</v>
       </c>
       <c r="B885" s="1" t="s">
-        <v>160</v>
+        <v>403</v>
       </c>
       <c r="E885" s="1"/>
       <c r="F885" s="2"/>
@@ -12023,10 +12021,10 @@
     </row>
     <row r="887" spans="1:6">
       <c r="A887" s="2">
-        <v>666149</v>
+        <v>666150</v>
       </c>
       <c r="B887" s="1" t="s">
-        <v>401</v>
+        <v>160</v>
       </c>
       <c r="E887" s="1"/>
       <c r="F887" s="2"/>
@@ -12053,10 +12051,10 @@
     </row>
     <row r="890" spans="1:6">
       <c r="A890" s="2">
-        <v>666139</v>
+        <v>666149</v>
       </c>
       <c r="B890" s="1" t="s">
-        <v>232</v>
+        <v>401</v>
       </c>
       <c r="E890" s="1"/>
       <c r="F890" s="2"/>
@@ -12083,10 +12081,10 @@
     </row>
     <row r="893" spans="1:6">
       <c r="A893" s="2">
-        <v>666135</v>
+        <v>666139</v>
       </c>
       <c r="B893" s="1" t="s">
-        <v>108</v>
+        <v>232</v>
       </c>
       <c r="E893" s="1"/>
       <c r="F893" s="2"/>
@@ -12113,10 +12111,10 @@
     </row>
     <row r="896" spans="1:6">
       <c r="A896" s="2">
-        <v>666134</v>
+        <v>666135</v>
       </c>
       <c r="B896" s="1" t="s">
-        <v>258</v>
+        <v>108</v>
       </c>
       <c r="E896" s="1"/>
       <c r="F896" s="2"/>
@@ -12153,10 +12151,10 @@
     </row>
     <row r="900" spans="1:6">
       <c r="A900" s="2">
-        <v>666023</v>
+        <v>666134</v>
       </c>
       <c r="B900" s="1" t="s">
-        <v>7</v>
+        <v>258</v>
       </c>
       <c r="E900" s="1"/>
       <c r="F900" s="2"/>
@@ -12183,10 +12181,10 @@
     </row>
     <row r="903" spans="1:6">
       <c r="A903" s="2">
-        <v>666018</v>
+        <v>666023</v>
       </c>
       <c r="B903" s="1" t="s">
-        <v>60</v>
+        <v>7</v>
       </c>
       <c r="E903" s="1"/>
       <c r="F903" s="2"/>
@@ -12223,10 +12221,10 @@
     </row>
     <row r="907" spans="1:6">
       <c r="A907" s="2">
-        <v>665966</v>
+        <v>666018</v>
       </c>
       <c r="B907" s="1" t="s">
-        <v>892</v>
+        <v>60</v>
       </c>
       <c r="E907" s="1"/>
       <c r="F907" s="2"/>
@@ -12243,20 +12241,20 @@
     </row>
     <row r="909" spans="1:6">
       <c r="A909" s="2">
-        <v>665953</v>
+        <v>665966</v>
       </c>
       <c r="B909" s="1" t="s">
-        <v>842</v>
+        <v>892</v>
       </c>
       <c r="E909" s="1"/>
       <c r="F909" s="2"/>
     </row>
     <row r="910" spans="1:6">
       <c r="A910" s="2">
-        <v>665926</v>
+        <v>665953</v>
       </c>
       <c r="B910" s="1" t="s">
-        <v>487</v>
+        <v>842</v>
       </c>
       <c r="E910" s="1"/>
       <c r="F910" s="2"/>
@@ -12293,10 +12291,10 @@
     </row>
     <row r="914" spans="1:6">
       <c r="A914" s="2">
-        <v>665923</v>
+        <v>665926</v>
       </c>
       <c r="B914" s="1" t="s">
-        <v>237</v>
+        <v>487</v>
       </c>
       <c r="E914" s="1"/>
       <c r="F914" s="2"/>
@@ -12323,10 +12321,10 @@
     </row>
     <row r="917" spans="1:6">
       <c r="A917" s="2">
-        <v>665877</v>
+        <v>665923</v>
       </c>
       <c r="B917" s="1" t="s">
-        <v>543</v>
+        <v>237</v>
       </c>
       <c r="E917" s="1"/>
       <c r="F917" s="2"/>
@@ -12343,10 +12341,10 @@
     </row>
     <row r="919" spans="1:6">
       <c r="A919" s="2">
-        <v>665862</v>
+        <v>665877</v>
       </c>
       <c r="B919" s="1" t="s">
-        <v>292</v>
+        <v>543</v>
       </c>
       <c r="E919" s="1"/>
       <c r="F919" s="2"/>
@@ -12383,20 +12381,20 @@
     </row>
     <row r="923" spans="1:6">
       <c r="A923" s="2">
-        <v>665861</v>
+        <v>665862</v>
       </c>
       <c r="B923" s="1" t="s">
-        <v>759</v>
+        <v>292</v>
       </c>
       <c r="E923" s="1"/>
       <c r="F923" s="2"/>
     </row>
     <row r="924" spans="1:6">
       <c r="A924" s="2">
-        <v>665839</v>
+        <v>665861</v>
       </c>
       <c r="B924" s="1" t="s">
-        <v>333</v>
+        <v>759</v>
       </c>
       <c r="E924" s="1"/>
       <c r="F924" s="2"/>
@@ -12423,10 +12421,10 @@
     </row>
     <row r="927" spans="1:6">
       <c r="A927" s="2">
-        <v>665833</v>
+        <v>665839</v>
       </c>
       <c r="B927" s="1" t="s">
-        <v>408</v>
+        <v>333</v>
       </c>
       <c r="E927" s="1"/>
       <c r="F927" s="2"/>
@@ -12463,10 +12461,10 @@
     </row>
     <row r="931" spans="1:6">
       <c r="A931" s="2">
-        <v>665828</v>
+        <v>665833</v>
       </c>
       <c r="B931" s="1" t="s">
-        <v>44</v>
+        <v>408</v>
       </c>
       <c r="E931" s="1"/>
       <c r="F931" s="2"/>
@@ -12503,10 +12501,10 @@
     </row>
     <row r="935" spans="1:6">
       <c r="A935" s="2">
-        <v>665804</v>
+        <v>665828</v>
       </c>
       <c r="B935" s="1" t="s">
-        <v>239</v>
+        <v>44</v>
       </c>
       <c r="E935" s="1"/>
       <c r="F935" s="2"/>
@@ -12533,20 +12531,20 @@
     </row>
     <row r="938" spans="1:6">
       <c r="A938" s="2">
-        <v>665782</v>
+        <v>665804</v>
       </c>
       <c r="B938" s="1" t="s">
-        <v>841</v>
+        <v>239</v>
       </c>
       <c r="E938" s="1"/>
       <c r="F938" s="2"/>
     </row>
     <row r="939" spans="1:6">
       <c r="A939" s="2">
-        <v>665750</v>
+        <v>665782</v>
       </c>
       <c r="B939" s="1" t="s">
-        <v>336</v>
+        <v>841</v>
       </c>
       <c r="E939" s="1"/>
       <c r="F939" s="2"/>
@@ -12583,10 +12581,10 @@
     </row>
     <row r="943" spans="1:6">
       <c r="A943" s="2">
-        <v>665742</v>
+        <v>665750</v>
       </c>
       <c r="B943" s="1" t="s">
-        <v>248</v>
+        <v>336</v>
       </c>
       <c r="E943" s="1"/>
       <c r="F943" s="2"/>
@@ -12623,20 +12621,20 @@
     </row>
     <row r="947" spans="1:6">
       <c r="A947" s="2">
-        <v>665650</v>
+        <v>665742</v>
       </c>
       <c r="B947" s="1" t="s">
-        <v>758</v>
+        <v>248</v>
       </c>
       <c r="E947" s="1"/>
       <c r="F947" s="2"/>
     </row>
     <row r="948" spans="1:6">
       <c r="A948" s="2">
-        <v>665561</v>
+        <v>665650</v>
       </c>
       <c r="B948" s="1" t="s">
-        <v>546</v>
+        <v>758</v>
       </c>
       <c r="E948" s="1"/>
       <c r="F948" s="2"/>
@@ -12653,10 +12651,10 @@
     </row>
     <row r="950" spans="1:6">
       <c r="A950" s="2">
-        <v>665506</v>
+        <v>665561</v>
       </c>
       <c r="B950" s="1" t="s">
-        <v>85</v>
+        <v>546</v>
       </c>
       <c r="E950" s="1"/>
       <c r="F950" s="2"/>
@@ -12683,10 +12681,10 @@
     </row>
     <row r="953" spans="1:6">
       <c r="A953" s="2">
-        <v>665489</v>
+        <v>665506</v>
       </c>
       <c r="B953" s="1" t="s">
-        <v>257</v>
+        <v>85</v>
       </c>
       <c r="E953" s="1"/>
       <c r="F953" s="2"/>
@@ -12723,10 +12721,10 @@
     </row>
     <row r="957" spans="1:6">
       <c r="A957" s="2">
-        <v>665487</v>
+        <v>665489</v>
       </c>
       <c r="B957" s="1" t="s">
-        <v>67</v>
+        <v>257</v>
       </c>
       <c r="E957" s="1"/>
       <c r="F957" s="2"/>
@@ -12753,20 +12751,20 @@
     </row>
     <row r="960" spans="1:6">
       <c r="A960" s="2">
-        <v>665482</v>
+        <v>665487</v>
       </c>
       <c r="B960" s="1" t="s">
-        <v>757</v>
+        <v>67</v>
       </c>
       <c r="E960" s="1"/>
       <c r="F960" s="2"/>
     </row>
     <row r="961" spans="1:6">
       <c r="A961" s="2">
-        <v>665161</v>
+        <v>665482</v>
       </c>
       <c r="B961" s="1" t="s">
-        <v>497</v>
+        <v>757</v>
       </c>
       <c r="E961" s="1"/>
       <c r="F961" s="2"/>
@@ -12803,10 +12801,10 @@
     </row>
     <row r="965" spans="1:6">
       <c r="A965" s="2">
-        <v>665155</v>
+        <v>665161</v>
       </c>
       <c r="B965" s="1" t="s">
-        <v>756</v>
+        <v>497</v>
       </c>
       <c r="E965" s="1"/>
       <c r="F965" s="2"/>
@@ -12833,20 +12831,20 @@
     </row>
     <row r="968" spans="1:6">
       <c r="A968" s="2">
-        <v>665154</v>
+        <v>665155</v>
       </c>
       <c r="B968" s="1" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="E968" s="1"/>
       <c r="F968" s="2"/>
     </row>
     <row r="969" spans="1:6">
       <c r="A969" s="2">
-        <v>665120</v>
+        <v>665154</v>
       </c>
       <c r="B969" s="1" t="s">
-        <v>135</v>
+        <v>755</v>
       </c>
       <c r="E969" s="1"/>
       <c r="F969" s="2"/>
@@ -12873,10 +12871,10 @@
     </row>
     <row r="972" spans="1:6">
       <c r="A972" s="2">
-        <v>665052</v>
+        <v>665120</v>
       </c>
       <c r="B972" s="1" t="s">
-        <v>840</v>
+        <v>135</v>
       </c>
       <c r="E972" s="1"/>
       <c r="F972" s="2"/>
@@ -12893,10 +12891,10 @@
     </row>
     <row r="974" spans="1:6">
       <c r="A974" s="2">
-        <v>665019</v>
+        <v>665052</v>
       </c>
       <c r="B974" s="1" t="s">
-        <v>251</v>
+        <v>840</v>
       </c>
       <c r="E974" s="1"/>
       <c r="F974" s="2"/>
@@ -12923,10 +12921,10 @@
     </row>
     <row r="977" spans="1:6">
       <c r="A977" s="2">
-        <v>664983</v>
+        <v>665019</v>
       </c>
       <c r="B977" s="1" t="s">
-        <v>61</v>
+        <v>251</v>
       </c>
       <c r="E977" s="1"/>
       <c r="F977" s="2"/>
@@ -12963,10 +12961,10 @@
     </row>
     <row r="981" spans="1:6">
       <c r="A981" s="2">
-        <v>664954</v>
+        <v>664983</v>
       </c>
       <c r="B981" s="1" t="s">
-        <v>270</v>
+        <v>61</v>
       </c>
       <c r="E981" s="1"/>
       <c r="F981" s="2"/>
@@ -12983,10 +12981,10 @@
     </row>
     <row r="983" spans="1:6">
       <c r="A983" s="2">
-        <v>664913</v>
+        <v>664954</v>
       </c>
       <c r="B983" s="1" t="s">
-        <v>163</v>
+        <v>270</v>
       </c>
       <c r="E983" s="1"/>
       <c r="F983" s="2"/>
@@ -13023,10 +13021,10 @@
     </row>
     <row r="987" spans="1:6">
       <c r="A987" s="2">
-        <v>664901</v>
+        <v>664913</v>
       </c>
       <c r="B987" s="1" t="s">
-        <v>432</v>
+        <v>163</v>
       </c>
       <c r="E987" s="1"/>
       <c r="F987" s="2"/>
@@ -13053,10 +13051,10 @@
     </row>
     <row r="990" spans="1:6">
       <c r="A990" s="2">
-        <v>664874</v>
+        <v>664901</v>
       </c>
       <c r="B990" s="1" t="s">
-        <v>133</v>
+        <v>432</v>
       </c>
       <c r="E990" s="1"/>
       <c r="F990" s="2"/>
@@ -13083,20 +13081,20 @@
     </row>
     <row r="993" spans="1:6">
       <c r="A993" s="2">
-        <v>664850</v>
+        <v>664874</v>
       </c>
       <c r="B993" s="1" t="s">
-        <v>754</v>
+        <v>133</v>
       </c>
       <c r="E993" s="1"/>
       <c r="F993" s="2"/>
     </row>
     <row r="994" spans="1:6">
       <c r="A994" s="2">
-        <v>664774</v>
+        <v>664850</v>
       </c>
       <c r="B994" s="1" t="s">
-        <v>80</v>
+        <v>754</v>
       </c>
       <c r="E994" s="1"/>
       <c r="F994" s="2"/>
@@ -13133,10 +13131,10 @@
     </row>
     <row r="998" spans="1:6">
       <c r="A998" s="2">
-        <v>664770</v>
+        <v>664774</v>
       </c>
       <c r="B998" s="1" t="s">
-        <v>811</v>
+        <v>80</v>
       </c>
       <c r="E998" s="1"/>
       <c r="F998" s="2"/>
@@ -13163,10 +13161,10 @@
     </row>
     <row r="1001" spans="1:6">
       <c r="A1001" s="2">
-        <v>664761</v>
+        <v>664770</v>
       </c>
       <c r="B1001" s="1" t="s">
-        <v>58</v>
+        <v>811</v>
       </c>
       <c r="E1001" s="1"/>
       <c r="F1001" s="2"/>
@@ -13203,20 +13201,20 @@
     </row>
     <row r="1005" spans="1:6">
       <c r="A1005" s="2">
-        <v>664731</v>
+        <v>664761</v>
       </c>
       <c r="B1005" s="1" t="s">
-        <v>753</v>
+        <v>58</v>
       </c>
       <c r="E1005" s="1"/>
       <c r="F1005" s="2"/>
     </row>
     <row r="1006" spans="1:6">
       <c r="A1006" s="2">
-        <v>664728</v>
+        <v>664731</v>
       </c>
       <c r="B1006" s="1" t="s">
-        <v>132</v>
+        <v>753</v>
       </c>
       <c r="E1006" s="1"/>
       <c r="F1006" s="2"/>
@@ -13253,10 +13251,10 @@
     </row>
     <row r="1010" spans="1:6">
       <c r="A1010" s="2">
-        <v>664702</v>
+        <v>664728</v>
       </c>
       <c r="B1010" s="1" t="s">
-        <v>752</v>
+        <v>132</v>
       </c>
       <c r="E1010" s="1"/>
       <c r="F1010" s="2"/>
@@ -13283,30 +13281,30 @@
     </row>
     <row r="1013" spans="1:6">
       <c r="A1013" s="2">
-        <v>664670</v>
+        <v>664702</v>
       </c>
       <c r="B1013" s="1" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="E1013" s="1"/>
       <c r="F1013" s="2"/>
     </row>
     <row r="1014" spans="1:6">
       <c r="A1014" s="2">
-        <v>664334</v>
+        <v>664670</v>
       </c>
       <c r="B1014" s="1" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="E1014" s="1"/>
       <c r="F1014" s="2"/>
     </row>
     <row r="1015" spans="1:6">
       <c r="A1015" s="2">
-        <v>664314</v>
+        <v>664334</v>
       </c>
       <c r="B1015" s="1" t="s">
-        <v>425</v>
+        <v>750</v>
       </c>
       <c r="E1015" s="1"/>
       <c r="F1015" s="2"/>
@@ -13333,10 +13331,10 @@
     </row>
     <row r="1018" spans="1:6">
       <c r="A1018" s="2">
-        <v>664247</v>
+        <v>664314</v>
       </c>
       <c r="B1018" s="1" t="s">
-        <v>749</v>
+        <v>425</v>
       </c>
       <c r="E1018" s="1"/>
       <c r="F1018" s="2"/>
@@ -13353,10 +13351,10 @@
     </row>
     <row r="1020" spans="1:6">
       <c r="A1020" s="2">
-        <v>664238</v>
+        <v>664247</v>
       </c>
       <c r="B1020" s="1" t="s">
-        <v>52</v>
+        <v>749</v>
       </c>
       <c r="E1020" s="1"/>
       <c r="F1020" s="2"/>
@@ -13393,20 +13391,20 @@
     </row>
     <row r="1024" spans="1:6">
       <c r="A1024" s="2">
-        <v>664119</v>
+        <v>664238</v>
       </c>
       <c r="B1024" s="1" t="s">
-        <v>748</v>
+        <v>52</v>
       </c>
       <c r="E1024" s="1"/>
       <c r="F1024" s="2"/>
     </row>
     <row r="1025" spans="1:6">
       <c r="A1025" s="2">
-        <v>664059</v>
+        <v>664119</v>
       </c>
       <c r="B1025" s="1" t="s">
-        <v>357</v>
+        <v>748</v>
       </c>
       <c r="E1025" s="1"/>
       <c r="F1025" s="2"/>
@@ -13433,10 +13431,10 @@
     </row>
     <row r="1028" spans="1:6">
       <c r="A1028" s="2">
-        <v>664058</v>
+        <v>664059</v>
       </c>
       <c r="B1028" s="1" t="s">
-        <v>747</v>
+        <v>357</v>
       </c>
       <c r="E1028" s="1"/>
       <c r="F1028" s="2"/>
@@ -13453,20 +13451,20 @@
     </row>
     <row r="1030" spans="1:6">
       <c r="A1030" s="2">
-        <v>664057</v>
+        <v>664058</v>
       </c>
       <c r="B1030" s="1" t="s">
-        <v>810</v>
+        <v>747</v>
       </c>
       <c r="E1030" s="1"/>
       <c r="F1030" s="2"/>
     </row>
     <row r="1031" spans="1:6">
       <c r="A1031" s="2">
-        <v>664056</v>
+        <v>664057</v>
       </c>
       <c r="B1031" s="1" t="s">
-        <v>350</v>
+        <v>810</v>
       </c>
       <c r="E1031" s="1"/>
       <c r="F1031" s="2"/>
@@ -13503,20 +13501,20 @@
     </row>
     <row r="1035" spans="1:6">
       <c r="A1035" s="2">
-        <v>664041</v>
+        <v>664056</v>
       </c>
       <c r="B1035" s="1" t="s">
-        <v>746</v>
+        <v>350</v>
       </c>
       <c r="E1035" s="1"/>
       <c r="F1035" s="2"/>
     </row>
     <row r="1036" spans="1:6">
       <c r="A1036" s="2">
-        <v>664040</v>
+        <v>664041</v>
       </c>
       <c r="B1036" s="1" t="s">
-        <v>83</v>
+        <v>746</v>
       </c>
       <c r="E1036" s="1"/>
       <c r="F1036" s="2"/>
@@ -13553,10 +13551,10 @@
     </row>
     <row r="1040" spans="1:6">
       <c r="A1040" s="2">
-        <v>664034</v>
+        <v>664040</v>
       </c>
       <c r="B1040" s="1" t="s">
-        <v>378</v>
+        <v>83</v>
       </c>
       <c r="E1040" s="1"/>
       <c r="F1040" s="2"/>
@@ -13593,10 +13591,10 @@
     </row>
     <row r="1044" spans="1:6">
       <c r="A1044" s="2">
-        <v>664029</v>
+        <v>664034</v>
       </c>
       <c r="B1044" s="1" t="s">
-        <v>745</v>
+        <v>378</v>
       </c>
       <c r="E1044" s="1"/>
       <c r="F1044" s="2"/>
@@ -13613,10 +13611,10 @@
     </row>
     <row r="1046" spans="1:6">
       <c r="A1046" s="2">
-        <v>664023</v>
+        <v>664029</v>
       </c>
       <c r="B1046" s="1" t="s">
-        <v>62</v>
+        <v>745</v>
       </c>
       <c r="E1046" s="1"/>
       <c r="F1046" s="2"/>
@@ -13653,10 +13651,10 @@
     </row>
     <row r="1050" spans="1:6">
       <c r="A1050" s="2">
-        <v>663993</v>
+        <v>664023</v>
       </c>
       <c r="B1050" s="1" t="s">
-        <v>123</v>
+        <v>62</v>
       </c>
       <c r="E1050" s="1"/>
       <c r="F1050" s="2"/>
@@ -13693,20 +13691,20 @@
     </row>
     <row r="1054" spans="1:6">
       <c r="A1054" s="2">
-        <v>663968</v>
+        <v>663993</v>
       </c>
       <c r="B1054" s="1" t="s">
-        <v>880</v>
+        <v>123</v>
       </c>
       <c r="E1054" s="1"/>
       <c r="F1054" s="2"/>
     </row>
     <row r="1055" spans="1:6">
       <c r="A1055" s="2">
-        <v>663967</v>
+        <v>663968</v>
       </c>
       <c r="B1055" s="1" t="s">
-        <v>521</v>
+        <v>880</v>
       </c>
       <c r="E1055" s="1"/>
       <c r="F1055" s="2"/>
@@ -13723,20 +13721,20 @@
     </row>
     <row r="1057" spans="1:6">
       <c r="A1057" s="2">
-        <v>663911</v>
+        <v>663967</v>
       </c>
       <c r="B1057" s="1" t="s">
-        <v>744</v>
+        <v>521</v>
       </c>
       <c r="E1057" s="1"/>
       <c r="F1057" s="2"/>
     </row>
     <row r="1058" spans="1:6">
       <c r="A1058" s="2">
-        <v>663905</v>
+        <v>663911</v>
       </c>
       <c r="B1058" s="1" t="s">
-        <v>809</v>
+        <v>744</v>
       </c>
       <c r="E1058" s="1"/>
       <c r="F1058" s="2"/>
@@ -13753,10 +13751,10 @@
     </row>
     <row r="1060" spans="1:6">
       <c r="A1060" s="2">
-        <v>663898</v>
+        <v>663905</v>
       </c>
       <c r="B1060" s="1" t="s">
-        <v>312</v>
+        <v>809</v>
       </c>
       <c r="E1060" s="1"/>
       <c r="F1060" s="2"/>
@@ -13793,10 +13791,10 @@
     </row>
     <row r="1064" spans="1:6">
       <c r="A1064" s="2">
-        <v>663897</v>
+        <v>663898</v>
       </c>
       <c r="B1064" s="1" t="s">
-        <v>390</v>
+        <v>312</v>
       </c>
       <c r="E1064" s="1"/>
       <c r="F1064" s="2"/>
@@ -13823,10 +13821,10 @@
     </row>
     <row r="1067" spans="1:6">
       <c r="A1067" s="2">
-        <v>663886</v>
+        <v>663897</v>
       </c>
       <c r="B1067" s="1" t="s">
-        <v>321</v>
+        <v>390</v>
       </c>
       <c r="E1067" s="1"/>
       <c r="F1067" s="2"/>
@@ -13853,10 +13851,10 @@
     </row>
     <row r="1070" spans="1:6">
       <c r="A1070" s="2">
-        <v>663853</v>
+        <v>663886</v>
       </c>
       <c r="B1070" s="1" t="s">
-        <v>358</v>
+        <v>321</v>
       </c>
       <c r="E1070" s="1"/>
       <c r="F1070" s="2"/>
@@ -13893,10 +13891,10 @@
     </row>
     <row r="1074" spans="1:6">
       <c r="A1074" s="2">
-        <v>663845</v>
+        <v>663853</v>
       </c>
       <c r="B1074" s="1" t="s">
-        <v>743</v>
+        <v>358</v>
       </c>
       <c r="E1074" s="1"/>
       <c r="F1074" s="2"/>
@@ -13913,10 +13911,10 @@
     </row>
     <row r="1076" spans="1:6">
       <c r="A1076" s="2">
-        <v>663837</v>
+        <v>663845</v>
       </c>
       <c r="B1076" s="1" t="s">
-        <v>174</v>
+        <v>743</v>
       </c>
       <c r="E1076" s="1"/>
       <c r="F1076" s="2"/>
@@ -13943,10 +13941,10 @@
     </row>
     <row r="1079" spans="1:6">
       <c r="A1079" s="2">
-        <v>663796</v>
+        <v>663837</v>
       </c>
       <c r="B1079" s="1" t="s">
-        <v>808</v>
+        <v>174</v>
       </c>
       <c r="E1079" s="1"/>
       <c r="F1079" s="2"/>
@@ -13963,10 +13961,10 @@
     </row>
     <row r="1081" spans="1:6">
       <c r="A1081" s="2">
-        <v>663757</v>
+        <v>663796</v>
       </c>
       <c r="B1081" s="1" t="s">
-        <v>376</v>
+        <v>808</v>
       </c>
       <c r="E1081" s="1"/>
       <c r="F1081" s="2"/>
@@ -14003,10 +14001,10 @@
     </row>
     <row r="1085" spans="1:6">
       <c r="A1085" s="2">
-        <v>663743</v>
+        <v>663757</v>
       </c>
       <c r="B1085" s="1" t="s">
-        <v>116</v>
+        <v>376</v>
       </c>
       <c r="E1085" s="1"/>
       <c r="F1085" s="2"/>
@@ -14043,10 +14041,10 @@
     </row>
     <row r="1089" spans="1:6">
       <c r="A1089" s="2">
-        <v>663728</v>
+        <v>663743</v>
       </c>
       <c r="B1089" s="1" t="s">
-        <v>277</v>
+        <v>116</v>
       </c>
       <c r="E1089" s="1"/>
       <c r="F1089" s="2"/>
@@ -14083,10 +14081,10 @@
     </row>
     <row r="1093" spans="1:6">
       <c r="A1093" s="2">
-        <v>663698</v>
+        <v>663728</v>
       </c>
       <c r="B1093" s="1" t="s">
-        <v>136</v>
+        <v>277</v>
       </c>
       <c r="E1093" s="1"/>
       <c r="F1093" s="2"/>
@@ -14123,10 +14121,10 @@
     </row>
     <row r="1097" spans="1:6">
       <c r="A1097" s="2">
-        <v>663697</v>
+        <v>663698</v>
       </c>
       <c r="B1097" s="1" t="s">
-        <v>220</v>
+        <v>136</v>
       </c>
       <c r="E1097" s="1"/>
       <c r="F1097" s="2"/>
@@ -14163,10 +14161,10 @@
     </row>
     <row r="1101" spans="1:6">
       <c r="A1101" s="2">
-        <v>663662</v>
+        <v>663697</v>
       </c>
       <c r="B1101" s="1" t="s">
-        <v>469</v>
+        <v>220</v>
       </c>
       <c r="E1101" s="1"/>
       <c r="F1101" s="2"/>
@@ -14183,10 +14181,10 @@
     </row>
     <row r="1103" spans="1:6">
       <c r="A1103" s="2">
-        <v>663656</v>
+        <v>663662</v>
       </c>
       <c r="B1103" s="1" t="s">
-        <v>284</v>
+        <v>469</v>
       </c>
       <c r="E1103" s="1"/>
       <c r="F1103" s="2"/>
@@ -14223,10 +14221,10 @@
     </row>
     <row r="1107" spans="1:6">
       <c r="A1107" s="2">
-        <v>663647</v>
+        <v>663656</v>
       </c>
       <c r="B1107" s="1" t="s">
-        <v>189</v>
+        <v>284</v>
       </c>
       <c r="E1107" s="1"/>
       <c r="F1107" s="2"/>
@@ -14263,10 +14261,10 @@
     </row>
     <row r="1111" spans="1:6">
       <c r="A1111" s="2">
-        <v>663630</v>
+        <v>663647</v>
       </c>
       <c r="B1111" s="1" t="s">
-        <v>211</v>
+        <v>189</v>
       </c>
       <c r="E1111" s="1"/>
       <c r="F1111" s="2"/>
@@ -14293,10 +14291,10 @@
     </row>
     <row r="1114" spans="1:6">
       <c r="A1114" s="2">
-        <v>663624</v>
+        <v>663630</v>
       </c>
       <c r="B1114" s="1" t="s">
-        <v>226</v>
+        <v>211</v>
       </c>
       <c r="E1114" s="1"/>
       <c r="F1114" s="2"/>
@@ -14333,10 +14331,10 @@
     </row>
     <row r="1118" spans="1:6">
       <c r="A1118" s="2">
-        <v>663616</v>
+        <v>663624</v>
       </c>
       <c r="B1118" s="1" t="s">
-        <v>185</v>
+        <v>226</v>
       </c>
       <c r="E1118" s="1"/>
       <c r="F1118" s="2"/>
@@ -14373,10 +14371,10 @@
     </row>
     <row r="1122" spans="1:6">
       <c r="A1122" s="2">
-        <v>663611</v>
+        <v>663616</v>
       </c>
       <c r="B1122" s="1" t="s">
-        <v>169</v>
+        <v>185</v>
       </c>
       <c r="E1122" s="1"/>
       <c r="F1122" s="2"/>
@@ -14403,10 +14401,10 @@
     </row>
     <row r="1125" spans="1:6">
       <c r="A1125" s="2">
-        <v>663609</v>
+        <v>663611</v>
       </c>
       <c r="B1125" s="1" t="s">
-        <v>807</v>
+        <v>169</v>
       </c>
       <c r="E1125" s="1"/>
       <c r="F1125" s="2"/>
@@ -14433,10 +14431,10 @@
     </row>
     <row r="1128" spans="1:6">
       <c r="A1128" s="2">
-        <v>663604</v>
+        <v>663609</v>
       </c>
       <c r="B1128" s="1" t="s">
-        <v>839</v>
+        <v>807</v>
       </c>
       <c r="E1128" s="1"/>
       <c r="F1128" s="2"/>
@@ -14453,10 +14451,10 @@
     </row>
     <row r="1130" spans="1:6">
       <c r="A1130" s="2">
-        <v>663586</v>
+        <v>663604</v>
       </c>
       <c r="B1130" s="1" t="s">
-        <v>242</v>
+        <v>839</v>
       </c>
       <c r="E1130" s="1"/>
       <c r="F1130" s="2"/>
@@ -14493,20 +14491,20 @@
     </row>
     <row r="1134" spans="1:6">
       <c r="A1134" s="2">
-        <v>663584</v>
+        <v>663586</v>
       </c>
       <c r="B1134" s="1" t="s">
-        <v>897</v>
+        <v>242</v>
       </c>
       <c r="E1134" s="1"/>
       <c r="F1134" s="2"/>
     </row>
     <row r="1135" spans="1:6">
       <c r="A1135" s="2">
-        <v>663550</v>
+        <v>663584</v>
       </c>
       <c r="B1135" s="1" t="s">
-        <v>411</v>
+        <v>897</v>
       </c>
       <c r="E1135" s="1"/>
       <c r="F1135" s="2"/>
@@ -14523,10 +14521,10 @@
     </row>
     <row r="1137" spans="1:6">
       <c r="A1137" s="2">
-        <v>663538</v>
+        <v>663550</v>
       </c>
       <c r="B1137" s="1" t="s">
-        <v>18</v>
+        <v>411</v>
       </c>
       <c r="E1137" s="1"/>
       <c r="F1137" s="2"/>
@@ -14563,10 +14561,10 @@
     </row>
     <row r="1141" spans="1:6">
       <c r="A1141" s="2">
-        <v>663527</v>
+        <v>663538</v>
       </c>
       <c r="B1141" s="1" t="s">
-        <v>216</v>
+        <v>18</v>
       </c>
       <c r="E1141" s="1"/>
       <c r="F1141" s="2"/>
@@ -14593,20 +14591,20 @@
     </row>
     <row r="1144" spans="1:6">
       <c r="A1144" s="2">
-        <v>663478</v>
+        <v>663527</v>
       </c>
       <c r="B1144" s="1" t="s">
-        <v>742</v>
+        <v>216</v>
       </c>
       <c r="E1144" s="1"/>
       <c r="F1144" s="2"/>
     </row>
     <row r="1145" spans="1:6">
       <c r="A1145" s="2">
-        <v>663457</v>
+        <v>663478</v>
       </c>
       <c r="B1145" s="1" t="s">
-        <v>346</v>
+        <v>742</v>
       </c>
       <c r="E1145" s="1"/>
       <c r="F1145" s="2"/>
@@ -14643,10 +14641,10 @@
     </row>
     <row r="1149" spans="1:6">
       <c r="A1149" s="2">
-        <v>663368</v>
+        <v>663457</v>
       </c>
       <c r="B1149" s="1" t="s">
-        <v>373</v>
+        <v>346</v>
       </c>
       <c r="E1149" s="1"/>
       <c r="F1149" s="2"/>
@@ -14663,10 +14661,10 @@
     </row>
     <row r="1151" spans="1:6">
       <c r="A1151" s="2">
-        <v>663330</v>
+        <v>663368</v>
       </c>
       <c r="B1151" s="1" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="E1151" s="1"/>
       <c r="F1151" s="2"/>
@@ -14683,10 +14681,10 @@
     </row>
     <row r="1153" spans="1:6">
       <c r="A1153" s="2">
-        <v>662139</v>
+        <v>663330</v>
       </c>
       <c r="B1153" s="1" t="s">
-        <v>2</v>
+        <v>380</v>
       </c>
       <c r="E1153" s="1"/>
       <c r="F1153" s="2"/>
@@ -14713,10 +14711,10 @@
     </row>
     <row r="1156" spans="1:6">
       <c r="A1156" s="2">
-        <v>661531</v>
+        <v>662139</v>
       </c>
       <c r="B1156" s="1" t="s">
-        <v>393</v>
+        <v>2</v>
       </c>
       <c r="E1156" s="1"/>
       <c r="F1156" s="2"/>
@@ -14743,10 +14741,10 @@
     </row>
     <row r="1159" spans="1:6">
       <c r="A1159" s="2">
-        <v>661388</v>
+        <v>661531</v>
       </c>
       <c r="B1159" s="1" t="s">
-        <v>296</v>
+        <v>393</v>
       </c>
       <c r="E1159" s="1"/>
       <c r="F1159" s="2"/>
@@ -14783,10 +14781,10 @@
     </row>
     <row r="1163" spans="1:6">
       <c r="A1163" s="2">
-        <v>660844</v>
+        <v>661388</v>
       </c>
       <c r="B1163" s="1" t="s">
-        <v>552</v>
+        <v>296</v>
       </c>
       <c r="E1163" s="1"/>
       <c r="F1163" s="2"/>
@@ -14803,20 +14801,20 @@
     </row>
     <row r="1165" spans="1:6">
       <c r="A1165" s="2">
-        <v>660829</v>
+        <v>660844</v>
       </c>
       <c r="B1165" s="1" t="s">
-        <v>741</v>
+        <v>552</v>
       </c>
       <c r="E1165" s="1"/>
       <c r="F1165" s="2"/>
     </row>
     <row r="1166" spans="1:6">
       <c r="A1166" s="2">
-        <v>660821</v>
+        <v>660829</v>
       </c>
       <c r="B1166" s="1" t="s">
-        <v>492</v>
+        <v>741</v>
       </c>
       <c r="E1166" s="1"/>
       <c r="F1166" s="2"/>
@@ -14853,10 +14851,10 @@
     </row>
     <row r="1170" spans="1:6">
       <c r="A1170" s="2">
-        <v>660766</v>
+        <v>660821</v>
       </c>
       <c r="B1170" s="1" t="s">
-        <v>424</v>
+        <v>492</v>
       </c>
       <c r="E1170" s="1"/>
       <c r="F1170" s="2"/>
@@ -14883,10 +14881,10 @@
     </row>
     <row r="1173" spans="1:6">
       <c r="A1173" s="2">
-        <v>660757</v>
+        <v>660766</v>
       </c>
       <c r="B1173" s="1" t="s">
-        <v>740</v>
+        <v>424</v>
       </c>
       <c r="E1173" s="1"/>
       <c r="F1173" s="2"/>
@@ -14913,10 +14911,10 @@
     </row>
     <row r="1176" spans="1:6">
       <c r="A1176" s="2">
-        <v>660707</v>
+        <v>660757</v>
       </c>
       <c r="B1176" s="1" t="s">
-        <v>27</v>
+        <v>740</v>
       </c>
       <c r="E1176" s="1"/>
       <c r="F1176" s="2"/>
@@ -14943,10 +14941,10 @@
     </row>
     <row r="1179" spans="1:6">
       <c r="A1179" s="2">
-        <v>660688</v>
+        <v>660707</v>
       </c>
       <c r="B1179" s="1" t="s">
-        <v>150</v>
+        <v>27</v>
       </c>
       <c r="E1179" s="1"/>
       <c r="F1179" s="2"/>
@@ -14983,10 +14981,10 @@
     </row>
     <row r="1183" spans="1:6">
       <c r="A1183" s="2">
-        <v>660670</v>
+        <v>660688</v>
       </c>
       <c r="B1183" s="1" t="s">
-        <v>455</v>
+        <v>150</v>
       </c>
       <c r="E1183" s="1"/>
       <c r="F1183" s="2"/>
@@ -15013,20 +15011,20 @@
     </row>
     <row r="1186" spans="1:6">
       <c r="A1186" s="2">
-        <v>660650</v>
+        <v>660670</v>
       </c>
       <c r="B1186" s="1" t="s">
-        <v>739</v>
+        <v>455</v>
       </c>
       <c r="E1186" s="1"/>
       <c r="F1186" s="2"/>
     </row>
     <row r="1187" spans="1:6">
       <c r="A1187" s="2">
-        <v>660644</v>
+        <v>660650</v>
       </c>
       <c r="B1187" s="1" t="s">
-        <v>448</v>
+        <v>739</v>
       </c>
       <c r="E1187" s="1"/>
       <c r="F1187" s="2"/>
@@ -15053,20 +15051,20 @@
     </row>
     <row r="1190" spans="1:6">
       <c r="A1190" s="2">
-        <v>660636</v>
+        <v>660644</v>
       </c>
       <c r="B1190" s="1" t="s">
-        <v>738</v>
+        <v>448</v>
       </c>
       <c r="E1190" s="1"/>
       <c r="F1190" s="2"/>
     </row>
     <row r="1191" spans="1:6">
       <c r="A1191" s="2">
-        <v>660634</v>
+        <v>660636</v>
       </c>
       <c r="B1191" s="1" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="E1191" s="1"/>
       <c r="F1191" s="2"/>
@@ -15083,10 +15081,10 @@
     </row>
     <row r="1193" spans="1:6">
       <c r="A1193" s="2">
-        <v>660620</v>
+        <v>660634</v>
       </c>
       <c r="B1193" s="1" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="E1193" s="1"/>
       <c r="F1193" s="2"/>
@@ -15103,20 +15101,20 @@
     </row>
     <row r="1195" spans="1:6">
       <c r="A1195" s="2">
-        <v>660294</v>
+        <v>660620</v>
       </c>
       <c r="B1195" s="1" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="E1195" s="1"/>
       <c r="F1195" s="2"/>
     </row>
     <row r="1196" spans="1:6">
       <c r="A1196" s="2">
-        <v>660271</v>
+        <v>660294</v>
       </c>
       <c r="B1196" s="1" t="s">
-        <v>318</v>
+        <v>735</v>
       </c>
       <c r="E1196" s="1"/>
       <c r="F1196" s="2"/>
@@ -15153,10 +15151,10 @@
     </row>
     <row r="1200" spans="1:6">
       <c r="A1200" s="2">
-        <v>660162</v>
+        <v>660271</v>
       </c>
       <c r="B1200" s="1" t="s">
-        <v>536</v>
+        <v>318</v>
       </c>
       <c r="E1200" s="1"/>
       <c r="F1200" s="2"/>
@@ -15193,10 +15191,10 @@
     </row>
     <row r="1204" spans="1:6">
       <c r="A1204" s="2">
-        <v>658668</v>
+        <v>660162</v>
       </c>
       <c r="B1204" s="1" t="s">
-        <v>203</v>
+        <v>536</v>
       </c>
       <c r="E1204" s="1"/>
       <c r="F1204" s="2"/>
@@ -15223,10 +15221,10 @@
     </row>
     <row r="1207" spans="1:6">
       <c r="A1207" s="2">
-        <v>657757</v>
+        <v>658668</v>
       </c>
       <c r="B1207" s="1" t="s">
-        <v>92</v>
+        <v>203</v>
       </c>
       <c r="E1207" s="1"/>
       <c r="F1207" s="2"/>
@@ -15263,20 +15261,20 @@
     </row>
     <row r="1211" spans="1:6">
       <c r="A1211" s="2">
-        <v>657709</v>
+        <v>657757</v>
       </c>
       <c r="B1211" s="1" t="s">
-        <v>734</v>
+        <v>92</v>
       </c>
       <c r="E1211" s="1"/>
       <c r="F1211" s="2"/>
     </row>
     <row r="1212" spans="1:6">
       <c r="A1212" s="2">
-        <v>657656</v>
+        <v>657709</v>
       </c>
       <c r="B1212" s="1" t="s">
-        <v>467</v>
+        <v>734</v>
       </c>
       <c r="E1212" s="1"/>
       <c r="F1212" s="2"/>
@@ -15313,10 +15311,10 @@
     </row>
     <row r="1216" spans="1:6">
       <c r="A1216" s="2">
-        <v>657557</v>
+        <v>657656</v>
       </c>
       <c r="B1216" s="1" t="s">
-        <v>196</v>
+        <v>467</v>
       </c>
       <c r="E1216" s="1"/>
       <c r="F1216" s="2"/>
@@ -15353,20 +15351,20 @@
     </row>
     <row r="1220" spans="1:6">
       <c r="A1220" s="2">
-        <v>657247</v>
+        <v>657557</v>
       </c>
       <c r="B1220" s="1" t="s">
-        <v>806</v>
+        <v>196</v>
       </c>
       <c r="E1220" s="1"/>
       <c r="F1220" s="2"/>
     </row>
     <row r="1221" spans="1:6">
       <c r="A1221" s="2">
-        <v>657193</v>
+        <v>657247</v>
       </c>
       <c r="B1221" s="1" t="s">
-        <v>733</v>
+        <v>806</v>
       </c>
       <c r="E1221" s="1"/>
       <c r="F1221" s="2"/>
@@ -15383,10 +15381,10 @@
     </row>
     <row r="1223" spans="1:6">
       <c r="A1223" s="2">
-        <v>657136</v>
+        <v>657193</v>
       </c>
       <c r="B1223" s="1" t="s">
-        <v>37</v>
+        <v>733</v>
       </c>
       <c r="E1223" s="1"/>
       <c r="F1223" s="2"/>
@@ -15423,10 +15421,10 @@
     </row>
     <row r="1227" spans="1:6">
       <c r="A1227" s="2">
-        <v>657088</v>
+        <v>657136</v>
       </c>
       <c r="B1227" s="1" t="s">
-        <v>385</v>
+        <v>37</v>
       </c>
       <c r="E1227" s="1"/>
       <c r="F1227" s="2"/>
@@ -15443,10 +15441,10 @@
     </row>
     <row r="1229" spans="1:6">
       <c r="A1229" s="2">
-        <v>657077</v>
+        <v>657088</v>
       </c>
       <c r="B1229" s="1" t="s">
-        <v>256</v>
+        <v>385</v>
       </c>
       <c r="E1229" s="1"/>
       <c r="F1229" s="2"/>
@@ -15483,10 +15481,10 @@
     </row>
     <row r="1233" spans="1:6">
       <c r="A1233" s="2">
-        <v>657061</v>
+        <v>657077</v>
       </c>
       <c r="B1233" s="1" t="s">
-        <v>382</v>
+        <v>256</v>
       </c>
       <c r="E1233" s="1"/>
       <c r="F1233" s="2"/>
@@ -15513,10 +15511,10 @@
     </row>
     <row r="1236" spans="1:6">
       <c r="A1236" s="2">
-        <v>657041</v>
+        <v>657061</v>
       </c>
       <c r="B1236" s="1" t="s">
-        <v>273</v>
+        <v>382</v>
       </c>
       <c r="E1236" s="1"/>
       <c r="F1236" s="2"/>
@@ -15553,10 +15551,10 @@
     </row>
     <row r="1240" spans="1:6">
       <c r="A1240" s="2">
-        <v>656976</v>
+        <v>657041</v>
       </c>
       <c r="B1240" s="1" t="s">
-        <v>162</v>
+        <v>273</v>
       </c>
       <c r="E1240" s="1"/>
       <c r="F1240" s="2"/>
@@ -15593,10 +15591,10 @@
     </row>
     <row r="1244" spans="1:6">
       <c r="A1244" s="2">
-        <v>656941</v>
+        <v>656976</v>
       </c>
       <c r="B1244" s="1" t="s">
-        <v>263</v>
+        <v>162</v>
       </c>
       <c r="E1244" s="1"/>
       <c r="F1244" s="2"/>
@@ -15633,10 +15631,10 @@
     </row>
     <row r="1248" spans="1:6">
       <c r="A1248" s="2">
-        <v>656896</v>
+        <v>656941</v>
       </c>
       <c r="B1248" s="1" t="s">
-        <v>311</v>
+        <v>263</v>
       </c>
       <c r="E1248" s="1"/>
       <c r="F1248" s="2"/>
@@ -15663,30 +15661,30 @@
     </row>
     <row r="1251" spans="1:6">
       <c r="A1251" s="2">
-        <v>656883</v>
+        <v>656896</v>
       </c>
       <c r="B1251" s="1" t="s">
-        <v>503</v>
+        <v>311</v>
       </c>
       <c r="E1251" s="1"/>
       <c r="F1251" s="2"/>
     </row>
     <row r="1252" spans="1:6">
       <c r="A1252" s="2">
-        <v>656821</v>
+        <v>656883</v>
       </c>
       <c r="B1252" s="1" t="s">
-        <v>732</v>
+        <v>503</v>
       </c>
       <c r="E1252" s="1"/>
       <c r="F1252" s="2"/>
     </row>
     <row r="1253" spans="1:6">
       <c r="A1253" s="2">
-        <v>656811</v>
+        <v>656821</v>
       </c>
       <c r="B1253" s="1" t="s">
-        <v>349</v>
+        <v>732</v>
       </c>
       <c r="E1253" s="1"/>
       <c r="F1253" s="2"/>
@@ -15723,10 +15721,10 @@
     </row>
     <row r="1257" spans="1:6">
       <c r="A1257" s="2">
-        <v>656775</v>
+        <v>656811</v>
       </c>
       <c r="B1257" s="1" t="s">
-        <v>157</v>
+        <v>349</v>
       </c>
       <c r="E1257" s="1"/>
       <c r="F1257" s="2"/>
@@ -15763,10 +15761,10 @@
     </row>
     <row r="1261" spans="1:6">
       <c r="A1261" s="2">
-        <v>656716</v>
+        <v>656775</v>
       </c>
       <c r="B1261" s="1" t="s">
-        <v>342</v>
+        <v>157</v>
       </c>
       <c r="E1261" s="1"/>
       <c r="F1261" s="2"/>
@@ -15803,20 +15801,20 @@
     </row>
     <row r="1265" spans="1:6">
       <c r="A1265" s="2">
-        <v>656695</v>
+        <v>656716</v>
       </c>
       <c r="B1265" s="1" t="s">
-        <v>731</v>
+        <v>342</v>
       </c>
       <c r="E1265" s="1"/>
       <c r="F1265" s="2"/>
     </row>
     <row r="1266" spans="1:6">
       <c r="A1266" s="2">
-        <v>656669</v>
+        <v>656695</v>
       </c>
       <c r="B1266" s="1" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="E1266" s="1"/>
       <c r="F1266" s="2"/>
@@ -15833,20 +15831,20 @@
     </row>
     <row r="1268" spans="1:6">
       <c r="A1268" s="2">
-        <v>656627</v>
+        <v>656669</v>
       </c>
       <c r="B1268" s="1" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="E1268" s="1"/>
       <c r="F1268" s="2"/>
     </row>
     <row r="1269" spans="1:6">
       <c r="A1269" s="2">
-        <v>656582</v>
+        <v>656627</v>
       </c>
       <c r="B1269" s="1" t="s">
-        <v>278</v>
+        <v>729</v>
       </c>
       <c r="E1269" s="1"/>
       <c r="F1269" s="2"/>
@@ -15883,10 +15881,10 @@
     </row>
     <row r="1273" spans="1:6">
       <c r="A1273" s="2">
-        <v>656577</v>
+        <v>656582</v>
       </c>
       <c r="B1273" s="1" t="s">
-        <v>451</v>
+        <v>278</v>
       </c>
       <c r="E1273" s="1"/>
       <c r="F1273" s="2"/>
@@ -15903,10 +15901,10 @@
     </row>
     <row r="1275" spans="1:6">
       <c r="A1275" s="2">
-        <v>656555</v>
+        <v>656577</v>
       </c>
       <c r="B1275" s="1" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
       <c r="E1275" s="1"/>
       <c r="F1275" s="2"/>
@@ -15933,10 +15931,10 @@
     </row>
     <row r="1278" spans="1:6">
       <c r="A1278" s="2">
-        <v>656541</v>
+        <v>656555</v>
       </c>
       <c r="B1278" s="1" t="s">
-        <v>421</v>
+        <v>442</v>
       </c>
       <c r="E1278" s="1"/>
       <c r="F1278" s="2"/>
@@ -15963,10 +15961,10 @@
     </row>
     <row r="1281" spans="1:6">
       <c r="A1281" s="2">
-        <v>656537</v>
+        <v>656541</v>
       </c>
       <c r="B1281" s="1" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="E1281" s="1"/>
       <c r="F1281" s="2"/>
@@ -16003,10 +16001,10 @@
     </row>
     <row r="1285" spans="1:6">
       <c r="A1285" s="2">
-        <v>656514</v>
+        <v>656537</v>
       </c>
       <c r="B1285" s="1" t="s">
-        <v>728</v>
+        <v>415</v>
       </c>
       <c r="E1285" s="1"/>
       <c r="F1285" s="2"/>
@@ -16023,20 +16021,20 @@
     </row>
     <row r="1287" spans="1:6">
       <c r="A1287" s="2">
-        <v>656509</v>
+        <v>656514</v>
       </c>
       <c r="B1287" s="1" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="E1287" s="1"/>
       <c r="F1287" s="2"/>
     </row>
     <row r="1288" spans="1:6">
       <c r="A1288" s="2">
-        <v>656495</v>
+        <v>656509</v>
       </c>
       <c r="B1288" s="1" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="E1288" s="1"/>
       <c r="F1288" s="2"/>
@@ -16053,20 +16051,20 @@
     </row>
     <row r="1290" spans="1:6">
       <c r="A1290" s="2">
-        <v>656484</v>
+        <v>656495</v>
       </c>
       <c r="B1290" s="1" t="s">
-        <v>838</v>
+        <v>726</v>
       </c>
       <c r="E1290" s="1"/>
       <c r="F1290" s="2"/>
     </row>
     <row r="1291" spans="1:6">
       <c r="A1291" s="2">
-        <v>656448</v>
+        <v>656484</v>
       </c>
       <c r="B1291" s="1" t="s">
-        <v>725</v>
+        <v>838</v>
       </c>
       <c r="E1291" s="1"/>
       <c r="F1291" s="2"/>
@@ -16083,10 +16081,10 @@
     </row>
     <row r="1293" spans="1:6">
       <c r="A1293" s="2">
-        <v>656413</v>
+        <v>656448</v>
       </c>
       <c r="B1293" s="1" t="s">
-        <v>121</v>
+        <v>725</v>
       </c>
       <c r="E1293" s="1"/>
       <c r="F1293" s="2"/>
@@ -16123,10 +16121,10 @@
     </row>
     <row r="1297" spans="1:6">
       <c r="A1297" s="2">
-        <v>656403</v>
+        <v>656413</v>
       </c>
       <c r="B1297" s="1" t="s">
-        <v>724</v>
+        <v>121</v>
       </c>
       <c r="E1297" s="1"/>
       <c r="F1297" s="2"/>
@@ -16143,30 +16141,30 @@
     </row>
     <row r="1299" spans="1:6">
       <c r="A1299" s="2">
-        <v>656388</v>
+        <v>656403</v>
       </c>
       <c r="B1299" s="1" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="E1299" s="1"/>
       <c r="F1299" s="2"/>
     </row>
     <row r="1300" spans="1:6">
       <c r="A1300" s="2">
-        <v>656371</v>
+        <v>656388</v>
       </c>
       <c r="B1300" s="1" t="s">
-        <v>805</v>
+        <v>723</v>
       </c>
       <c r="E1300" s="1"/>
       <c r="F1300" s="2"/>
     </row>
     <row r="1301" spans="1:6">
       <c r="A1301" s="2">
-        <v>656308</v>
+        <v>656371</v>
       </c>
       <c r="B1301" s="1" t="s">
-        <v>722</v>
+        <v>805</v>
       </c>
       <c r="E1301" s="1"/>
       <c r="F1301" s="2"/>
@@ -16183,10 +16181,10 @@
     </row>
     <row r="1303" spans="1:6">
       <c r="A1303" s="2">
-        <v>656305</v>
+        <v>656308</v>
       </c>
       <c r="B1303" s="1" t="s">
-        <v>255</v>
+        <v>722</v>
       </c>
       <c r="E1303" s="1"/>
       <c r="F1303" s="2"/>
@@ -16223,20 +16221,20 @@
     </row>
     <row r="1307" spans="1:6">
       <c r="A1307" s="2">
-        <v>656252</v>
+        <v>656305</v>
       </c>
       <c r="B1307" s="1" t="s">
-        <v>721</v>
+        <v>255</v>
       </c>
       <c r="E1307" s="1"/>
       <c r="F1307" s="2"/>
     </row>
     <row r="1308" spans="1:6">
       <c r="A1308" s="2">
-        <v>656248</v>
+        <v>656252</v>
       </c>
       <c r="B1308" s="1" t="s">
-        <v>409</v>
+        <v>721</v>
       </c>
       <c r="E1308" s="1"/>
       <c r="F1308" s="2"/>
@@ -16273,10 +16271,10 @@
     </row>
     <row r="1312" spans="1:6">
       <c r="A1312" s="2">
-        <v>656185</v>
+        <v>656248</v>
       </c>
       <c r="B1312" s="1" t="s">
-        <v>720</v>
+        <v>409</v>
       </c>
       <c r="E1312" s="1"/>
       <c r="F1312" s="2"/>
@@ -16293,10 +16291,10 @@
     </row>
     <row r="1314" spans="1:6">
       <c r="A1314" s="2">
-        <v>656180</v>
+        <v>656185</v>
       </c>
       <c r="B1314" s="1" t="s">
-        <v>363</v>
+        <v>720</v>
       </c>
       <c r="E1314" s="1"/>
       <c r="F1314" s="2"/>
@@ -16333,10 +16331,10 @@
     </row>
     <row r="1318" spans="1:6">
       <c r="A1318" s="2">
-        <v>656024</v>
+        <v>656180</v>
       </c>
       <c r="B1318" s="1" t="s">
-        <v>719</v>
+        <v>363</v>
       </c>
       <c r="E1318" s="1"/>
       <c r="F1318" s="2"/>
@@ -16353,10 +16351,10 @@
     </row>
     <row r="1320" spans="1:6">
       <c r="A1320" s="2">
-        <v>655316</v>
+        <v>656024</v>
       </c>
       <c r="B1320" s="1" t="s">
-        <v>112</v>
+        <v>719</v>
       </c>
       <c r="E1320" s="1"/>
       <c r="F1320" s="2"/>
@@ -16373,20 +16371,20 @@
     </row>
     <row r="1322" spans="1:6">
       <c r="A1322" s="2">
-        <v>650968</v>
+        <v>655316</v>
       </c>
       <c r="B1322" s="1" t="s">
-        <v>881</v>
+        <v>112</v>
       </c>
       <c r="E1322" s="1"/>
       <c r="F1322" s="2"/>
     </row>
     <row r="1323" spans="1:6">
       <c r="A1323" s="2">
-        <v>650907</v>
+        <v>650968</v>
       </c>
       <c r="B1323" s="1" t="s">
-        <v>528</v>
+        <v>881</v>
       </c>
       <c r="E1323" s="1"/>
       <c r="F1323" s="2"/>
@@ -16413,10 +16411,10 @@
     </row>
     <row r="1326" spans="1:6">
       <c r="A1326" s="2">
-        <v>650859</v>
+        <v>650907</v>
       </c>
       <c r="B1326" s="1" t="s">
-        <v>14</v>
+        <v>528</v>
       </c>
       <c r="E1326" s="1"/>
       <c r="F1326" s="2"/>
@@ -16453,20 +16451,20 @@
     </row>
     <row r="1330" spans="1:6">
       <c r="A1330" s="2">
-        <v>650619</v>
+        <v>650859</v>
       </c>
       <c r="B1330" s="1" t="s">
-        <v>718</v>
+        <v>14</v>
       </c>
       <c r="E1330" s="1"/>
       <c r="F1330" s="2"/>
     </row>
     <row r="1331" spans="1:6">
       <c r="A1331" s="2">
-        <v>650559</v>
+        <v>650619</v>
       </c>
       <c r="B1331" s="1" t="s">
-        <v>66</v>
+        <v>718</v>
       </c>
       <c r="E1331" s="1"/>
       <c r="F1331" s="2"/>
@@ -16503,10 +16501,10 @@
     </row>
     <row r="1335" spans="1:6">
       <c r="A1335" s="2">
-        <v>650490</v>
+        <v>650559</v>
       </c>
       <c r="B1335" s="1" t="s">
-        <v>482</v>
+        <v>66</v>
       </c>
       <c r="E1335" s="1"/>
       <c r="F1335" s="2"/>
@@ -16543,10 +16541,10 @@
     </row>
     <row r="1339" spans="1:6">
       <c r="A1339" s="2">
-        <v>650489</v>
+        <v>650490</v>
       </c>
       <c r="B1339" s="1" t="s">
-        <v>151</v>
+        <v>482</v>
       </c>
       <c r="E1339" s="1"/>
       <c r="F1339" s="2"/>
@@ -16583,10 +16581,10 @@
     </row>
     <row r="1343" spans="1:6">
       <c r="A1343" s="2">
-        <v>650402</v>
+        <v>650489</v>
       </c>
       <c r="B1343" s="1" t="s">
-        <v>16</v>
+        <v>151</v>
       </c>
       <c r="E1343" s="1"/>
       <c r="F1343" s="2"/>
@@ -16623,10 +16621,10 @@
     </row>
     <row r="1347" spans="1:6">
       <c r="A1347" s="2">
-        <v>650391</v>
+        <v>650402</v>
       </c>
       <c r="B1347" s="1" t="s">
-        <v>474</v>
+        <v>16</v>
       </c>
       <c r="E1347" s="1"/>
       <c r="F1347" s="2"/>
@@ -16653,20 +16651,20 @@
     </row>
     <row r="1350" spans="1:6">
       <c r="A1350" s="2">
-        <v>650339</v>
+        <v>650391</v>
       </c>
       <c r="B1350" s="1" t="s">
-        <v>717</v>
+        <v>474</v>
       </c>
       <c r="E1350" s="1"/>
       <c r="F1350" s="2"/>
     </row>
     <row r="1351" spans="1:6">
       <c r="A1351" s="2">
-        <v>650333</v>
+        <v>650339</v>
       </c>
       <c r="B1351" s="1" t="s">
-        <v>158</v>
+        <v>717</v>
       </c>
       <c r="E1351" s="1"/>
       <c r="F1351" s="2"/>
@@ -16703,20 +16701,20 @@
     </row>
     <row r="1355" spans="1:6">
       <c r="A1355" s="2">
-        <v>650331</v>
+        <v>650333</v>
       </c>
       <c r="B1355" s="1" t="s">
-        <v>716</v>
+        <v>158</v>
       </c>
       <c r="E1355" s="1"/>
       <c r="F1355" s="2"/>
     </row>
     <row r="1356" spans="1:6">
       <c r="A1356" s="2">
-        <v>649966</v>
+        <v>650331</v>
       </c>
       <c r="B1356" s="1" t="s">
-        <v>547</v>
+        <v>716</v>
       </c>
       <c r="E1356" s="1"/>
       <c r="F1356" s="2"/>
@@ -16753,10 +16751,10 @@
     </row>
     <row r="1360" spans="1:6">
       <c r="A1360" s="2">
-        <v>649557</v>
+        <v>649966</v>
       </c>
       <c r="B1360" s="1" t="s">
-        <v>527</v>
+        <v>547</v>
       </c>
       <c r="E1360" s="1"/>
       <c r="F1360" s="2"/>
@@ -16783,10 +16781,10 @@
     </row>
     <row r="1363" spans="1:6">
       <c r="A1363" s="2">
-        <v>647351</v>
+        <v>649557</v>
       </c>
       <c r="B1363" s="1" t="s">
-        <v>392</v>
+        <v>527</v>
       </c>
       <c r="E1363" s="1"/>
       <c r="F1363" s="2"/>
@@ -16813,10 +16811,10 @@
     </row>
     <row r="1366" spans="1:6">
       <c r="A1366" s="2">
-        <v>647304</v>
+        <v>647351</v>
       </c>
       <c r="B1366" s="1" t="s">
-        <v>21</v>
+        <v>392</v>
       </c>
       <c r="E1366" s="1"/>
       <c r="F1366" s="2"/>
@@ -16853,10 +16851,10 @@
     </row>
     <row r="1370" spans="1:6">
       <c r="A1370" s="2">
-        <v>646240</v>
+        <v>647304</v>
       </c>
       <c r="B1370" s="1" t="s">
-        <v>71</v>
+        <v>21</v>
       </c>
       <c r="E1370" s="1"/>
       <c r="F1370" s="2"/>
@@ -16893,10 +16891,10 @@
     </row>
     <row r="1374" spans="1:6">
       <c r="A1374" s="2">
-        <v>645801</v>
+        <v>646240</v>
       </c>
       <c r="B1374" s="1" t="s">
-        <v>22</v>
+        <v>71</v>
       </c>
       <c r="E1374" s="1"/>
       <c r="F1374" s="2"/>
@@ -16923,10 +16921,10 @@
     </row>
     <row r="1377" spans="1:6">
       <c r="A1377" s="2">
-        <v>645444</v>
+        <v>645801</v>
       </c>
       <c r="B1377" s="1" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E1377" s="1"/>
       <c r="F1377" s="2"/>
@@ -16963,20 +16961,20 @@
     </row>
     <row r="1381" spans="1:6">
       <c r="A1381" s="2">
-        <v>645305</v>
+        <v>645444</v>
       </c>
       <c r="B1381" s="1" t="s">
-        <v>530</v>
+        <v>10</v>
       </c>
       <c r="E1381" s="1"/>
       <c r="F1381" s="2"/>
     </row>
     <row r="1382" spans="1:6">
       <c r="A1382" s="2">
-        <v>645302</v>
+        <v>645305</v>
       </c>
       <c r="B1382" s="1" t="s">
-        <v>332</v>
+        <v>530</v>
       </c>
       <c r="E1382" s="1"/>
       <c r="F1382" s="2"/>
@@ -17013,10 +17011,10 @@
     </row>
     <row r="1386" spans="1:6">
       <c r="A1386" s="2">
-        <v>645277</v>
+        <v>645302</v>
       </c>
       <c r="B1386" s="1" t="s">
-        <v>117</v>
+        <v>332</v>
       </c>
       <c r="E1386" s="1"/>
       <c r="F1386" s="2"/>
@@ -17053,10 +17051,10 @@
     </row>
     <row r="1390" spans="1:6">
       <c r="A1390" s="2">
-        <v>644433</v>
+        <v>645277</v>
       </c>
       <c r="B1390" s="1" t="s">
-        <v>387</v>
+        <v>117</v>
       </c>
       <c r="E1390" s="1"/>
       <c r="F1390" s="2"/>
@@ -17073,10 +17071,10 @@
     </row>
     <row r="1392" spans="1:6">
       <c r="A1392" s="2">
-        <v>644374</v>
+        <v>644433</v>
       </c>
       <c r="B1392" s="1" t="s">
-        <v>715</v>
+        <v>387</v>
       </c>
       <c r="E1392" s="1"/>
       <c r="F1392" s="2"/>
@@ -17093,10 +17091,10 @@
     </row>
     <row r="1394" spans="1:6">
       <c r="A1394" s="2">
-        <v>643565</v>
+        <v>644374</v>
       </c>
       <c r="B1394" s="1" t="s">
-        <v>238</v>
+        <v>715</v>
       </c>
       <c r="E1394" s="1"/>
       <c r="F1394" s="2"/>
@@ -17123,20 +17121,20 @@
     </row>
     <row r="1397" spans="1:6">
       <c r="A1397" s="2">
-        <v>643524</v>
+        <v>643565</v>
       </c>
       <c r="B1397" s="1" t="s">
-        <v>714</v>
+        <v>238</v>
       </c>
       <c r="E1397" s="1"/>
       <c r="F1397" s="2"/>
     </row>
     <row r="1398" spans="1:6">
       <c r="A1398" s="2">
-        <v>643446</v>
+        <v>643524</v>
       </c>
       <c r="B1398" s="1" t="s">
-        <v>361</v>
+        <v>714</v>
       </c>
       <c r="E1398" s="1"/>
       <c r="F1398" s="2"/>
@@ -17173,10 +17171,10 @@
     </row>
     <row r="1402" spans="1:6">
       <c r="A1402" s="2">
-        <v>643396</v>
+        <v>643446</v>
       </c>
       <c r="B1402" s="1" t="s">
-        <v>193</v>
+        <v>361</v>
       </c>
       <c r="E1402" s="1"/>
       <c r="F1402" s="2"/>
@@ -17213,10 +17211,10 @@
     </row>
     <row r="1406" spans="1:6">
       <c r="A1406" s="2">
-        <v>643393</v>
+        <v>643396</v>
       </c>
       <c r="B1406" s="1" t="s">
-        <v>261</v>
+        <v>193</v>
       </c>
       <c r="E1406" s="1"/>
       <c r="F1406" s="2"/>
@@ -17243,10 +17241,10 @@
     </row>
     <row r="1409" spans="1:6">
       <c r="A1409" s="2">
-        <v>643376</v>
+        <v>643393</v>
       </c>
       <c r="B1409" s="1" t="s">
-        <v>48</v>
+        <v>261</v>
       </c>
       <c r="E1409" s="1"/>
       <c r="F1409" s="2"/>
@@ -17283,20 +17281,20 @@
     </row>
     <row r="1413" spans="1:6">
       <c r="A1413" s="2">
-        <v>643348</v>
+        <v>643376</v>
       </c>
       <c r="B1413" s="1" t="s">
-        <v>713</v>
+        <v>48</v>
       </c>
       <c r="E1413" s="1"/>
       <c r="F1413" s="2"/>
     </row>
     <row r="1414" spans="1:6">
       <c r="A1414" s="2">
-        <v>643289</v>
+        <v>643348</v>
       </c>
       <c r="B1414" s="1" t="s">
-        <v>456</v>
+        <v>713</v>
       </c>
       <c r="E1414" s="1"/>
       <c r="F1414" s="2"/>
@@ -17333,10 +17331,10 @@
     </row>
     <row r="1418" spans="1:6">
       <c r="A1418" s="2">
-        <v>643265</v>
+        <v>643289</v>
       </c>
       <c r="B1418" s="1" t="s">
-        <v>291</v>
+        <v>456</v>
       </c>
       <c r="E1418" s="1"/>
       <c r="F1418" s="2"/>
@@ -17363,10 +17361,10 @@
     </row>
     <row r="1421" spans="1:6">
       <c r="A1421" s="2">
-        <v>643217</v>
+        <v>643265</v>
       </c>
       <c r="B1421" s="1" t="s">
-        <v>42</v>
+        <v>291</v>
       </c>
       <c r="E1421" s="1"/>
       <c r="F1421" s="2"/>
@@ -17403,10 +17401,10 @@
     </row>
     <row r="1425" spans="1:6">
       <c r="A1425" s="2">
-        <v>642851</v>
+        <v>643217</v>
       </c>
       <c r="B1425" s="1" t="s">
-        <v>347</v>
+        <v>42</v>
       </c>
       <c r="E1425" s="1"/>
       <c r="F1425" s="2"/>
@@ -17443,10 +17441,10 @@
     </row>
     <row r="1429" spans="1:6">
       <c r="A1429" s="2">
-        <v>642731</v>
+        <v>642851</v>
       </c>
       <c r="B1429" s="1" t="s">
-        <v>81</v>
+        <v>347</v>
       </c>
       <c r="E1429" s="1"/>
       <c r="F1429" s="2"/>
@@ -17473,30 +17471,30 @@
     </row>
     <row r="1432" spans="1:6">
       <c r="A1432" s="2">
-        <v>642727</v>
+        <v>642731</v>
       </c>
       <c r="B1432" s="1" t="s">
-        <v>712</v>
+        <v>81</v>
       </c>
       <c r="E1432" s="1"/>
       <c r="F1432" s="2"/>
     </row>
     <row r="1433" spans="1:6">
       <c r="A1433" s="2">
-        <v>642721</v>
+        <v>642727</v>
       </c>
       <c r="B1433" s="1" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="E1433" s="1"/>
       <c r="F1433" s="2"/>
     </row>
     <row r="1434" spans="1:6">
       <c r="A1434" s="2">
-        <v>642715</v>
+        <v>642721</v>
       </c>
       <c r="B1434" s="1" t="s">
-        <v>110</v>
+        <v>711</v>
       </c>
       <c r="E1434" s="1"/>
       <c r="F1434" s="2"/>
@@ -17533,10 +17531,10 @@
     </row>
     <row r="1438" spans="1:6">
       <c r="A1438" s="2">
-        <v>642708</v>
+        <v>642715</v>
       </c>
       <c r="B1438" s="1" t="s">
-        <v>45</v>
+        <v>110</v>
       </c>
       <c r="E1438" s="1"/>
       <c r="F1438" s="2"/>
@@ -17573,30 +17571,30 @@
     </row>
     <row r="1442" spans="1:6">
       <c r="A1442" s="2">
-        <v>642456</v>
+        <v>642708</v>
       </c>
       <c r="B1442" s="1" t="s">
-        <v>710</v>
+        <v>45</v>
       </c>
       <c r="E1442" s="1"/>
       <c r="F1442" s="2"/>
     </row>
     <row r="1443" spans="1:6">
       <c r="A1443" s="2">
-        <v>642423</v>
+        <v>642456</v>
       </c>
       <c r="B1443" s="1" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="E1443" s="1"/>
       <c r="F1443" s="2"/>
     </row>
     <row r="1444" spans="1:6">
       <c r="A1444" s="2">
-        <v>642350</v>
+        <v>642423</v>
       </c>
       <c r="B1444" s="1" t="s">
-        <v>325</v>
+        <v>709</v>
       </c>
       <c r="E1444" s="1"/>
       <c r="F1444" s="2"/>
@@ -17633,10 +17631,10 @@
     </row>
     <row r="1448" spans="1:6">
       <c r="A1448" s="2">
-        <v>642336</v>
+        <v>642350</v>
       </c>
       <c r="B1448" s="1" t="s">
-        <v>708</v>
+        <v>325</v>
       </c>
       <c r="E1448" s="1"/>
       <c r="F1448" s="2"/>
@@ -17653,10 +17651,10 @@
     </row>
     <row r="1450" spans="1:6">
       <c r="A1450" s="2">
-        <v>642215</v>
+        <v>642336</v>
       </c>
       <c r="B1450" s="1" t="s">
-        <v>388</v>
+        <v>708</v>
       </c>
       <c r="E1450" s="1"/>
       <c r="F1450" s="2"/>
@@ -17673,10 +17671,10 @@
     </row>
     <row r="1452" spans="1:6">
       <c r="A1452" s="2">
-        <v>642201</v>
+        <v>642215</v>
       </c>
       <c r="B1452" s="1" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="E1452" s="1"/>
       <c r="F1452" s="2"/>
@@ -17713,20 +17711,20 @@
     </row>
     <row r="1456" spans="1:6">
       <c r="A1456" s="2">
-        <v>642197</v>
+        <v>642201</v>
       </c>
       <c r="B1456" s="1" t="s">
-        <v>532</v>
+        <v>383</v>
       </c>
       <c r="E1456" s="1"/>
       <c r="F1456" s="2"/>
     </row>
     <row r="1457" spans="1:6">
       <c r="A1457" s="2">
-        <v>642180</v>
+        <v>642197</v>
       </c>
       <c r="B1457" s="1" t="s">
-        <v>418</v>
+        <v>532</v>
       </c>
       <c r="E1457" s="1"/>
       <c r="F1457" s="2"/>
@@ -17763,20 +17761,20 @@
     </row>
     <row r="1461" spans="1:6">
       <c r="A1461" s="2">
-        <v>642165</v>
+        <v>642180</v>
       </c>
       <c r="B1461" s="1" t="s">
-        <v>707</v>
+        <v>418</v>
       </c>
       <c r="E1461" s="1"/>
       <c r="F1461" s="2"/>
     </row>
     <row r="1462" spans="1:6">
       <c r="A1462" s="2">
-        <v>642137</v>
+        <v>642165</v>
       </c>
       <c r="B1462" s="1" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="E1462" s="1"/>
       <c r="F1462" s="2"/>
@@ -17793,10 +17791,10 @@
     </row>
     <row r="1464" spans="1:6">
       <c r="A1464" s="2">
-        <v>642136</v>
+        <v>642137</v>
       </c>
       <c r="B1464" s="1" t="s">
-        <v>295</v>
+        <v>706</v>
       </c>
       <c r="E1464" s="1"/>
       <c r="F1464" s="2"/>
@@ -17833,10 +17831,10 @@
     </row>
     <row r="1468" spans="1:6">
       <c r="A1468" s="2">
-        <v>642133</v>
+        <v>642136</v>
       </c>
       <c r="B1468" s="1" t="s">
-        <v>152</v>
+        <v>295</v>
       </c>
       <c r="E1468" s="1"/>
       <c r="F1468" s="2"/>
@@ -17873,10 +17871,10 @@
     </row>
     <row r="1472" spans="1:6">
       <c r="A1472" s="2">
-        <v>642086</v>
+        <v>642133</v>
       </c>
       <c r="B1472" s="1" t="s">
-        <v>287</v>
+        <v>152</v>
       </c>
       <c r="E1472" s="1"/>
       <c r="F1472" s="2"/>
@@ -17903,10 +17901,10 @@
     </row>
     <row r="1475" spans="1:6">
       <c r="A1475" s="2">
-        <v>642020</v>
+        <v>642086</v>
       </c>
       <c r="B1475" s="1" t="s">
-        <v>705</v>
+        <v>287</v>
       </c>
       <c r="E1475" s="1"/>
       <c r="F1475" s="2"/>
@@ -17923,10 +17921,10 @@
     </row>
     <row r="1477" spans="1:6">
       <c r="A1477" s="2">
-        <v>641943</v>
+        <v>642020</v>
       </c>
       <c r="B1477" s="1" t="s">
-        <v>249</v>
+        <v>705</v>
       </c>
       <c r="E1477" s="1"/>
       <c r="F1477" s="2"/>
@@ -17963,10 +17961,10 @@
     </row>
     <row r="1481" spans="1:6">
       <c r="A1481" s="2">
-        <v>641933</v>
+        <v>641943</v>
       </c>
       <c r="B1481" s="1" t="s">
-        <v>182</v>
+        <v>249</v>
       </c>
       <c r="E1481" s="1"/>
       <c r="F1481" s="2"/>
@@ -18003,20 +18001,20 @@
     </row>
     <row r="1485" spans="1:6">
       <c r="A1485" s="2">
-        <v>641914</v>
+        <v>641933</v>
       </c>
       <c r="B1485" s="1" t="s">
-        <v>704</v>
+        <v>182</v>
       </c>
       <c r="E1485" s="1"/>
       <c r="F1485" s="2"/>
     </row>
     <row r="1486" spans="1:6">
       <c r="A1486" s="2">
-        <v>641857</v>
+        <v>641914</v>
       </c>
       <c r="B1486" s="1" t="s">
-        <v>86</v>
+        <v>704</v>
       </c>
       <c r="E1486" s="1"/>
       <c r="F1486" s="2"/>
@@ -18053,10 +18051,10 @@
     </row>
     <row r="1490" spans="1:6">
       <c r="A1490" s="2">
-        <v>641856</v>
+        <v>641857</v>
       </c>
       <c r="B1490" s="1" t="s">
-        <v>703</v>
+        <v>86</v>
       </c>
       <c r="E1490" s="1"/>
       <c r="F1490" s="2"/>
@@ -18083,10 +18081,10 @@
     </row>
     <row r="1493" spans="1:6">
       <c r="A1493" s="2">
-        <v>641820</v>
+        <v>641856</v>
       </c>
       <c r="B1493" s="1" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="E1493" s="1"/>
       <c r="F1493" s="2"/>
@@ -18103,10 +18101,10 @@
     </row>
     <row r="1495" spans="1:6">
       <c r="A1495" s="2">
-        <v>641796</v>
+        <v>641820</v>
       </c>
       <c r="B1495" s="1" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="E1495" s="1"/>
       <c r="F1495" s="2"/>
@@ -18123,10 +18121,10 @@
     </row>
     <row r="1497" spans="1:6">
       <c r="A1497" s="2">
-        <v>641786</v>
+        <v>641796</v>
       </c>
       <c r="B1497" s="1" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="E1497" s="1"/>
       <c r="F1497" s="2"/>
@@ -18143,10 +18141,10 @@
     </row>
     <row r="1499" spans="1:6">
       <c r="A1499" s="2">
-        <v>641779</v>
+        <v>641786</v>
       </c>
       <c r="B1499" s="1" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="E1499" s="1"/>
       <c r="F1499" s="2"/>
@@ -18163,30 +18161,30 @@
     </row>
     <row r="1501" spans="1:6">
       <c r="A1501" s="2">
-        <v>641741</v>
+        <v>641779</v>
       </c>
       <c r="B1501" s="1" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="E1501" s="1"/>
       <c r="F1501" s="2"/>
     </row>
     <row r="1502" spans="1:6">
       <c r="A1502" s="2">
-        <v>641684</v>
+        <v>641741</v>
       </c>
       <c r="B1502" s="1" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="E1502" s="1"/>
       <c r="F1502" s="2"/>
     </row>
     <row r="1503" spans="1:6">
       <c r="A1503" s="2">
-        <v>641680</v>
+        <v>641684</v>
       </c>
       <c r="B1503" s="1" t="s">
-        <v>246</v>
+        <v>697</v>
       </c>
       <c r="E1503" s="1"/>
       <c r="F1503" s="2"/>
@@ -18223,10 +18221,10 @@
     </row>
     <row r="1507" spans="1:6">
       <c r="A1507" s="2">
-        <v>641658</v>
+        <v>641680</v>
       </c>
       <c r="B1507" s="1" t="s">
-        <v>165</v>
+        <v>246</v>
       </c>
       <c r="E1507" s="1"/>
       <c r="F1507" s="2"/>
@@ -18263,10 +18261,10 @@
     </row>
     <row r="1511" spans="1:6">
       <c r="A1511" s="2">
-        <v>641645</v>
+        <v>641658</v>
       </c>
       <c r="B1511" s="1" t="s">
-        <v>231</v>
+        <v>165</v>
       </c>
       <c r="E1511" s="1"/>
       <c r="F1511" s="2"/>
@@ -18293,10 +18291,10 @@
     </row>
     <row r="1514" spans="1:6">
       <c r="A1514" s="2">
-        <v>641598</v>
+        <v>641645</v>
       </c>
       <c r="B1514" s="1" t="s">
-        <v>156</v>
+        <v>231</v>
       </c>
       <c r="E1514" s="1"/>
       <c r="F1514" s="2"/>
@@ -18333,10 +18331,10 @@
     </row>
     <row r="1518" spans="1:6">
       <c r="A1518" s="2">
-        <v>641584</v>
+        <v>641598</v>
       </c>
       <c r="B1518" s="1" t="s">
-        <v>64</v>
+        <v>156</v>
       </c>
       <c r="E1518" s="1"/>
       <c r="F1518" s="2"/>
@@ -18373,30 +18371,30 @@
     </row>
     <row r="1522" spans="1:6">
       <c r="A1522" s="2">
-        <v>641555</v>
+        <v>641584</v>
       </c>
       <c r="B1522" s="1" t="s">
-        <v>901</v>
+        <v>64</v>
       </c>
       <c r="E1522" s="1"/>
       <c r="F1522" s="2"/>
     </row>
     <row r="1523" spans="1:6">
       <c r="A1523" s="2">
-        <v>641553</v>
+        <v>641555</v>
       </c>
       <c r="B1523" s="1" t="s">
-        <v>696</v>
+        <v>901</v>
       </c>
       <c r="E1523" s="1"/>
       <c r="F1523" s="2"/>
     </row>
     <row r="1524" spans="1:6">
       <c r="A1524" s="2">
-        <v>641531</v>
+        <v>641553</v>
       </c>
       <c r="B1524" s="1" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="E1524" s="1"/>
       <c r="F1524" s="2"/>
@@ -18413,10 +18411,10 @@
     </row>
     <row r="1526" spans="1:6">
       <c r="A1526" s="2">
-        <v>641525</v>
+        <v>641531</v>
       </c>
       <c r="B1526" s="1" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="E1526" s="1"/>
       <c r="F1526" s="2"/>
@@ -18433,30 +18431,30 @@
     </row>
     <row r="1528" spans="1:6">
       <c r="A1528" s="2">
-        <v>641513</v>
+        <v>641525</v>
       </c>
       <c r="B1528" s="1" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="E1528" s="1"/>
       <c r="F1528" s="2"/>
     </row>
     <row r="1529" spans="1:6">
       <c r="A1529" s="2">
-        <v>641512</v>
+        <v>641513</v>
       </c>
       <c r="B1529" s="1" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="E1529" s="1"/>
       <c r="F1529" s="2"/>
     </row>
     <row r="1530" spans="1:6">
       <c r="A1530" s="2">
-        <v>641511</v>
+        <v>641512</v>
       </c>
       <c r="B1530" s="1" t="s">
-        <v>365</v>
+        <v>692</v>
       </c>
       <c r="E1530" s="1"/>
       <c r="F1530" s="2"/>
@@ -18483,10 +18481,10 @@
     </row>
     <row r="1533" spans="1:6">
       <c r="A1533" s="2">
-        <v>641505</v>
+        <v>641511</v>
       </c>
       <c r="B1533" s="1" t="s">
-        <v>691</v>
+        <v>365</v>
       </c>
       <c r="E1533" s="1"/>
       <c r="F1533" s="2"/>
@@ -18503,10 +18501,10 @@
     </row>
     <row r="1535" spans="1:6">
       <c r="A1535" s="2">
-        <v>641487</v>
+        <v>641505</v>
       </c>
       <c r="B1535" s="1" t="s">
-        <v>313</v>
+        <v>691</v>
       </c>
       <c r="E1535" s="1"/>
       <c r="F1535" s="2"/>
@@ -18543,20 +18541,20 @@
     </row>
     <row r="1539" spans="1:6">
       <c r="A1539" s="2">
-        <v>641470</v>
+        <v>641487</v>
       </c>
       <c r="B1539" s="1" t="s">
-        <v>690</v>
+        <v>313</v>
       </c>
       <c r="E1539" s="1"/>
       <c r="F1539" s="2"/>
     </row>
     <row r="1540" spans="1:6">
       <c r="A1540" s="2">
-        <v>641432</v>
+        <v>641470</v>
       </c>
       <c r="B1540" s="1" t="s">
-        <v>109</v>
+        <v>690</v>
       </c>
       <c r="E1540" s="1"/>
       <c r="F1540" s="2"/>
@@ -18583,10 +18581,10 @@
     </row>
     <row r="1543" spans="1:6">
       <c r="A1543" s="2">
-        <v>641355</v>
+        <v>641432</v>
       </c>
       <c r="B1543" s="1" t="s">
-        <v>250</v>
+        <v>109</v>
       </c>
       <c r="E1543" s="1"/>
       <c r="F1543" s="2"/>
@@ -18623,10 +18621,10 @@
     </row>
     <row r="1547" spans="1:6">
       <c r="A1547" s="2">
-        <v>641343</v>
+        <v>641355</v>
       </c>
       <c r="B1547" s="1" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="E1547" s="1"/>
       <c r="F1547" s="2"/>
@@ -18653,10 +18651,10 @@
     </row>
     <row r="1550" spans="1:6">
       <c r="A1550" s="2">
-        <v>641313</v>
+        <v>641343</v>
       </c>
       <c r="B1550" s="1" t="s">
-        <v>143</v>
+        <v>244</v>
       </c>
       <c r="E1550" s="1"/>
       <c r="F1550" s="2"/>
@@ -18693,10 +18691,10 @@
     </row>
     <row r="1554" spans="1:6">
       <c r="A1554" s="2">
-        <v>640902</v>
+        <v>641313</v>
       </c>
       <c r="B1554" s="1" t="s">
-        <v>837</v>
+        <v>143</v>
       </c>
       <c r="E1554" s="1"/>
       <c r="F1554" s="2"/>
@@ -18713,10 +18711,10 @@
     </row>
     <row r="1556" spans="1:6">
       <c r="A1556" s="2">
-        <v>640492</v>
+        <v>640902</v>
       </c>
       <c r="B1556" s="1" t="s">
-        <v>485</v>
+        <v>837</v>
       </c>
       <c r="E1556" s="1"/>
       <c r="F1556" s="2"/>
@@ -18753,20 +18751,20 @@
     </row>
     <row r="1560" spans="1:6">
       <c r="A1560" s="2">
-        <v>640461</v>
+        <v>640492</v>
       </c>
       <c r="B1560" s="1" t="s">
-        <v>689</v>
+        <v>485</v>
       </c>
       <c r="E1560" s="1"/>
       <c r="F1560" s="2"/>
     </row>
     <row r="1561" spans="1:6">
       <c r="A1561" s="2">
-        <v>640458</v>
+        <v>640461</v>
       </c>
       <c r="B1561" s="1" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="E1561" s="1"/>
       <c r="F1561" s="2"/>
@@ -18783,10 +18781,10 @@
     </row>
     <row r="1563" spans="1:6">
       <c r="A1563" s="2">
-        <v>640457</v>
+        <v>640458</v>
       </c>
       <c r="B1563" s="1" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="E1563" s="1"/>
       <c r="F1563" s="2"/>
@@ -18803,10 +18801,10 @@
     </row>
     <row r="1565" spans="1:6">
       <c r="A1565" s="2">
-        <v>640449</v>
+        <v>640457</v>
       </c>
       <c r="B1565" s="1" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="E1565" s="1"/>
       <c r="F1565" s="2"/>
@@ -18823,10 +18821,10 @@
     </row>
     <row r="1567" spans="1:6">
       <c r="A1567" s="2">
-        <v>630105</v>
+        <v>640449</v>
       </c>
       <c r="B1567" s="1" t="s">
-        <v>329</v>
+        <v>686</v>
       </c>
       <c r="E1567" s="1"/>
       <c r="F1567" s="2"/>
@@ -18863,10 +18861,10 @@
     </row>
     <row r="1571" spans="1:6">
       <c r="A1571" s="2">
-        <v>628451</v>
+        <v>630105</v>
       </c>
       <c r="B1571" s="1" t="s">
-        <v>484</v>
+        <v>329</v>
       </c>
       <c r="E1571" s="1"/>
       <c r="F1571" s="2"/>
@@ -18903,30 +18901,30 @@
     </row>
     <row r="1575" spans="1:6">
       <c r="A1575" s="2">
-        <v>628450</v>
+        <v>628451</v>
       </c>
       <c r="B1575" s="1" t="s">
-        <v>685</v>
+        <v>484</v>
       </c>
       <c r="E1575" s="1"/>
       <c r="F1575" s="2"/>
     </row>
     <row r="1576" spans="1:6">
       <c r="A1576" s="2">
-        <v>628338</v>
+        <v>628450</v>
       </c>
       <c r="B1576" s="1" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="E1576" s="1"/>
       <c r="F1576" s="2"/>
     </row>
     <row r="1577" spans="1:6">
       <c r="A1577" s="2">
-        <v>624641</v>
+        <v>628338</v>
       </c>
       <c r="B1577" s="1" t="s">
-        <v>25</v>
+        <v>684</v>
       </c>
       <c r="E1577" s="1"/>
       <c r="F1577" s="2"/>
@@ -18963,10 +18961,10 @@
     </row>
     <row r="1581" spans="1:6">
       <c r="A1581" s="2">
-        <v>624585</v>
+        <v>624641</v>
       </c>
       <c r="B1581" s="1" t="s">
-        <v>343</v>
+        <v>25</v>
       </c>
       <c r="E1581" s="1"/>
       <c r="F1581" s="2"/>
@@ -19003,20 +19001,20 @@
     </row>
     <row r="1585" spans="1:6">
       <c r="A1585" s="2">
-        <v>624513</v>
+        <v>624585</v>
       </c>
       <c r="B1585" s="1" t="s">
-        <v>683</v>
+        <v>343</v>
       </c>
       <c r="E1585" s="1"/>
       <c r="F1585" s="2"/>
     </row>
     <row r="1586" spans="1:6">
       <c r="A1586" s="2">
-        <v>624512</v>
+        <v>624513</v>
       </c>
       <c r="B1586" s="1" t="s">
-        <v>137</v>
+        <v>683</v>
       </c>
       <c r="E1586" s="1"/>
       <c r="F1586" s="2"/>
@@ -19043,10 +19041,10 @@
     </row>
     <row r="1589" spans="1:6">
       <c r="A1589" s="2">
-        <v>624503</v>
+        <v>624512</v>
       </c>
       <c r="B1589" s="1" t="s">
-        <v>167</v>
+        <v>137</v>
       </c>
       <c r="E1589" s="1"/>
       <c r="F1589" s="2"/>
@@ -19073,10 +19071,10 @@
     </row>
     <row r="1592" spans="1:6">
       <c r="A1592" s="2">
-        <v>624431</v>
+        <v>624503</v>
       </c>
       <c r="B1592" s="1" t="s">
-        <v>115</v>
+        <v>167</v>
       </c>
       <c r="E1592" s="1"/>
       <c r="F1592" s="2"/>
@@ -19113,10 +19111,10 @@
     </row>
     <row r="1596" spans="1:6">
       <c r="A1596" s="2">
-        <v>624428</v>
+        <v>624431</v>
       </c>
       <c r="B1596" s="1" t="s">
-        <v>200</v>
+        <v>115</v>
       </c>
       <c r="E1596" s="1"/>
       <c r="F1596" s="2"/>
@@ -19153,10 +19151,10 @@
     </row>
     <row r="1600" spans="1:6">
       <c r="A1600" s="2">
-        <v>624424</v>
+        <v>624428</v>
       </c>
       <c r="B1600" s="1" t="s">
-        <v>141</v>
+        <v>200</v>
       </c>
       <c r="E1600" s="1"/>
       <c r="F1600" s="2"/>
@@ -19183,10 +19181,10 @@
     </row>
     <row r="1603" spans="1:6">
       <c r="A1603" s="2">
-        <v>624415</v>
+        <v>624424</v>
       </c>
       <c r="B1603" s="1" t="s">
-        <v>229</v>
+        <v>141</v>
       </c>
       <c r="E1603" s="1"/>
       <c r="F1603" s="2"/>
@@ -19223,10 +19221,10 @@
     </row>
     <row r="1607" spans="1:6">
       <c r="A1607" s="2">
-        <v>624414</v>
+        <v>624415</v>
       </c>
       <c r="B1607" s="1" t="s">
-        <v>682</v>
+        <v>229</v>
       </c>
       <c r="E1607" s="1"/>
       <c r="F1607" s="2"/>
@@ -19243,10 +19241,10 @@
     </row>
     <row r="1609" spans="1:6">
       <c r="A1609" s="2">
-        <v>624413</v>
+        <v>624414</v>
       </c>
       <c r="B1609" s="1" t="s">
-        <v>32</v>
+        <v>682</v>
       </c>
       <c r="E1609" s="1"/>
       <c r="F1609" s="2"/>
@@ -19283,10 +19281,10 @@
     </row>
     <row r="1613" spans="1:6">
       <c r="A1613" s="2">
-        <v>623993</v>
+        <v>624413</v>
       </c>
       <c r="B1613" s="1" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="E1613" s="1"/>
       <c r="F1613" s="2"/>
@@ -19323,10 +19321,10 @@
     </row>
     <row r="1617" spans="1:6">
       <c r="A1617" s="2">
-        <v>623912</v>
+        <v>623993</v>
       </c>
       <c r="B1617" s="1" t="s">
-        <v>468</v>
+        <v>4</v>
       </c>
       <c r="E1617" s="1"/>
       <c r="F1617" s="2"/>
@@ -19353,10 +19351,10 @@
     </row>
     <row r="1620" spans="1:6">
       <c r="A1620" s="2">
-        <v>623520</v>
+        <v>623912</v>
       </c>
       <c r="B1620" s="1" t="s">
-        <v>533</v>
+        <v>468</v>
       </c>
       <c r="E1620" s="1"/>
       <c r="F1620" s="2"/>
@@ -19373,20 +19371,20 @@
     </row>
     <row r="1622" spans="1:6">
       <c r="A1622" s="2">
-        <v>623507</v>
+        <v>623520</v>
       </c>
       <c r="B1622" s="1" t="s">
-        <v>804</v>
+        <v>533</v>
       </c>
       <c r="E1622" s="1"/>
       <c r="F1622" s="2"/>
     </row>
     <row r="1623" spans="1:6">
       <c r="A1623" s="2">
-        <v>623205</v>
+        <v>623507</v>
       </c>
       <c r="B1623" s="1" t="s">
-        <v>681</v>
+        <v>804</v>
       </c>
       <c r="E1623" s="1"/>
       <c r="F1623" s="2"/>
@@ -19403,10 +19401,10 @@
     </row>
     <row r="1625" spans="1:6">
       <c r="A1625" s="2">
-        <v>623168</v>
+        <v>623205</v>
       </c>
       <c r="B1625" s="1" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="E1625" s="1"/>
       <c r="F1625" s="2"/>
@@ -19443,10 +19441,10 @@
     </row>
     <row r="1629" spans="1:6">
       <c r="A1629" s="2">
-        <v>622761</v>
+        <v>623168</v>
       </c>
       <c r="B1629" s="1" t="s">
-        <v>146</v>
+        <v>680</v>
       </c>
       <c r="E1629" s="1"/>
       <c r="F1629" s="2"/>
@@ -19483,20 +19481,20 @@
     </row>
     <row r="1633" spans="1:6">
       <c r="A1633" s="2">
-        <v>622682</v>
+        <v>622761</v>
       </c>
       <c r="B1633" s="1" t="s">
-        <v>679</v>
+        <v>146</v>
       </c>
       <c r="E1633" s="1"/>
       <c r="F1633" s="2"/>
     </row>
     <row r="1634" spans="1:6">
       <c r="A1634" s="2">
-        <v>622666</v>
+        <v>622682</v>
       </c>
       <c r="B1634" s="1" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="E1634" s="1"/>
       <c r="F1634" s="2"/>
@@ -19513,10 +19511,10 @@
     </row>
     <row r="1636" spans="1:6">
       <c r="A1636" s="2">
-        <v>622569</v>
+        <v>622666</v>
       </c>
       <c r="B1636" s="1" t="s">
-        <v>276</v>
+        <v>678</v>
       </c>
       <c r="E1636" s="1"/>
       <c r="F1636" s="2"/>
@@ -19553,10 +19551,10 @@
     </row>
     <row r="1640" spans="1:6">
       <c r="A1640" s="2">
-        <v>622534</v>
+        <v>622569</v>
       </c>
       <c r="B1640" s="1" t="s">
-        <v>213</v>
+        <v>276</v>
       </c>
       <c r="E1640" s="1"/>
       <c r="F1640" s="2"/>
@@ -19593,10 +19591,10 @@
     </row>
     <row r="1644" spans="1:6">
       <c r="A1644" s="2">
-        <v>622268</v>
+        <v>622534</v>
       </c>
       <c r="B1644" s="1" t="s">
-        <v>677</v>
+        <v>213</v>
       </c>
       <c r="E1644" s="1"/>
       <c r="F1644" s="2"/>
@@ -19613,20 +19611,20 @@
     </row>
     <row r="1646" spans="1:6">
       <c r="A1646" s="2">
-        <v>622168</v>
+        <v>622268</v>
       </c>
       <c r="B1646" s="1" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="E1646" s="1"/>
       <c r="F1646" s="2"/>
     </row>
     <row r="1647" spans="1:6">
       <c r="A1647" s="2">
-        <v>622110</v>
+        <v>622168</v>
       </c>
       <c r="B1647" s="1" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="E1647" s="1"/>
       <c r="F1647" s="2"/>
@@ -19653,10 +19651,10 @@
     </row>
     <row r="1650" spans="1:6">
       <c r="A1650" s="2">
-        <v>621566</v>
+        <v>622110</v>
       </c>
       <c r="B1650" s="1" t="s">
-        <v>111</v>
+        <v>675</v>
       </c>
       <c r="E1650" s="1"/>
       <c r="F1650" s="2"/>
@@ -19693,10 +19691,10 @@
     </row>
     <row r="1654" spans="1:6">
       <c r="A1654" s="2">
-        <v>621563</v>
+        <v>621566</v>
       </c>
       <c r="B1654" s="1" t="s">
-        <v>51</v>
+        <v>111</v>
       </c>
       <c r="E1654" s="1"/>
       <c r="F1654" s="2"/>
@@ -19723,10 +19721,10 @@
     </row>
     <row r="1657" spans="1:6">
       <c r="A1657" s="2">
-        <v>621550</v>
+        <v>621563</v>
       </c>
       <c r="B1657" s="1" t="s">
-        <v>290</v>
+        <v>51</v>
       </c>
       <c r="E1657" s="1"/>
       <c r="F1657" s="2"/>
@@ -19753,10 +19751,10 @@
     </row>
     <row r="1660" spans="1:6">
       <c r="A1660" s="2">
-        <v>621545</v>
+        <v>621550</v>
       </c>
       <c r="B1660" s="1" t="s">
-        <v>76</v>
+        <v>290</v>
       </c>
       <c r="E1660" s="1"/>
       <c r="F1660" s="2"/>
@@ -19773,10 +19771,10 @@
     </row>
     <row r="1662" spans="1:6">
       <c r="A1662" s="2">
-        <v>621532</v>
+        <v>621545</v>
       </c>
       <c r="B1662" s="1" t="s">
-        <v>674</v>
+        <v>76</v>
       </c>
       <c r="E1662" s="1"/>
       <c r="F1662" s="2"/>
@@ -19793,10 +19791,10 @@
     </row>
     <row r="1664" spans="1:6">
       <c r="A1664" s="2">
-        <v>621512</v>
+        <v>621532</v>
       </c>
       <c r="B1664" s="1" t="s">
-        <v>472</v>
+        <v>674</v>
       </c>
       <c r="E1664" s="1"/>
       <c r="F1664" s="2"/>
@@ -19833,10 +19831,10 @@
     </row>
     <row r="1668" spans="1:6">
       <c r="A1668" s="2">
-        <v>621493</v>
+        <v>621512</v>
       </c>
       <c r="B1668" s="1" t="s">
-        <v>30</v>
+        <v>472</v>
       </c>
       <c r="E1668" s="1"/>
       <c r="F1668" s="2"/>
@@ -19873,10 +19871,10 @@
     </row>
     <row r="1672" spans="1:6">
       <c r="A1672" s="2">
-        <v>621466</v>
+        <v>621493</v>
       </c>
       <c r="B1672" s="1" t="s">
-        <v>177</v>
+        <v>30</v>
       </c>
       <c r="E1672" s="1"/>
       <c r="F1672" s="2"/>
@@ -19893,10 +19891,10 @@
     </row>
     <row r="1674" spans="1:6">
       <c r="A1674" s="2">
-        <v>621458</v>
+        <v>621466</v>
       </c>
       <c r="B1674" s="1" t="s">
-        <v>391</v>
+        <v>177</v>
       </c>
       <c r="E1674" s="1"/>
       <c r="F1674" s="2"/>
@@ -19923,40 +19921,40 @@
     </row>
     <row r="1677" spans="1:6">
       <c r="A1677" s="2">
-        <v>621453</v>
+        <v>621458</v>
       </c>
       <c r="B1677" s="1" t="s">
-        <v>673</v>
+        <v>391</v>
       </c>
       <c r="E1677" s="1"/>
       <c r="F1677" s="2"/>
     </row>
     <row r="1678" spans="1:6">
       <c r="A1678" s="2">
-        <v>621450</v>
+        <v>621453</v>
       </c>
       <c r="B1678" s="1" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="E1678" s="1"/>
       <c r="F1678" s="2"/>
     </row>
     <row r="1679" spans="1:6">
       <c r="A1679" s="2">
-        <v>621446</v>
+        <v>621450</v>
       </c>
       <c r="B1679" s="1" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="E1679" s="1"/>
       <c r="F1679" s="2"/>
     </row>
     <row r="1680" spans="1:6">
       <c r="A1680" s="2">
-        <v>621439</v>
+        <v>621446</v>
       </c>
       <c r="B1680" s="1" t="s">
-        <v>69</v>
+        <v>671</v>
       </c>
       <c r="E1680" s="1"/>
       <c r="F1680" s="2"/>
@@ -19993,10 +19991,10 @@
     </row>
     <row r="1684" spans="1:6">
       <c r="A1684" s="2">
-        <v>621438</v>
+        <v>621439</v>
       </c>
       <c r="B1684" s="1" t="s">
-        <v>348</v>
+        <v>69</v>
       </c>
       <c r="E1684" s="1"/>
       <c r="F1684" s="2"/>
@@ -20033,10 +20031,10 @@
     </row>
     <row r="1688" spans="1:6">
       <c r="A1688" s="2">
-        <v>621433</v>
+        <v>621438</v>
       </c>
       <c r="B1688" s="1" t="s">
-        <v>670</v>
+        <v>348</v>
       </c>
       <c r="E1688" s="1"/>
       <c r="F1688" s="2"/>
@@ -20053,20 +20051,20 @@
     </row>
     <row r="1690" spans="1:6">
       <c r="A1690" s="2">
-        <v>621311</v>
+        <v>621433</v>
       </c>
       <c r="B1690" s="1" t="s">
-        <v>540</v>
+        <v>670</v>
       </c>
       <c r="E1690" s="1"/>
       <c r="F1690" s="2"/>
     </row>
     <row r="1691" spans="1:6">
       <c r="A1691" s="2">
-        <v>621043</v>
+        <v>621311</v>
       </c>
       <c r="B1691" s="1" t="s">
-        <v>114</v>
+        <v>540</v>
       </c>
       <c r="E1691" s="1"/>
       <c r="F1691" s="2"/>
@@ -20103,10 +20101,10 @@
     </row>
     <row r="1695" spans="1:6">
       <c r="A1695" s="2">
-        <v>621035</v>
+        <v>621043</v>
       </c>
       <c r="B1695" s="1" t="s">
-        <v>56</v>
+        <v>114</v>
       </c>
       <c r="E1695" s="1"/>
       <c r="F1695" s="2"/>
@@ -20143,10 +20141,10 @@
     </row>
     <row r="1699" spans="1:6">
       <c r="A1699" s="2">
-        <v>621028</v>
+        <v>621035</v>
       </c>
       <c r="B1699" s="1" t="s">
-        <v>275</v>
+        <v>56</v>
       </c>
       <c r="E1699" s="1"/>
       <c r="F1699" s="2"/>
@@ -20183,10 +20181,10 @@
     </row>
     <row r="1703" spans="1:6">
       <c r="A1703" s="2">
-        <v>621020</v>
+        <v>621028</v>
       </c>
       <c r="B1703" s="1" t="s">
-        <v>11</v>
+        <v>275</v>
       </c>
       <c r="E1703" s="1"/>
       <c r="F1703" s="2"/>
@@ -20223,30 +20221,30 @@
     </row>
     <row r="1707" spans="1:6">
       <c r="A1707" s="2">
-        <v>621011</v>
+        <v>621020</v>
       </c>
       <c r="B1707" s="1" t="s">
-        <v>669</v>
+        <v>11</v>
       </c>
       <c r="E1707" s="1"/>
       <c r="F1707" s="2"/>
     </row>
     <row r="1708" spans="1:6">
       <c r="A1708" s="2">
-        <v>621006</v>
+        <v>621011</v>
       </c>
       <c r="B1708" s="1" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="E1708" s="1"/>
       <c r="F1708" s="2"/>
     </row>
     <row r="1709" spans="1:6">
       <c r="A1709" s="2">
-        <v>620443</v>
+        <v>621006</v>
       </c>
       <c r="B1709" s="1" t="s">
-        <v>397</v>
+        <v>668</v>
       </c>
       <c r="E1709" s="1"/>
       <c r="F1709" s="2"/>
@@ -20283,10 +20281,10 @@
     </row>
     <row r="1713" spans="1:6">
       <c r="A1713" s="2">
-        <v>614177</v>
+        <v>620443</v>
       </c>
       <c r="B1713" s="1" t="s">
-        <v>667</v>
+        <v>397</v>
       </c>
       <c r="E1713" s="1"/>
       <c r="F1713" s="2"/>
@@ -20303,10 +20301,10 @@
     </row>
     <row r="1715" spans="1:6">
       <c r="A1715" s="2">
-        <v>614173</v>
+        <v>614177</v>
       </c>
       <c r="B1715" s="1" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="E1715" s="1"/>
       <c r="F1715" s="2"/>
@@ -20323,10 +20321,10 @@
     </row>
     <row r="1717" spans="1:6">
       <c r="A1717" s="2">
-        <v>613564</v>
+        <v>614173</v>
       </c>
       <c r="B1717" s="1" t="s">
-        <v>417</v>
+        <v>666</v>
       </c>
       <c r="E1717" s="1"/>
       <c r="F1717" s="2"/>
@@ -20353,10 +20351,10 @@
     </row>
     <row r="1720" spans="1:6">
       <c r="A1720" s="2">
-        <v>609280</v>
+        <v>613564</v>
       </c>
       <c r="B1720" s="1" t="s">
-        <v>107</v>
+        <v>417</v>
       </c>
       <c r="E1720" s="1"/>
       <c r="F1720" s="2"/>
@@ -20393,30 +20391,30 @@
     </row>
     <row r="1724" spans="1:6">
       <c r="A1724" s="2">
-        <v>609275</v>
+        <v>609280</v>
       </c>
       <c r="B1724" s="1" t="s">
-        <v>665</v>
+        <v>107</v>
       </c>
       <c r="E1724" s="1"/>
       <c r="F1724" s="2"/>
     </row>
     <row r="1725" spans="1:6">
       <c r="A1725" s="2">
-        <v>609274</v>
+        <v>609275</v>
       </c>
       <c r="B1725" s="1" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="E1725" s="1"/>
       <c r="F1725" s="2"/>
     </row>
     <row r="1726" spans="1:6">
       <c r="A1726" s="2">
-        <v>608841</v>
+        <v>609274</v>
       </c>
       <c r="B1726" s="1" t="s">
-        <v>164</v>
+        <v>664</v>
       </c>
       <c r="E1726" s="1"/>
       <c r="F1726" s="2"/>
@@ -20443,20 +20441,20 @@
     </row>
     <row r="1729" spans="1:6">
       <c r="A1729" s="2">
-        <v>608703</v>
+        <v>608841</v>
       </c>
       <c r="B1729" s="1" t="s">
-        <v>663</v>
+        <v>164</v>
       </c>
       <c r="E1729" s="1"/>
       <c r="F1729" s="2"/>
     </row>
     <row r="1730" spans="1:6">
       <c r="A1730" s="2">
-        <v>608701</v>
+        <v>608703</v>
       </c>
       <c r="B1730" s="1" t="s">
-        <v>324</v>
+        <v>663</v>
       </c>
       <c r="E1730" s="1"/>
       <c r="F1730" s="2"/>
@@ -20493,30 +20491,30 @@
     </row>
     <row r="1734" spans="1:6">
       <c r="A1734" s="2">
-        <v>608700</v>
+        <v>608701</v>
       </c>
       <c r="B1734" s="1" t="s">
-        <v>662</v>
+        <v>324</v>
       </c>
       <c r="E1734" s="1"/>
       <c r="F1734" s="2"/>
     </row>
     <row r="1735" spans="1:6">
       <c r="A1735" s="2">
-        <v>608686</v>
+        <v>608700</v>
       </c>
       <c r="B1735" s="1" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="E1735" s="1"/>
       <c r="F1735" s="2"/>
     </row>
     <row r="1736" spans="1:6">
       <c r="A1736" s="2">
-        <v>608671</v>
+        <v>608686</v>
       </c>
       <c r="B1736" s="1" t="s">
-        <v>161</v>
+        <v>661</v>
       </c>
       <c r="E1736" s="1"/>
       <c r="F1736" s="2"/>
@@ -20553,10 +20551,10 @@
     </row>
     <row r="1740" spans="1:6">
       <c r="A1740" s="2">
-        <v>608596</v>
+        <v>608671</v>
       </c>
       <c r="B1740" s="1" t="s">
-        <v>225</v>
+        <v>161</v>
       </c>
       <c r="E1740" s="1"/>
       <c r="F1740" s="2"/>
@@ -20583,30 +20581,30 @@
     </row>
     <row r="1743" spans="1:6">
       <c r="A1743" s="2">
-        <v>608577</v>
+        <v>608596</v>
       </c>
       <c r="B1743" s="1" t="s">
-        <v>660</v>
+        <v>225</v>
       </c>
       <c r="E1743" s="1"/>
       <c r="F1743" s="2"/>
     </row>
     <row r="1744" spans="1:6">
       <c r="A1744" s="2">
-        <v>608422</v>
+        <v>608577</v>
       </c>
       <c r="B1744" s="1" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="E1744" s="1"/>
       <c r="F1744" s="2"/>
     </row>
     <row r="1745" spans="1:6">
       <c r="A1745" s="2">
-        <v>608385</v>
+        <v>608422</v>
       </c>
       <c r="B1745" s="1" t="s">
-        <v>41</v>
+        <v>659</v>
       </c>
       <c r="E1745" s="1"/>
       <c r="F1745" s="2"/>
@@ -20643,10 +20641,10 @@
     </row>
     <row r="1749" spans="1:6">
       <c r="A1749" s="2">
-        <v>608369</v>
+        <v>608385</v>
       </c>
       <c r="B1749" s="1" t="s">
-        <v>206</v>
+        <v>41</v>
       </c>
       <c r="E1749" s="1"/>
       <c r="F1749" s="2"/>
@@ -20683,20 +20681,20 @@
     </row>
     <row r="1753" spans="1:6">
       <c r="A1753" s="2">
-        <v>608360</v>
+        <v>608369</v>
       </c>
       <c r="B1753" s="1" t="s">
-        <v>658</v>
+        <v>206</v>
       </c>
       <c r="E1753" s="1"/>
       <c r="F1753" s="2"/>
     </row>
     <row r="1754" spans="1:6">
       <c r="A1754" s="2">
-        <v>608348</v>
+        <v>608360</v>
       </c>
       <c r="B1754" s="1" t="s">
-        <v>369</v>
+        <v>658</v>
       </c>
       <c r="E1754" s="1"/>
       <c r="F1754" s="2"/>
@@ -20733,10 +20731,10 @@
     </row>
     <row r="1758" spans="1:6">
       <c r="A1758" s="2">
-        <v>608336</v>
+        <v>608348</v>
       </c>
       <c r="B1758" s="1" t="s">
-        <v>351</v>
+        <v>369</v>
       </c>
       <c r="E1758" s="1"/>
       <c r="F1758" s="2"/>
@@ -20763,10 +20761,10 @@
     </row>
     <row r="1761" spans="1:6">
       <c r="A1761" s="2">
-        <v>608324</v>
+        <v>608336</v>
       </c>
       <c r="B1761" s="1" t="s">
-        <v>207</v>
+        <v>351</v>
       </c>
       <c r="E1761" s="1"/>
       <c r="F1761" s="2"/>
@@ -20803,10 +20801,10 @@
     </row>
     <row r="1765" spans="1:6">
       <c r="A1765" s="2">
-        <v>608070</v>
+        <v>608324</v>
       </c>
       <c r="B1765" s="1" t="s">
-        <v>483</v>
+        <v>207</v>
       </c>
       <c r="E1765" s="1"/>
       <c r="F1765" s="2"/>
@@ -20843,10 +20841,10 @@
     </row>
     <row r="1769" spans="1:6">
       <c r="A1769" s="2">
-        <v>607732</v>
+        <v>608070</v>
       </c>
       <c r="B1769" s="1" t="s">
-        <v>190</v>
+        <v>483</v>
       </c>
       <c r="E1769" s="1"/>
       <c r="F1769" s="2"/>
@@ -20883,10 +20881,10 @@
     </row>
     <row r="1773" spans="1:6">
       <c r="A1773" s="2">
-        <v>607680</v>
+        <v>607732</v>
       </c>
       <c r="B1773" s="1" t="s">
-        <v>102</v>
+        <v>190</v>
       </c>
       <c r="E1773" s="1"/>
       <c r="F1773" s="2"/>
@@ -20923,10 +20921,10 @@
     </row>
     <row r="1777" spans="1:6">
       <c r="A1777" s="2">
-        <v>607461</v>
+        <v>607680</v>
       </c>
       <c r="B1777" s="1" t="s">
-        <v>657</v>
+        <v>102</v>
       </c>
       <c r="E1777" s="1"/>
       <c r="F1777" s="2"/>
@@ -20943,20 +20941,20 @@
     </row>
     <row r="1779" spans="1:6">
       <c r="A1779" s="2">
-        <v>607249</v>
+        <v>607461</v>
       </c>
       <c r="B1779" s="1" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="E1779" s="1"/>
       <c r="F1779" s="2"/>
     </row>
     <row r="1780" spans="1:6">
       <c r="A1780" s="2">
-        <v>607208</v>
+        <v>607249</v>
       </c>
       <c r="B1780" s="1" t="s">
-        <v>34</v>
+        <v>656</v>
       </c>
       <c r="E1780" s="1"/>
       <c r="F1780" s="2"/>
@@ -20993,10 +20991,10 @@
     </row>
     <row r="1784" spans="1:6">
       <c r="A1784" s="2">
-        <v>607054</v>
+        <v>607208</v>
       </c>
       <c r="B1784" s="1" t="s">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="E1784" s="1"/>
       <c r="F1784" s="2"/>
@@ -21023,10 +21021,10 @@
     </row>
     <row r="1787" spans="1:6">
       <c r="A1787" s="2">
-        <v>607043</v>
+        <v>607054</v>
       </c>
       <c r="B1787" s="1" t="s">
-        <v>127</v>
+        <v>5</v>
       </c>
       <c r="E1787" s="1"/>
       <c r="F1787" s="2"/>
@@ -21063,20 +21061,20 @@
     </row>
     <row r="1791" spans="1:6">
       <c r="A1791" s="2">
-        <v>606993</v>
+        <v>607043</v>
       </c>
       <c r="B1791" s="1" t="s">
-        <v>655</v>
+        <v>127</v>
       </c>
       <c r="E1791" s="1"/>
       <c r="F1791" s="2"/>
     </row>
     <row r="1792" spans="1:6">
       <c r="A1792" s="2">
-        <v>606992</v>
+        <v>606993</v>
       </c>
       <c r="B1792" s="1" t="s">
-        <v>345</v>
+        <v>655</v>
       </c>
       <c r="E1792" s="1"/>
       <c r="F1792" s="2"/>
@@ -21113,10 +21111,10 @@
     </row>
     <row r="1796" spans="1:6">
       <c r="A1796" s="2">
-        <v>606466</v>
+        <v>606992</v>
       </c>
       <c r="B1796" s="1" t="s">
-        <v>94</v>
+        <v>345</v>
       </c>
       <c r="E1796" s="1"/>
       <c r="F1796" s="2"/>
@@ -21153,20 +21151,20 @@
     </row>
     <row r="1800" spans="1:6">
       <c r="A1800" s="2">
-        <v>606213</v>
+        <v>606466</v>
       </c>
       <c r="B1800" s="1" t="s">
-        <v>654</v>
+        <v>94</v>
       </c>
       <c r="E1800" s="1"/>
       <c r="F1800" s="2"/>
     </row>
     <row r="1801" spans="1:6">
       <c r="A1801" s="2">
-        <v>606192</v>
+        <v>606213</v>
       </c>
       <c r="B1801" s="1" t="s">
-        <v>498</v>
+        <v>654</v>
       </c>
       <c r="E1801" s="1"/>
       <c r="F1801" s="2"/>
@@ -21203,20 +21201,20 @@
     </row>
     <row r="1805" spans="1:6">
       <c r="A1805" s="2">
-        <v>606157</v>
+        <v>606192</v>
       </c>
       <c r="B1805" s="1" t="s">
-        <v>653</v>
+        <v>498</v>
       </c>
       <c r="E1805" s="1"/>
       <c r="F1805" s="2"/>
     </row>
     <row r="1806" spans="1:6">
       <c r="A1806" s="2">
-        <v>606132</v>
+        <v>606157</v>
       </c>
       <c r="B1806" s="1" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="E1806" s="1"/>
       <c r="F1806" s="2"/>
@@ -21233,10 +21231,10 @@
     </row>
     <row r="1808" spans="1:6">
       <c r="A1808" s="2">
-        <v>606115</v>
+        <v>606132</v>
       </c>
       <c r="B1808" s="1" t="s">
-        <v>147</v>
+        <v>652</v>
       </c>
       <c r="E1808" s="1"/>
       <c r="F1808" s="2"/>
@@ -21273,20 +21271,20 @@
     </row>
     <row r="1812" spans="1:6">
       <c r="A1812" s="2">
-        <v>606019</v>
+        <v>606115</v>
       </c>
       <c r="B1812" s="1" t="s">
-        <v>651</v>
+        <v>147</v>
       </c>
       <c r="E1812" s="1"/>
       <c r="F1812" s="2"/>
     </row>
     <row r="1813" spans="1:6">
       <c r="A1813" s="2">
-        <v>605612</v>
+        <v>606019</v>
       </c>
       <c r="B1813" s="1" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="E1813" s="1"/>
       <c r="F1813" s="2"/>
@@ -21303,40 +21301,40 @@
     </row>
     <row r="1815" spans="1:6">
       <c r="A1815" s="2">
-        <v>605548</v>
+        <v>605612</v>
       </c>
       <c r="B1815" s="1" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="E1815" s="1"/>
       <c r="F1815" s="2"/>
     </row>
     <row r="1816" spans="1:6">
       <c r="A1816" s="2">
-        <v>605504</v>
+        <v>605548</v>
       </c>
       <c r="B1816" s="1" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="E1816" s="1"/>
       <c r="F1816" s="2"/>
     </row>
     <row r="1817" spans="1:6">
       <c r="A1817" s="2">
-        <v>605421</v>
+        <v>605504</v>
       </c>
       <c r="B1817" s="1" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="E1817" s="1"/>
       <c r="F1817" s="2"/>
     </row>
     <row r="1818" spans="1:6">
       <c r="A1818" s="2">
-        <v>605361</v>
+        <v>605421</v>
       </c>
       <c r="B1818" s="1" t="s">
-        <v>375</v>
+        <v>647</v>
       </c>
       <c r="E1818" s="1"/>
       <c r="F1818" s="2"/>
@@ -21363,40 +21361,40 @@
     </row>
     <row r="1821" spans="1:6">
       <c r="A1821" s="2">
-        <v>605353</v>
+        <v>605361</v>
       </c>
       <c r="B1821" s="1" t="s">
-        <v>646</v>
+        <v>375</v>
       </c>
       <c r="E1821" s="1"/>
       <c r="F1821" s="2"/>
     </row>
     <row r="1822" spans="1:6">
       <c r="A1822" s="2">
-        <v>605346</v>
+        <v>605353</v>
       </c>
       <c r="B1822" s="1" t="s">
-        <v>836</v>
+        <v>646</v>
       </c>
       <c r="E1822" s="1"/>
       <c r="F1822" s="2"/>
     </row>
     <row r="1823" spans="1:6">
       <c r="A1823" s="2">
-        <v>605244</v>
+        <v>605346</v>
       </c>
       <c r="B1823" s="1" t="s">
-        <v>645</v>
+        <v>836</v>
       </c>
       <c r="E1823" s="1"/>
       <c r="F1823" s="2"/>
     </row>
     <row r="1824" spans="1:6">
       <c r="A1824" s="2">
-        <v>605204</v>
+        <v>605244</v>
       </c>
       <c r="B1824" s="1" t="s">
-        <v>183</v>
+        <v>645</v>
       </c>
       <c r="E1824" s="1"/>
       <c r="F1824" s="2"/>
@@ -21423,10 +21421,10 @@
     </row>
     <row r="1827" spans="1:6">
       <c r="A1827" s="2">
-        <v>605170</v>
+        <v>605204</v>
       </c>
       <c r="B1827" s="1" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="E1827" s="1"/>
       <c r="F1827" s="2"/>
@@ -21463,10 +21461,10 @@
     </row>
     <row r="1831" spans="1:6">
       <c r="A1831" s="2">
-        <v>605141</v>
+        <v>605170</v>
       </c>
       <c r="B1831" s="1" t="s">
-        <v>359</v>
+        <v>180</v>
       </c>
       <c r="E1831" s="1"/>
       <c r="F1831" s="2"/>
@@ -21503,10 +21501,10 @@
     </row>
     <row r="1835" spans="1:6">
       <c r="A1835" s="2">
-        <v>605137</v>
+        <v>605141</v>
       </c>
       <c r="B1835" s="1" t="s">
-        <v>306</v>
+        <v>359</v>
       </c>
       <c r="E1835" s="1"/>
       <c r="F1835" s="2"/>
@@ -21543,10 +21541,10 @@
     </row>
     <row r="1839" spans="1:6">
       <c r="A1839" s="2">
-        <v>605131</v>
+        <v>605137</v>
       </c>
       <c r="B1839" s="1" t="s">
-        <v>101</v>
+        <v>306</v>
       </c>
       <c r="E1839" s="1"/>
       <c r="F1839" s="2"/>
@@ -21583,10 +21581,10 @@
     </row>
     <row r="1843" spans="1:6">
       <c r="A1843" s="2">
-        <v>605119</v>
+        <v>605131</v>
       </c>
       <c r="B1843" s="1" t="s">
-        <v>644</v>
+        <v>101</v>
       </c>
       <c r="E1843" s="1"/>
       <c r="F1843" s="2"/>
@@ -21603,10 +21601,10 @@
     </row>
     <row r="1845" spans="1:6">
       <c r="A1845" s="2">
-        <v>605113</v>
+        <v>605119</v>
       </c>
       <c r="B1845" s="1" t="s">
-        <v>367</v>
+        <v>644</v>
       </c>
       <c r="E1845" s="1"/>
       <c r="F1845" s="2"/>
@@ -21633,10 +21631,10 @@
     </row>
     <row r="1848" spans="1:6">
       <c r="A1848" s="2">
-        <v>602104</v>
+        <v>605113</v>
       </c>
       <c r="B1848" s="1" t="s">
-        <v>447</v>
+        <v>367</v>
       </c>
       <c r="E1848" s="1"/>
       <c r="F1848" s="2"/>
@@ -21673,10 +21671,10 @@
     </row>
     <row r="1852" spans="1:6">
       <c r="A1852" s="2">
-        <v>602074</v>
+        <v>602104</v>
       </c>
       <c r="B1852" s="1" t="s">
-        <v>643</v>
+        <v>447</v>
       </c>
       <c r="E1852" s="1"/>
       <c r="F1852" s="2"/>
@@ -21693,10 +21691,10 @@
     </row>
     <row r="1854" spans="1:6">
       <c r="A1854" s="2">
-        <v>600869</v>
+        <v>602074</v>
       </c>
       <c r="B1854" s="1" t="s">
-        <v>377</v>
+        <v>643</v>
       </c>
       <c r="E1854" s="1"/>
       <c r="F1854" s="2"/>
@@ -21733,20 +21731,20 @@
     </row>
     <row r="1858" spans="1:6">
       <c r="A1858" s="2">
-        <v>600474</v>
+        <v>600869</v>
       </c>
       <c r="B1858" s="1" t="s">
-        <v>642</v>
+        <v>377</v>
       </c>
       <c r="E1858" s="1"/>
       <c r="F1858" s="2"/>
     </row>
     <row r="1859" spans="1:6">
       <c r="A1859" s="2">
-        <v>600303</v>
+        <v>600474</v>
       </c>
       <c r="B1859" s="1" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="E1859" s="1"/>
       <c r="F1859" s="2"/>
@@ -21763,20 +21761,20 @@
     </row>
     <row r="1861" spans="1:6">
       <c r="A1861" s="2">
-        <v>600301</v>
+        <v>600303</v>
       </c>
       <c r="B1861" s="1" t="s">
-        <v>803</v>
+        <v>641</v>
       </c>
       <c r="E1861" s="1"/>
       <c r="F1861" s="2"/>
     </row>
     <row r="1862" spans="1:6">
       <c r="A1862" s="2">
-        <v>598265</v>
+        <v>600301</v>
       </c>
       <c r="B1862" s="1" t="s">
-        <v>640</v>
+        <v>803</v>
       </c>
       <c r="E1862" s="1"/>
       <c r="F1862" s="2"/>
@@ -21793,10 +21791,10 @@
     </row>
     <row r="1864" spans="1:6">
       <c r="A1864" s="2">
-        <v>596847</v>
+        <v>598265</v>
       </c>
       <c r="B1864" s="1" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="E1864" s="1"/>
       <c r="F1864" s="2"/>
@@ -21813,30 +21811,30 @@
     </row>
     <row r="1866" spans="1:6">
       <c r="A1866" s="2">
-        <v>596748</v>
+        <v>596847</v>
       </c>
       <c r="B1866" s="1" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="E1866" s="1"/>
       <c r="F1866" s="2"/>
     </row>
     <row r="1867" spans="1:6">
       <c r="A1867" s="2">
-        <v>596451</v>
+        <v>596748</v>
       </c>
       <c r="B1867" s="1" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="E1867" s="1"/>
       <c r="F1867" s="2"/>
     </row>
     <row r="1868" spans="1:6">
       <c r="A1868" s="2">
-        <v>596146</v>
+        <v>596451</v>
       </c>
       <c r="B1868" s="1" t="s">
-        <v>262</v>
+        <v>637</v>
       </c>
       <c r="E1868" s="1"/>
       <c r="F1868" s="2"/>
@@ -21873,10 +21871,10 @@
     </row>
     <row r="1872" spans="1:6">
       <c r="A1872" s="2">
-        <v>596142</v>
+        <v>596146</v>
       </c>
       <c r="B1872" s="1" t="s">
-        <v>475</v>
+        <v>262</v>
       </c>
       <c r="E1872" s="1"/>
       <c r="F1872" s="2"/>
@@ -21913,10 +21911,10 @@
     </row>
     <row r="1876" spans="1:6">
       <c r="A1876" s="2">
-        <v>596129</v>
+        <v>596142</v>
       </c>
       <c r="B1876" s="1" t="s">
-        <v>0</v>
+        <v>475</v>
       </c>
       <c r="E1876" s="1"/>
       <c r="F1876" s="2"/>
@@ -21943,10 +21941,10 @@
     </row>
     <row r="1879" spans="1:6">
       <c r="A1879" s="2">
-        <v>596117</v>
+        <v>596129</v>
       </c>
       <c r="B1879" s="1" t="s">
-        <v>96</v>
+        <v>0</v>
       </c>
       <c r="E1879" s="1"/>
       <c r="F1879" s="2"/>
@@ -21973,10 +21971,10 @@
     </row>
     <row r="1882" spans="1:6">
       <c r="A1882" s="2">
-        <v>596115</v>
+        <v>596117</v>
       </c>
       <c r="B1882" s="1" t="s">
-        <v>356</v>
+        <v>96</v>
       </c>
       <c r="E1882" s="1"/>
       <c r="F1882" s="2"/>
@@ -22013,11 +22011,13 @@
     </row>
     <row r="1886" spans="1:6">
       <c r="A1886" s="2">
-        <v>596103</v>
+        <v>596115</v>
       </c>
       <c r="B1886" s="1" t="s">
-        <v>286</v>
-      </c>
+        <v>356</v>
+      </c>
+      <c r="E1886" s="1"/>
+      <c r="F1886" s="2"/>
     </row>
     <row r="1887" spans="1:6">
       <c r="A1887" s="2">
@@ -22045,10 +22045,10 @@
     </row>
     <row r="1890" spans="1:2">
       <c r="A1890" s="2">
-        <v>596059</v>
+        <v>596103</v>
       </c>
       <c r="B1890" s="1" t="s">
-        <v>636</v>
+        <v>286</v>
       </c>
     </row>
     <row r="1891" spans="1:2">
@@ -22061,10 +22061,10 @@
     </row>
     <row r="1892" spans="1:2">
       <c r="A1892" s="2">
-        <v>596019</v>
+        <v>596059</v>
       </c>
       <c r="B1892" s="1" t="s">
-        <v>131</v>
+        <v>636</v>
       </c>
     </row>
     <row r="1893" spans="1:2">
@@ -22093,10 +22093,10 @@
     </row>
     <row r="1896" spans="1:2">
       <c r="A1896" s="2">
-        <v>595978</v>
+        <v>596019</v>
       </c>
       <c r="B1896" s="1" t="s">
-        <v>47</v>
+        <v>131</v>
       </c>
     </row>
     <row r="1897" spans="1:2">
@@ -22125,10 +22125,10 @@
     </row>
     <row r="1900" spans="1:2">
       <c r="A1900" s="2">
-        <v>595956</v>
+        <v>595978</v>
       </c>
       <c r="B1900" s="1" t="s">
-        <v>635</v>
+        <v>47</v>
       </c>
     </row>
     <row r="1901" spans="1:2">
@@ -22141,10 +22141,10 @@
     </row>
     <row r="1902" spans="1:2">
       <c r="A1902" s="2">
-        <v>595909</v>
+        <v>595956</v>
       </c>
       <c r="B1902" s="1" t="s">
-        <v>142</v>
+        <v>635</v>
       </c>
     </row>
     <row r="1903" spans="1:2">
@@ -22165,10 +22165,10 @@
     </row>
     <row r="1905" spans="1:2">
       <c r="A1905" s="2">
-        <v>595879</v>
+        <v>595909</v>
       </c>
       <c r="B1905" s="1" t="s">
-        <v>443</v>
+        <v>142</v>
       </c>
     </row>
     <row r="1906" spans="1:2">
@@ -22197,10 +22197,10 @@
     </row>
     <row r="1909" spans="1:2">
       <c r="A1909" s="2">
-        <v>595777</v>
+        <v>595879</v>
       </c>
       <c r="B1909" s="1" t="s">
-        <v>267</v>
+        <v>443</v>
       </c>
     </row>
     <row r="1910" spans="1:2">
@@ -22229,10 +22229,10 @@
     </row>
     <row r="1913" spans="1:2">
       <c r="A1913" s="2">
-        <v>595751</v>
+        <v>595777</v>
       </c>
       <c r="B1913" s="1" t="s">
-        <v>634</v>
+        <v>267</v>
       </c>
     </row>
     <row r="1914" spans="1:2">
@@ -22245,10 +22245,10 @@
     </row>
     <row r="1915" spans="1:2">
       <c r="A1915" s="2">
-        <v>595453</v>
+        <v>595751</v>
       </c>
       <c r="B1915" s="1" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="1916" spans="1:2">
@@ -22261,18 +22261,18 @@
     </row>
     <row r="1917" spans="1:2">
       <c r="A1917" s="2">
-        <v>595284</v>
+        <v>595453</v>
       </c>
       <c r="B1917" s="1" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
     </row>
     <row r="1918" spans="1:2">
       <c r="A1918" s="2">
-        <v>595281</v>
+        <v>595284</v>
       </c>
       <c r="B1918" s="1" t="s">
-        <v>138</v>
+        <v>632</v>
       </c>
     </row>
     <row r="1919" spans="1:2">
@@ -22293,18 +22293,18 @@
     </row>
     <row r="1921" spans="1:2">
       <c r="A1921" s="2">
-        <v>594838</v>
+        <v>595281</v>
       </c>
       <c r="B1921" s="1" t="s">
-        <v>631</v>
+        <v>138</v>
       </c>
     </row>
     <row r="1922" spans="1:2">
       <c r="A1922" s="2">
-        <v>594807</v>
+        <v>594838</v>
       </c>
       <c r="B1922" s="1" t="s">
-        <v>252</v>
+        <v>631</v>
       </c>
     </row>
     <row r="1923" spans="1:2">
@@ -22325,10 +22325,10 @@
     </row>
     <row r="1925" spans="1:2">
       <c r="A1925" s="2">
-        <v>594777</v>
+        <v>594807</v>
       </c>
       <c r="B1925" s="1" t="s">
-        <v>630</v>
+        <v>252</v>
       </c>
     </row>
     <row r="1926" spans="1:2">
@@ -22341,10 +22341,10 @@
     </row>
     <row r="1927" spans="1:2">
       <c r="A1927" s="2">
-        <v>593934</v>
+        <v>594777</v>
       </c>
       <c r="B1927" s="1" t="s">
-        <v>548</v>
+        <v>630</v>
       </c>
     </row>
     <row r="1928" spans="1:2">
@@ -22357,10 +22357,10 @@
     </row>
     <row r="1929" spans="1:2">
       <c r="A1929" s="2">
-        <v>593871</v>
+        <v>593934</v>
       </c>
       <c r="B1929" s="1" t="s">
-        <v>171</v>
+        <v>548</v>
       </c>
     </row>
     <row r="1930" spans="1:2">
@@ -22389,10 +22389,10 @@
     </row>
     <row r="1933" spans="1:2">
       <c r="A1933" s="2">
-        <v>593643</v>
+        <v>593871</v>
       </c>
       <c r="B1933" s="1" t="s">
-        <v>629</v>
+        <v>171</v>
       </c>
     </row>
     <row r="1934" spans="1:2">
@@ -22405,10 +22405,10 @@
     </row>
     <row r="1935" spans="1:2">
       <c r="A1935" s="2">
-        <v>593428</v>
+        <v>593643</v>
       </c>
       <c r="B1935" s="1" t="s">
-        <v>201</v>
+        <v>629</v>
       </c>
     </row>
     <row r="1936" spans="1:2">
@@ -22437,10 +22437,10 @@
     </row>
     <row r="1939" spans="1:2">
       <c r="A1939" s="2">
-        <v>593160</v>
+        <v>593428</v>
       </c>
       <c r="B1939" s="1" t="s">
-        <v>328</v>
+        <v>201</v>
       </c>
     </row>
     <row r="1940" spans="1:2">
@@ -22461,10 +22461,10 @@
     </row>
     <row r="1942" spans="1:2">
       <c r="A1942" s="2">
-        <v>592885</v>
+        <v>593160</v>
       </c>
       <c r="B1942" s="1" t="s">
-        <v>285</v>
+        <v>328</v>
       </c>
     </row>
     <row r="1943" spans="1:2">
@@ -22493,18 +22493,18 @@
     </row>
     <row r="1946" spans="1:2">
       <c r="A1946" s="2">
-        <v>592743</v>
+        <v>592885</v>
       </c>
       <c r="B1946" s="1" t="s">
-        <v>628</v>
+        <v>285</v>
       </c>
     </row>
     <row r="1947" spans="1:2">
       <c r="A1947" s="2">
-        <v>592696</v>
+        <v>592743</v>
       </c>
       <c r="B1947" s="1" t="s">
-        <v>366</v>
+        <v>628</v>
       </c>
     </row>
     <row r="1948" spans="1:2">
@@ -22525,10 +22525,10 @@
     </row>
     <row r="1950" spans="1:2">
       <c r="A1950" s="2">
-        <v>592669</v>
+        <v>592696</v>
       </c>
       <c r="B1950" s="1" t="s">
-        <v>301</v>
+        <v>366</v>
       </c>
     </row>
     <row r="1951" spans="1:2">
@@ -22557,10 +22557,10 @@
     </row>
     <row r="1954" spans="1:2">
       <c r="A1954" s="2">
-        <v>592663</v>
+        <v>592669</v>
       </c>
       <c r="B1954" s="1" t="s">
-        <v>172</v>
+        <v>301</v>
       </c>
     </row>
     <row r="1955" spans="1:2">
@@ -22589,18 +22589,18 @@
     </row>
     <row r="1958" spans="1:2">
       <c r="A1958" s="2">
-        <v>592656</v>
+        <v>592663</v>
       </c>
       <c r="B1958" s="1" t="s">
-        <v>802</v>
+        <v>172</v>
       </c>
     </row>
     <row r="1959" spans="1:2">
       <c r="A1959" s="2">
-        <v>592626</v>
+        <v>592656</v>
       </c>
       <c r="B1959" s="1" t="s">
-        <v>39</v>
+        <v>802</v>
       </c>
     </row>
     <row r="1960" spans="1:2">
@@ -22629,26 +22629,26 @@
     </row>
     <row r="1963" spans="1:2">
       <c r="A1963" s="2">
-        <v>592622</v>
+        <v>592626</v>
       </c>
       <c r="B1963" s="1" t="s">
-        <v>627</v>
+        <v>39</v>
       </c>
     </row>
     <row r="1964" spans="1:2">
       <c r="A1964" s="2">
-        <v>592567</v>
+        <v>592622</v>
       </c>
       <c r="B1964" s="1" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
     </row>
     <row r="1965" spans="1:2">
       <c r="A1965" s="2">
-        <v>592518</v>
+        <v>592567</v>
       </c>
       <c r="B1965" s="1" t="s">
-        <v>134</v>
+        <v>626</v>
       </c>
     </row>
     <row r="1966" spans="1:2">
@@ -22677,10 +22677,10 @@
     </row>
     <row r="1969" spans="1:2">
       <c r="A1969" s="2">
-        <v>592450</v>
+        <v>592518</v>
       </c>
       <c r="B1969" s="1" t="s">
-        <v>49</v>
+        <v>134</v>
       </c>
     </row>
     <row r="1970" spans="1:2">
@@ -22709,10 +22709,10 @@
     </row>
     <row r="1973" spans="1:2">
       <c r="A1973" s="2">
-        <v>592348</v>
+        <v>592450</v>
       </c>
       <c r="B1973" s="1" t="s">
-        <v>519</v>
+        <v>49</v>
       </c>
     </row>
     <row r="1974" spans="1:2">
@@ -22725,10 +22725,10 @@
     </row>
     <row r="1975" spans="1:2">
       <c r="A1975" s="2">
-        <v>592325</v>
+        <v>592348</v>
       </c>
       <c r="B1975" s="1" t="s">
-        <v>394</v>
+        <v>519</v>
       </c>
     </row>
     <row r="1976" spans="1:2">
@@ -22749,10 +22749,10 @@
     </row>
     <row r="1978" spans="1:2">
       <c r="A1978" s="2">
-        <v>592273</v>
+        <v>592325</v>
       </c>
       <c r="B1978" s="1" t="s">
-        <v>323</v>
+        <v>394</v>
       </c>
     </row>
     <row r="1979" spans="1:2">
@@ -22773,10 +22773,10 @@
     </row>
     <row r="1981" spans="1:2">
       <c r="A1981" s="2">
-        <v>592206</v>
+        <v>592273</v>
       </c>
       <c r="B1981" s="1" t="s">
-        <v>99</v>
+        <v>323</v>
       </c>
     </row>
     <row r="1982" spans="1:2">
@@ -22805,10 +22805,10 @@
     </row>
     <row r="1985" spans="1:2">
       <c r="A1985" s="2">
-        <v>592200</v>
+        <v>592206</v>
       </c>
       <c r="B1985" s="1" t="s">
-        <v>305</v>
+        <v>99</v>
       </c>
     </row>
     <row r="1986" spans="1:2">
@@ -22829,10 +22829,10 @@
     </row>
     <row r="1988" spans="1:2">
       <c r="A1988" s="2">
-        <v>592192</v>
+        <v>592200</v>
       </c>
       <c r="B1988" s="1" t="s">
-        <v>24</v>
+        <v>305</v>
       </c>
     </row>
     <row r="1989" spans="1:2">
@@ -22861,10 +22861,10 @@
     </row>
     <row r="1992" spans="1:2">
       <c r="A1992" s="2">
-        <v>592178</v>
+        <v>592192</v>
       </c>
       <c r="B1992" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
     <row r="1993" spans="1:2">
@@ -22893,26 +22893,26 @@
     </row>
     <row r="1996" spans="1:2">
       <c r="A1996" s="2">
-        <v>592144</v>
+        <v>592178</v>
       </c>
       <c r="B1996" s="1" t="s">
-        <v>625</v>
+        <v>19</v>
       </c>
     </row>
     <row r="1997" spans="1:2">
       <c r="A1997" s="2">
-        <v>578570</v>
+        <v>592144</v>
       </c>
       <c r="B1997" s="1" t="s">
-        <v>801</v>
+        <v>625</v>
       </c>
     </row>
     <row r="1998" spans="1:2">
       <c r="A1998" s="2">
-        <v>578428</v>
+        <v>578570</v>
       </c>
       <c r="B1998" s="1" t="s">
-        <v>476</v>
+        <v>801</v>
       </c>
     </row>
     <row r="1999" spans="1:2">
@@ -22933,10 +22933,10 @@
     </row>
     <row r="2001" spans="1:2">
       <c r="A2001" s="2">
-        <v>575929</v>
+        <v>578428</v>
       </c>
       <c r="B2001" s="1" t="s">
-        <v>140</v>
+        <v>476</v>
       </c>
     </row>
     <row r="2002" spans="1:2">
@@ -22965,10 +22965,10 @@
     </row>
     <row r="2005" spans="1:2">
       <c r="A2005" s="2">
-        <v>573262</v>
+        <v>575929</v>
       </c>
       <c r="B2005" s="1" t="s">
-        <v>53</v>
+        <v>140</v>
       </c>
     </row>
     <row r="2006" spans="1:2">
@@ -22997,10 +22997,10 @@
     </row>
     <row r="2009" spans="1:2">
       <c r="A2009" s="2">
-        <v>573131</v>
+        <v>573262</v>
       </c>
       <c r="B2009" s="1" t="s">
-        <v>624</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2010" spans="1:2">
@@ -23013,18 +23013,18 @@
     </row>
     <row r="2011" spans="1:2">
       <c r="A2011" s="2">
-        <v>572863</v>
+        <v>573131</v>
       </c>
       <c r="B2011" s="1" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
     </row>
     <row r="2012" spans="1:2">
       <c r="A2012" s="2">
-        <v>572816</v>
+        <v>572863</v>
       </c>
       <c r="B2012" s="1" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
     </row>
     <row r="2013" spans="1:2">
@@ -23037,10 +23037,10 @@
     </row>
     <row r="2014" spans="1:2">
       <c r="A2014" s="2">
-        <v>572761</v>
+        <v>572816</v>
       </c>
       <c r="B2014" s="1" t="s">
-        <v>298</v>
+        <v>622</v>
       </c>
     </row>
     <row r="2015" spans="1:2">
@@ -23061,10 +23061,10 @@
     </row>
     <row r="2017" spans="1:2">
       <c r="A2017" s="2">
-        <v>572287</v>
+        <v>572761</v>
       </c>
       <c r="B2017" s="1" t="s">
-        <v>621</v>
+        <v>298</v>
       </c>
     </row>
     <row r="2018" spans="1:2">
@@ -23077,10 +23077,10 @@
     </row>
     <row r="2019" spans="1:2">
       <c r="A2019" s="2">
-        <v>572233</v>
+        <v>572287</v>
       </c>
       <c r="B2019" s="1" t="s">
-        <v>268</v>
+        <v>621</v>
       </c>
     </row>
     <row r="2020" spans="1:2">
@@ -23109,10 +23109,10 @@
     </row>
     <row r="2023" spans="1:2">
       <c r="A2023" s="2">
-        <v>572228</v>
+        <v>572233</v>
       </c>
       <c r="B2023" s="1" t="s">
-        <v>620</v>
+        <v>268</v>
       </c>
     </row>
     <row r="2024" spans="1:2">
@@ -23125,10 +23125,10 @@
     </row>
     <row r="2025" spans="1:2">
       <c r="A2025" s="2">
-        <v>572204</v>
+        <v>572228</v>
       </c>
       <c r="B2025" s="1" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
     </row>
     <row r="2026" spans="1:2">
@@ -23141,10 +23141,10 @@
     </row>
     <row r="2027" spans="1:2">
       <c r="A2027" s="2">
-        <v>572191</v>
+        <v>572204</v>
       </c>
       <c r="B2027" s="1" t="s">
-        <v>38</v>
+        <v>619</v>
       </c>
     </row>
     <row r="2028" spans="1:2">
@@ -23173,10 +23173,10 @@
     </row>
     <row r="2031" spans="1:2">
       <c r="A2031" s="2">
-        <v>572138</v>
+        <v>572191</v>
       </c>
       <c r="B2031" s="1" t="s">
-        <v>371</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2032" spans="1:2">
@@ -23189,10 +23189,10 @@
     </row>
     <row r="2033" spans="1:2">
       <c r="A2033" s="2">
-        <v>572041</v>
+        <v>572138</v>
       </c>
       <c r="B2033" s="1" t="s">
-        <v>618</v>
+        <v>371</v>
       </c>
     </row>
     <row r="2034" spans="1:2">
@@ -23205,18 +23205,18 @@
     </row>
     <row r="2035" spans="1:2">
       <c r="A2035" s="2">
-        <v>572039</v>
+        <v>572041</v>
       </c>
       <c r="B2035" s="1" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="2036" spans="1:2">
       <c r="A2036" s="2">
-        <v>572008</v>
+        <v>572039</v>
       </c>
       <c r="B2036" s="1" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
     <row r="2037" spans="1:2">
@@ -23229,18 +23229,18 @@
     </row>
     <row r="2038" spans="1:2">
       <c r="A2038" s="2">
-        <v>571980</v>
+        <v>572008</v>
       </c>
       <c r="B2038" s="1" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
     <row r="2039" spans="1:2">
       <c r="A2039" s="2">
-        <v>571976</v>
+        <v>571980</v>
       </c>
       <c r="B2039" s="1" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="2040" spans="1:2">
@@ -23253,10 +23253,10 @@
     </row>
     <row r="2041" spans="1:2">
       <c r="A2041" s="2">
-        <v>571970</v>
+        <v>571976</v>
       </c>
       <c r="B2041" s="1" t="s">
-        <v>247</v>
+        <v>614</v>
       </c>
     </row>
     <row r="2042" spans="1:2">
@@ -23285,10 +23285,10 @@
     </row>
     <row r="2045" spans="1:2">
       <c r="A2045" s="2">
-        <v>571912</v>
+        <v>571970</v>
       </c>
       <c r="B2045" s="1" t="s">
-        <v>364</v>
+        <v>247</v>
       </c>
     </row>
     <row r="2046" spans="1:2">
@@ -23309,10 +23309,10 @@
     </row>
     <row r="2048" spans="1:2">
       <c r="A2048" s="2">
-        <v>571875</v>
+        <v>571912</v>
       </c>
       <c r="B2048" s="1" t="s">
-        <v>613</v>
+        <v>364</v>
       </c>
     </row>
     <row r="2049" spans="1:2">
@@ -23325,10 +23325,10 @@
     </row>
     <row r="2050" spans="1:2">
       <c r="A2050" s="2">
-        <v>571771</v>
+        <v>571875</v>
       </c>
       <c r="B2050" s="1" t="s">
-        <v>464</v>
+        <v>613</v>
       </c>
     </row>
     <row r="2051" spans="1:2">
@@ -23357,10 +23357,10 @@
     </row>
     <row r="2054" spans="1:2">
       <c r="A2054" s="2">
-        <v>571745</v>
+        <v>571771</v>
       </c>
       <c r="B2054" s="1" t="s">
-        <v>340</v>
+        <v>464</v>
       </c>
     </row>
     <row r="2055" spans="1:2">
@@ -23381,18 +23381,18 @@
     </row>
     <row r="2057" spans="1:2">
       <c r="A2057" s="2">
-        <v>571740</v>
+        <v>571745</v>
       </c>
       <c r="B2057" s="1" t="s">
-        <v>612</v>
+        <v>340</v>
       </c>
     </row>
     <row r="2058" spans="1:2">
       <c r="A2058" s="2">
-        <v>571657</v>
+        <v>571740</v>
       </c>
       <c r="B2058" s="1" t="s">
-        <v>297</v>
+        <v>612</v>
       </c>
     </row>
     <row r="2059" spans="1:2">
@@ -23421,18 +23421,18 @@
     </row>
     <row r="2062" spans="1:2">
       <c r="A2062" s="2">
-        <v>571602</v>
+        <v>571657</v>
       </c>
       <c r="B2062" s="1" t="s">
-        <v>611</v>
+        <v>297</v>
       </c>
     </row>
     <row r="2063" spans="1:2">
       <c r="A2063" s="2">
-        <v>571466</v>
+        <v>571602</v>
       </c>
       <c r="B2063" s="1" t="s">
-        <v>73</v>
+        <v>611</v>
       </c>
     </row>
     <row r="2064" spans="1:2">
@@ -23453,10 +23453,10 @@
     </row>
     <row r="2066" spans="1:2">
       <c r="A2066" s="2">
-        <v>571448</v>
+        <v>571466</v>
       </c>
       <c r="B2066" s="1" t="s">
-        <v>128</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2067" spans="1:2">
@@ -23485,10 +23485,10 @@
     </row>
     <row r="2070" spans="1:2">
       <c r="A2070" s="2">
-        <v>570731</v>
+        <v>571448</v>
       </c>
       <c r="B2070" s="1" t="s">
-        <v>610</v>
+        <v>128</v>
       </c>
     </row>
     <row r="2071" spans="1:2">
@@ -23501,18 +23501,18 @@
     </row>
     <row r="2072" spans="1:2">
       <c r="A2072" s="2">
-        <v>570560</v>
+        <v>570731</v>
       </c>
       <c r="B2072" s="1" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="2073" spans="1:2">
       <c r="A2073" s="2">
-        <v>570482</v>
+        <v>570560</v>
       </c>
       <c r="B2073" s="1" t="s">
-        <v>181</v>
+        <v>609</v>
       </c>
     </row>
     <row r="2074" spans="1:2">
@@ -23541,18 +23541,18 @@
     </row>
     <row r="2077" spans="1:2">
       <c r="A2077" s="2">
-        <v>570481</v>
+        <v>570482</v>
       </c>
       <c r="B2077" s="1" t="s">
-        <v>608</v>
+        <v>181</v>
       </c>
     </row>
     <row r="2078" spans="1:2">
       <c r="A2078" s="2">
-        <v>553993</v>
+        <v>570481</v>
       </c>
       <c r="B2078" s="1" t="s">
-        <v>493</v>
+        <v>608</v>
       </c>
     </row>
     <row r="2079" spans="1:2">
@@ -23581,26 +23581,26 @@
     </row>
     <row r="2082" spans="1:2">
       <c r="A2082" s="2">
-        <v>553988</v>
+        <v>553993</v>
       </c>
       <c r="B2082" s="1" t="s">
-        <v>607</v>
+        <v>493</v>
       </c>
     </row>
     <row r="2083" spans="1:2">
       <c r="A2083" s="2">
-        <v>553902</v>
+        <v>553988</v>
       </c>
       <c r="B2083" s="1" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
     </row>
     <row r="2084" spans="1:2">
       <c r="A2084" s="2">
-        <v>553882</v>
+        <v>553902</v>
       </c>
       <c r="B2084" s="1" t="s">
-        <v>470</v>
+        <v>606</v>
       </c>
     </row>
     <row r="2085" spans="1:2">
@@ -23629,10 +23629,10 @@
     </row>
     <row r="2088" spans="1:2">
       <c r="A2088" s="2">
-        <v>553869</v>
+        <v>553882</v>
       </c>
       <c r="B2088" s="1" t="s">
-        <v>479</v>
+        <v>470</v>
       </c>
     </row>
     <row r="2089" spans="1:2">
@@ -23661,10 +23661,10 @@
     </row>
     <row r="2092" spans="1:2">
       <c r="A2092" s="2">
-        <v>547989</v>
+        <v>553869</v>
       </c>
       <c r="B2092" s="1" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="2093" spans="1:2">
@@ -23685,10 +23685,10 @@
     </row>
     <row r="2095" spans="1:2">
       <c r="A2095" s="2">
-        <v>547379</v>
+        <v>547989</v>
       </c>
       <c r="B2095" s="1" t="s">
-        <v>605</v>
+        <v>481</v>
       </c>
     </row>
     <row r="2096" spans="1:2">
@@ -23701,10 +23701,10 @@
     </row>
     <row r="2097" spans="1:2">
       <c r="A2097" s="2">
-        <v>547180</v>
+        <v>547379</v>
       </c>
       <c r="B2097" s="1" t="s">
-        <v>210</v>
+        <v>605</v>
       </c>
     </row>
     <row r="2098" spans="1:2">
@@ -23733,34 +23733,34 @@
     </row>
     <row r="2101" spans="1:2">
       <c r="A2101" s="2">
-        <v>547173</v>
+        <v>547180</v>
       </c>
       <c r="B2101" s="1" t="s">
-        <v>604</v>
+        <v>210</v>
       </c>
     </row>
     <row r="2102" spans="1:2">
       <c r="A2102" s="2">
-        <v>546991</v>
+        <v>547173</v>
       </c>
       <c r="B2102" s="1" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
     </row>
     <row r="2103" spans="1:2">
       <c r="A2103" s="2">
-        <v>546318</v>
+        <v>546991</v>
       </c>
       <c r="B2103" s="1" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
     </row>
     <row r="2104" spans="1:2">
       <c r="A2104" s="2">
-        <v>545361</v>
+        <v>546318</v>
       </c>
       <c r="B2104" s="1" t="s">
-        <v>97</v>
+        <v>602</v>
       </c>
     </row>
     <row r="2105" spans="1:2">
@@ -23789,18 +23789,18 @@
     </row>
     <row r="2108" spans="1:2">
       <c r="A2108" s="2">
-        <v>545358</v>
+        <v>545361</v>
       </c>
       <c r="B2108" s="1" t="s">
-        <v>601</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2109" spans="1:2">
       <c r="A2109" s="2">
-        <v>545350</v>
+        <v>545358</v>
       </c>
       <c r="B2109" s="1" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
     </row>
     <row r="2110" spans="1:2">
@@ -23813,10 +23813,10 @@
     </row>
     <row r="2111" spans="1:2">
       <c r="A2111" s="2">
-        <v>545341</v>
+        <v>545350</v>
       </c>
       <c r="B2111" s="1" t="s">
-        <v>269</v>
+        <v>600</v>
       </c>
     </row>
     <row r="2112" spans="1:2">
@@ -23845,10 +23845,10 @@
     </row>
     <row r="2115" spans="1:2">
       <c r="A2115" s="2">
-        <v>545121</v>
+        <v>545341</v>
       </c>
       <c r="B2115" s="1" t="s">
-        <v>119</v>
+        <v>269</v>
       </c>
     </row>
     <row r="2116" spans="1:2">
@@ -23869,26 +23869,26 @@
     </row>
     <row r="2118" spans="1:2">
       <c r="A2118" s="2">
-        <v>544725</v>
+        <v>545121</v>
       </c>
       <c r="B2118" s="1" t="s">
-        <v>599</v>
+        <v>119</v>
       </c>
     </row>
     <row r="2119" spans="1:2">
       <c r="A2119" s="2">
-        <v>544369</v>
+        <v>544725</v>
       </c>
       <c r="B2119" s="1" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
     </row>
     <row r="2120" spans="1:2">
       <c r="A2120" s="2">
-        <v>543939</v>
+        <v>544369</v>
       </c>
       <c r="B2120" s="1" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
     </row>
     <row r="2121" spans="1:2">
@@ -23901,10 +23901,10 @@
     </row>
     <row r="2122" spans="1:2">
       <c r="A2122" s="2">
-        <v>543877</v>
+        <v>543939</v>
       </c>
       <c r="B2122" s="1" t="s">
-        <v>478</v>
+        <v>597</v>
       </c>
     </row>
     <row r="2123" spans="1:2">
@@ -23933,18 +23933,18 @@
     </row>
     <row r="2126" spans="1:2">
       <c r="A2126" s="2">
-        <v>543829</v>
+        <v>543877</v>
       </c>
       <c r="B2126" s="1" t="s">
-        <v>596</v>
+        <v>478</v>
       </c>
     </row>
     <row r="2127" spans="1:2">
       <c r="A2127" s="2">
-        <v>543807</v>
+        <v>543829</v>
       </c>
       <c r="B2127" s="1" t="s">
-        <v>240</v>
+        <v>596</v>
       </c>
     </row>
     <row r="2128" spans="1:2">
@@ -23973,18 +23973,18 @@
     </row>
     <row r="2131" spans="1:2">
       <c r="A2131" s="2">
-        <v>543768</v>
+        <v>543807</v>
       </c>
       <c r="B2131" s="1" t="s">
-        <v>595</v>
+        <v>240</v>
       </c>
     </row>
     <row r="2132" spans="1:2">
       <c r="A2132" s="2">
-        <v>543760</v>
+        <v>543768</v>
       </c>
       <c r="B2132" s="1" t="s">
-        <v>264</v>
+        <v>595</v>
       </c>
     </row>
     <row r="2133" spans="1:2">
@@ -24013,10 +24013,10 @@
     </row>
     <row r="2136" spans="1:2">
       <c r="A2136" s="2">
-        <v>543685</v>
+        <v>543760</v>
       </c>
       <c r="B2136" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="2137" spans="1:2">
@@ -24037,10 +24037,10 @@
     </row>
     <row r="2139" spans="1:2">
       <c r="A2139" s="2">
-        <v>543592</v>
+        <v>543685</v>
       </c>
       <c r="B2139" s="1" t="s">
-        <v>594</v>
+        <v>266</v>
       </c>
     </row>
     <row r="2140" spans="1:2">
@@ -24053,10 +24053,10 @@
     </row>
     <row r="2141" spans="1:2">
       <c r="A2141" s="2">
-        <v>543543</v>
+        <v>543592</v>
       </c>
       <c r="B2141" s="1" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
     </row>
     <row r="2142" spans="1:2">
@@ -24069,10 +24069,10 @@
     </row>
     <row r="2143" spans="1:2">
       <c r="A2143" s="2">
-        <v>543510</v>
+        <v>543543</v>
       </c>
       <c r="B2143" s="1" t="s">
-        <v>178</v>
+        <v>593</v>
       </c>
     </row>
     <row r="2144" spans="1:2">
@@ -24093,10 +24093,10 @@
     </row>
     <row r="2146" spans="1:2">
       <c r="A2146" s="2">
-        <v>543333</v>
+        <v>543510</v>
       </c>
       <c r="B2146" s="1" t="s">
-        <v>592</v>
+        <v>178</v>
       </c>
     </row>
     <row r="2147" spans="1:2">
@@ -24109,10 +24109,10 @@
     </row>
     <row r="2148" spans="1:2">
       <c r="A2148" s="2">
-        <v>543309</v>
+        <v>543333</v>
       </c>
       <c r="B2148" s="1" t="s">
-        <v>234</v>
+        <v>592</v>
       </c>
     </row>
     <row r="2149" spans="1:2">
@@ -24141,10 +24141,10 @@
     </row>
     <row r="2152" spans="1:2">
       <c r="A2152" s="2">
-        <v>543305</v>
+        <v>543309</v>
       </c>
       <c r="B2152" s="1" t="s">
-        <v>344</v>
+        <v>234</v>
       </c>
     </row>
     <row r="2153" spans="1:2">
@@ -24165,10 +24165,10 @@
     </row>
     <row r="2155" spans="1:2">
       <c r="A2155" s="2">
-        <v>543281</v>
+        <v>543305</v>
       </c>
       <c r="B2155" s="1" t="s">
-        <v>591</v>
+        <v>344</v>
       </c>
     </row>
     <row r="2156" spans="1:2">
@@ -24181,10 +24181,10 @@
     </row>
     <row r="2157" spans="1:2">
       <c r="A2157" s="2">
-        <v>543257</v>
+        <v>543281</v>
       </c>
       <c r="B2157" s="1" t="s">
-        <v>315</v>
+        <v>591</v>
       </c>
     </row>
     <row r="2158" spans="1:2">
@@ -24205,10 +24205,10 @@
     </row>
     <row r="2160" spans="1:2">
       <c r="A2160" s="2">
-        <v>543228</v>
+        <v>543257</v>
       </c>
       <c r="B2160" s="1" t="s">
-        <v>87</v>
+        <v>315</v>
       </c>
     </row>
     <row r="2161" spans="1:2">
@@ -24229,18 +24229,18 @@
     </row>
     <row r="2163" spans="1:2">
       <c r="A2163" s="2">
-        <v>543105</v>
+        <v>543228</v>
       </c>
       <c r="B2163" s="1" t="s">
-        <v>590</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2164" spans="1:2">
       <c r="A2164" s="2">
-        <v>543068</v>
+        <v>543105</v>
       </c>
       <c r="B2164" s="1" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
     </row>
     <row r="2165" spans="1:2">
@@ -24253,10 +24253,10 @@
     </row>
     <row r="2166" spans="1:2">
       <c r="A2166" s="2">
-        <v>543063</v>
+        <v>543068</v>
       </c>
       <c r="B2166" s="1" t="s">
-        <v>319</v>
+        <v>589</v>
       </c>
     </row>
     <row r="2167" spans="1:2">
@@ -24277,10 +24277,10 @@
     </row>
     <row r="2169" spans="1:2">
       <c r="A2169" s="2">
-        <v>542932</v>
+        <v>543063</v>
       </c>
       <c r="B2169" s="1" t="s">
-        <v>68</v>
+        <v>319</v>
       </c>
     </row>
     <row r="2170" spans="1:2">
@@ -24309,18 +24309,18 @@
     </row>
     <row r="2173" spans="1:2">
       <c r="A2173" s="2">
-        <v>542921</v>
+        <v>542932</v>
       </c>
       <c r="B2173" s="1" t="s">
-        <v>588</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2174" spans="1:2">
       <c r="A2174" s="2">
-        <v>542583</v>
+        <v>542921</v>
       </c>
       <c r="B2174" s="1" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
     </row>
     <row r="2175" spans="1:2">
@@ -24333,10 +24333,10 @@
     </row>
     <row r="2176" spans="1:2">
       <c r="A2176" s="2">
-        <v>542364</v>
+        <v>542583</v>
       </c>
       <c r="B2176" s="1" t="s">
-        <v>82</v>
+        <v>587</v>
       </c>
     </row>
     <row r="2177" spans="1:2">
@@ -24357,18 +24357,18 @@
     </row>
     <row r="2179" spans="1:2">
       <c r="A2179" s="2">
-        <v>542340</v>
+        <v>542364</v>
       </c>
       <c r="B2179" s="1" t="s">
-        <v>586</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2180" spans="1:2">
       <c r="A2180" s="2">
-        <v>542303</v>
+        <v>542340</v>
       </c>
       <c r="B2180" s="1" t="s">
-        <v>36</v>
+        <v>586</v>
       </c>
     </row>
     <row r="2181" spans="1:2">
@@ -24397,18 +24397,18 @@
     </row>
     <row r="2184" spans="1:2">
       <c r="A2184" s="2">
-        <v>542208</v>
+        <v>542303</v>
       </c>
       <c r="B2184" s="1" t="s">
-        <v>719</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2185" spans="1:2">
       <c r="A2185" s="2">
-        <v>542194</v>
+        <v>542208</v>
       </c>
       <c r="B2185" s="1" t="s">
-        <v>20</v>
+        <v>719</v>
       </c>
     </row>
     <row r="2186" spans="1:2">
@@ -24429,10 +24429,10 @@
     </row>
     <row r="2188" spans="1:2">
       <c r="A2188" s="2">
-        <v>541645</v>
+        <v>542194</v>
       </c>
       <c r="B2188" s="1" t="s">
-        <v>539</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2189" spans="1:2">
@@ -24453,10 +24453,10 @@
     </row>
     <row r="2191" spans="1:2">
       <c r="A2191" s="2">
-        <v>527038</v>
+        <v>541645</v>
       </c>
       <c r="B2191" s="1" t="s">
-        <v>294</v>
+        <v>539</v>
       </c>
     </row>
     <row r="2192" spans="1:2">
@@ -24485,10 +24485,10 @@
     </row>
     <row r="2195" spans="1:2">
       <c r="A2195" s="2">
-        <v>521692</v>
+        <v>527038</v>
       </c>
       <c r="B2195" s="1" t="s">
-        <v>215</v>
+        <v>294</v>
       </c>
     </row>
     <row r="2196" spans="1:2">
@@ -24517,18 +24517,18 @@
     </row>
     <row r="2199" spans="1:2">
       <c r="A2199" s="2">
-        <v>519390</v>
+        <v>521692</v>
       </c>
       <c r="B2199" s="1" t="s">
-        <v>585</v>
+        <v>215</v>
       </c>
     </row>
     <row r="2200" spans="1:2">
       <c r="A2200" s="2">
-        <v>519317</v>
+        <v>519390</v>
       </c>
       <c r="B2200" s="1" t="s">
-        <v>12</v>
+        <v>585</v>
       </c>
     </row>
     <row r="2201" spans="1:2">
@@ -24549,26 +24549,26 @@
     </row>
     <row r="2203" spans="1:2">
       <c r="A2203" s="2">
-        <v>519306</v>
+        <v>519317</v>
       </c>
       <c r="B2203" s="1" t="s">
-        <v>584</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2204" spans="1:2">
       <c r="A2204" s="2">
-        <v>519222</v>
+        <v>519306</v>
       </c>
       <c r="B2204" s="1" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="2205" spans="1:2">
       <c r="A2205" s="2">
-        <v>519203</v>
+        <v>519222</v>
       </c>
       <c r="B2205" s="1" t="s">
-        <v>217</v>
+        <v>583</v>
       </c>
     </row>
     <row r="2206" spans="1:2">
@@ -24589,10 +24589,10 @@
     </row>
     <row r="2208" spans="1:2">
       <c r="A2208" s="2">
-        <v>519058</v>
+        <v>519203</v>
       </c>
       <c r="B2208" s="1" t="s">
-        <v>582</v>
+        <v>217</v>
       </c>
     </row>
     <row r="2209" spans="1:2">
@@ -24605,10 +24605,10 @@
     </row>
     <row r="2210" spans="1:2">
       <c r="A2210" s="2">
-        <v>518934</v>
+        <v>519058</v>
       </c>
       <c r="B2210" s="1" t="s">
-        <v>65</v>
+        <v>582</v>
       </c>
     </row>
     <row r="2211" spans="1:2">
@@ -24629,10 +24629,10 @@
     </row>
     <row r="2213" spans="1:2">
       <c r="A2213" s="2">
-        <v>518792</v>
+        <v>518934</v>
       </c>
       <c r="B2213" s="1" t="s">
-        <v>368</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2214" spans="1:2">
@@ -24661,10 +24661,10 @@
     </row>
     <row r="2217" spans="1:2">
       <c r="A2217" s="2">
-        <v>518735</v>
+        <v>518792</v>
       </c>
       <c r="B2217" s="1" t="s">
-        <v>6</v>
+        <v>368</v>
       </c>
     </row>
     <row r="2218" spans="1:2">
@@ -24685,10 +24685,10 @@
     </row>
     <row r="2220" spans="1:2">
       <c r="A2220" s="2">
-        <v>518692</v>
+        <v>518735</v>
       </c>
       <c r="B2220" s="1" t="s">
-        <v>308</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2221" spans="1:2">
@@ -24717,10 +24717,10 @@
     </row>
     <row r="2224" spans="1:2">
       <c r="A2224" s="2">
-        <v>518626</v>
+        <v>518692</v>
       </c>
       <c r="B2224" s="1" t="s">
-        <v>581</v>
+        <v>308</v>
       </c>
     </row>
     <row r="2225" spans="1:2">
@@ -24733,10 +24733,10 @@
     </row>
     <row r="2226" spans="1:2">
       <c r="A2226" s="2">
-        <v>518595</v>
+        <v>518626</v>
       </c>
       <c r="B2226" s="1" t="s">
-        <v>208</v>
+        <v>581</v>
       </c>
     </row>
     <row r="2227" spans="1:2">
@@ -24765,18 +24765,18 @@
     </row>
     <row r="2230" spans="1:2">
       <c r="A2230" s="2">
-        <v>518586</v>
+        <v>518595</v>
       </c>
       <c r="B2230" s="1" t="s">
-        <v>580</v>
+        <v>208</v>
       </c>
     </row>
     <row r="2231" spans="1:2">
       <c r="A2231" s="2">
-        <v>516782</v>
+        <v>518586</v>
       </c>
       <c r="B2231" s="1" t="s">
-        <v>191</v>
+        <v>580</v>
       </c>
     </row>
     <row r="2232" spans="1:2">
@@ -24805,10 +24805,10 @@
     </row>
     <row r="2235" spans="1:2">
       <c r="A2235" s="2">
-        <v>516416</v>
+        <v>516782</v>
       </c>
       <c r="B2235" s="1" t="s">
-        <v>579</v>
+        <v>191</v>
       </c>
     </row>
     <row r="2236" spans="1:2">
@@ -24821,18 +24821,18 @@
     </row>
     <row r="2237" spans="1:2">
       <c r="A2237" s="2">
-        <v>514917</v>
+        <v>516416</v>
       </c>
       <c r="B2237" s="1" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="2238" spans="1:2">
       <c r="A2238" s="2">
-        <v>514888</v>
+        <v>514917</v>
       </c>
       <c r="B2238" s="1" t="s">
-        <v>320</v>
+        <v>578</v>
       </c>
     </row>
     <row r="2239" spans="1:2">
@@ -24861,10 +24861,10 @@
     </row>
     <row r="2242" spans="1:2">
       <c r="A2242" s="2">
-        <v>506702</v>
+        <v>514888</v>
       </c>
       <c r="B2242" s="1" t="s">
-        <v>577</v>
+        <v>320</v>
       </c>
     </row>
     <row r="2243" spans="1:2">
@@ -24877,18 +24877,18 @@
     </row>
     <row r="2244" spans="1:2">
       <c r="A2244" s="2">
-        <v>503556</v>
+        <v>506702</v>
       </c>
       <c r="B2244" s="1" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
     </row>
     <row r="2245" spans="1:2">
       <c r="A2245" s="2">
-        <v>502671</v>
+        <v>503556</v>
       </c>
       <c r="B2245" s="1" t="s">
-        <v>159</v>
+        <v>576</v>
       </c>
     </row>
     <row r="2246" spans="1:2">
@@ -24917,10 +24917,10 @@
     </row>
     <row r="2249" spans="1:2">
       <c r="A2249" s="2">
-        <v>502110</v>
+        <v>502671</v>
       </c>
       <c r="B2249" s="1" t="s">
-        <v>46</v>
+        <v>159</v>
       </c>
     </row>
     <row r="2250" spans="1:2">
@@ -24941,10 +24941,10 @@
     </row>
     <row r="2252" spans="1:2">
       <c r="A2252" s="2">
-        <v>502054</v>
+        <v>502110</v>
       </c>
       <c r="B2252" s="1" t="s">
-        <v>125</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2253" spans="1:2">
@@ -24973,10 +24973,10 @@
     </row>
     <row r="2256" spans="1:2">
       <c r="A2256" s="2">
-        <v>501659</v>
+        <v>502054</v>
       </c>
       <c r="B2256" s="1" t="s">
-        <v>575</v>
+        <v>125</v>
       </c>
     </row>
     <row r="2257" spans="1:2">
@@ -24989,18 +24989,18 @@
     </row>
     <row r="2258" spans="1:2">
       <c r="A2258" s="2">
-        <v>501571</v>
+        <v>501659</v>
       </c>
       <c r="B2258" s="1" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="2259" spans="1:2">
       <c r="A2259" s="2">
-        <v>501303</v>
+        <v>501571</v>
       </c>
       <c r="B2259" s="1" t="s">
-        <v>381</v>
+        <v>574</v>
       </c>
     </row>
     <row r="2260" spans="1:2">
@@ -25021,10 +25021,10 @@
     </row>
     <row r="2262" spans="1:2">
       <c r="A2262" s="2">
-        <v>500871</v>
+        <v>501303</v>
       </c>
       <c r="B2262" s="1" t="s">
-        <v>573</v>
+        <v>381</v>
       </c>
     </row>
     <row r="2263" spans="1:2">
@@ -25037,10 +25037,10 @@
     </row>
     <row r="2264" spans="1:2">
       <c r="A2264" s="2">
-        <v>500743</v>
+        <v>500871</v>
       </c>
       <c r="B2264" s="1" t="s">
-        <v>130</v>
+        <v>573</v>
       </c>
     </row>
     <row r="2265" spans="1:2">
@@ -25069,10 +25069,10 @@
     </row>
     <row r="2268" spans="1:2">
       <c r="A2268" s="2">
-        <v>493329</v>
+        <v>500743</v>
       </c>
       <c r="B2268" s="1" t="s">
-        <v>572</v>
+        <v>130</v>
       </c>
     </row>
     <row r="2269" spans="1:2">
@@ -25101,18 +25101,18 @@
     </row>
     <row r="2272" spans="1:2">
       <c r="A2272" s="2">
-        <v>488771</v>
+        <v>493329</v>
       </c>
       <c r="B2272" s="1" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="2273" spans="1:2">
       <c r="A2273" s="2">
-        <v>488726</v>
+        <v>488771</v>
       </c>
       <c r="B2273" s="1" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="2274" spans="1:2">
@@ -25125,18 +25125,18 @@
     </row>
     <row r="2275" spans="1:2">
       <c r="A2275" s="2">
-        <v>476704</v>
+        <v>488726</v>
       </c>
       <c r="B2275" s="1" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="2276" spans="1:2">
       <c r="A2276" s="2">
-        <v>474832</v>
+        <v>476704</v>
       </c>
       <c r="B2276" s="1" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="2277" spans="1:2">
@@ -25149,10 +25149,10 @@
     </row>
     <row r="2278" spans="1:2">
       <c r="A2278" s="2">
-        <v>467793</v>
+        <v>474832</v>
       </c>
       <c r="B2278" s="1" t="s">
-        <v>241</v>
+        <v>568</v>
       </c>
     </row>
     <row r="2279" spans="1:2">
@@ -25181,10 +25181,10 @@
     </row>
     <row r="2282" spans="1:2">
       <c r="A2282" s="2">
-        <v>462101</v>
+        <v>467793</v>
       </c>
       <c r="B2282" s="1" t="s">
-        <v>567</v>
+        <v>241</v>
       </c>
     </row>
     <row r="2283" spans="1:2">
@@ -25197,10 +25197,10 @@
     </row>
     <row r="2284" spans="1:2">
       <c r="A2284" s="2">
-        <v>458015</v>
+        <v>462101</v>
       </c>
       <c r="B2284" s="1" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="2285" spans="1:2">
@@ -25213,10 +25213,10 @@
     </row>
     <row r="2286" spans="1:2">
       <c r="A2286" s="2">
-        <v>457759</v>
+        <v>458015</v>
       </c>
       <c r="B2286" s="1" t="s">
-        <v>352</v>
+        <v>566</v>
       </c>
     </row>
     <row r="2287" spans="1:2">
@@ -25245,18 +25245,18 @@
     </row>
     <row r="2290" spans="1:2">
       <c r="A2290" s="2">
-        <v>457708</v>
+        <v>457759</v>
       </c>
       <c r="B2290" s="1" t="s">
-        <v>565</v>
+        <v>352</v>
       </c>
     </row>
     <row r="2291" spans="1:2">
       <c r="A2291" s="2">
-        <v>457705</v>
+        <v>457708</v>
       </c>
       <c r="B2291" s="1" t="s">
-        <v>205</v>
+        <v>565</v>
       </c>
     </row>
     <row r="2292" spans="1:2">
@@ -25285,10 +25285,10 @@
     </row>
     <row r="2295" spans="1:2">
       <c r="A2295" s="2">
-        <v>456781</v>
+        <v>457705</v>
       </c>
       <c r="B2295" s="1" t="s">
-        <v>1</v>
+        <v>205</v>
       </c>
     </row>
     <row r="2296" spans="1:2">
@@ -25317,26 +25317,26 @@
     </row>
     <row r="2299" spans="1:2">
       <c r="A2299" s="2">
-        <v>456715</v>
+        <v>456781</v>
       </c>
       <c r="B2299" s="1" t="s">
-        <v>564</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2300" spans="1:2">
       <c r="A2300" s="2">
-        <v>455139</v>
+        <v>456715</v>
       </c>
       <c r="B2300" s="1" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="2301" spans="1:2">
       <c r="A2301" s="2">
-        <v>455117</v>
+        <v>455139</v>
       </c>
       <c r="B2301" s="1" t="s">
-        <v>462</v>
+        <v>563</v>
       </c>
     </row>
     <row r="2302" spans="1:2">
@@ -25365,10 +25365,10 @@
     </row>
     <row r="2305" spans="1:2">
       <c r="A2305" s="2">
-        <v>453568</v>
+        <v>455117</v>
       </c>
       <c r="B2305" s="1" t="s">
-        <v>374</v>
+        <v>462</v>
       </c>
     </row>
     <row r="2306" spans="1:2">
@@ -25389,10 +25389,10 @@
     </row>
     <row r="2308" spans="1:2">
       <c r="A2308" s="2">
-        <v>446334</v>
+        <v>453568</v>
       </c>
       <c r="B2308" s="1" t="s">
-        <v>562</v>
+        <v>374</v>
       </c>
     </row>
     <row r="2309" spans="1:2">
@@ -25405,18 +25405,18 @@
     </row>
     <row r="2310" spans="1:2">
       <c r="A2310" s="2">
-        <v>444876</v>
+        <v>446334</v>
       </c>
       <c r="B2310" s="1" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="2311" spans="1:2">
       <c r="A2311" s="2">
-        <v>444489</v>
+        <v>444876</v>
       </c>
       <c r="B2311" s="1" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="2312" spans="1:2">
@@ -25429,10 +25429,10 @@
     </row>
     <row r="2313" spans="1:2">
       <c r="A2313" s="2">
-        <v>444482</v>
+        <v>444489</v>
       </c>
       <c r="B2313" s="1" t="s">
-        <v>88</v>
+        <v>560</v>
       </c>
     </row>
     <row r="2314" spans="1:2">
@@ -25453,10 +25453,10 @@
     </row>
     <row r="2316" spans="1:2">
       <c r="A2316" s="2">
-        <v>443558</v>
+        <v>444482</v>
       </c>
       <c r="B2316" s="1" t="s">
-        <v>559</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2317" spans="1:2">
@@ -25469,34 +25469,34 @@
     </row>
     <row r="2318" spans="1:2">
       <c r="A2318" s="2">
-        <v>435559</v>
+        <v>443558</v>
       </c>
       <c r="B2318" s="1" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="2319" spans="1:2">
       <c r="A2319" s="2">
-        <v>429664</v>
+        <v>435559</v>
       </c>
       <c r="B2319" s="1" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="2320" spans="1:2">
       <c r="A2320" s="2">
-        <v>425877</v>
+        <v>429664</v>
       </c>
       <c r="B2320" s="1" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
     </row>
     <row r="2321" spans="1:2">
       <c r="A2321" s="2">
-        <v>408234</v>
+        <v>425877</v>
       </c>
       <c r="B2321" s="1" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="2322" spans="1:2">
@@ -25509,16 +25509,24 @@
     </row>
     <row r="2323" spans="1:2">
       <c r="A2323" s="2">
+        <v>408234</v>
+      </c>
+      <c r="B2323" s="1" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="2324" spans="1:2">
+      <c r="A2324" s="2">
         <v>405395</v>
       </c>
-      <c r="B2323" s="1" t="s">
+      <c r="B2324" s="1" t="s">
         <v>554</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B879" xr:uid="{E47EA9C6-684B-904B-B57A-1918EC706D79}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B879">
-      <sortCondition descending="1" ref="B1:B1885"/>
+  <autoFilter ref="A1:B880" xr:uid="{E47EA9C6-684B-904B-B57A-1918EC706D79}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B880">
+      <sortCondition descending="1" ref="B1:B1886"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -25530,8 +25538,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC47BA75-19DB-BD4C-B69F-E48C4409EDF7}">
   <dimension ref="A1:B1886"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A946" workbookViewId="0">
-      <selection activeCell="A971" sqref="A971"/>
+    <sheetView topLeftCell="A946" workbookViewId="0">
+      <selection activeCell="A970" sqref="A970:XFD970"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
